--- a/codebook/공통변수정리_최종본_0111.xlsx
+++ b/codebook/공통변수정리_최종본_0111.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wynin\Desktop\SE_Cho\노인실태조사\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A51A81EC-F520-4970-AA9B-92BE7164DBED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F789DFDA-168E-4A3B-A773-5AE4B142AB8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1530" yWindow="180" windowWidth="23040" windowHeight="11925" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="공통변수정리" sheetId="10" r:id="rId1"/>
@@ -55,35 +55,6 @@
         </r>
       </text>
     </comment>
-    <comment ref="D304" authorId="0" shapeId="0" xr:uid="{A2261144-7E9C-4B82-94ED-16E6492D103E}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="12"/>
-            <color theme="1"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t>자살시도여부, 횟수 포함시킬 수 있으면 하기
-======</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D324" authorId="0" shapeId="0" xr:uid="{A29881AD-85B7-4956-9849-B129D6B1E909}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="12"/>
-            <color theme="1"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t>기혼/미혼
-이혼, 사별은 어떻게 해야할지?
-======</t>
-        </r>
-      </text>
-    </comment>
   </commentList>
 </comments>
 </file>
@@ -97,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2753" uniqueCount="1332">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2761" uniqueCount="1341">
   <si>
     <t>변수명 설명</t>
   </si>
@@ -3810,18 +3781,9 @@
     <t>부동산자산_금액</t>
   </si>
   <si>
-    <t>N6_1_1_b</t>
-  </si>
-  <si>
     <t>본인_부동산자산_금액</t>
   </si>
   <si>
-    <t>N5_1_2</t>
-  </si>
-  <si>
-    <t>가구_부동산자산_금액</t>
-  </si>
-  <si>
     <t>J6b_2</t>
   </si>
   <si>
@@ -3834,24 +3796,12 @@
     <t>본인_금융자산_금액</t>
   </si>
   <si>
-    <t>N5_2_2</t>
-  </si>
-  <si>
-    <t>가구_금융자산_금액</t>
-  </si>
-  <si>
     <t>J6b_3</t>
   </si>
   <si>
     <t>기타자산_금액</t>
   </si>
   <si>
-    <t>N5_3_2</t>
-  </si>
-  <si>
-    <t>가구_기타자산_금액</t>
-  </si>
-  <si>
     <t>J6b_4</t>
   </si>
   <si>
@@ -3862,12 +3812,6 @@
   </si>
   <si>
     <t>본인_부채_금액</t>
-  </si>
-  <si>
-    <t>N5_4_2</t>
-  </si>
-  <si>
-    <t>가구_부채_금액</t>
   </si>
   <si>
     <t>C4b</t>
@@ -4072,49 +4016,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>본인</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>_</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>총수입액</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>_</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>금액</t>
-    </r>
-  </si>
-  <si>
     <t>J3b_1_13</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -4127,49 +4028,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>본인</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>_</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>기타자산</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>_</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>금액</t>
-    </r>
-  </si>
-  <si>
     <t>N1_1_b</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -4214,6 +4072,86 @@
   </si>
   <si>
     <t>categorical</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>N6_1_1_b</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>본인_기타자산_금액</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>G3_1_1_b</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>N2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>G3_1_2_b</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>G3_1_3_b</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>G3_1_4_b</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>jo1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>본인_부동산자산_금액</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>본인_금융자산_금액</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>본인_부채_금액</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>평균으로 대체</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>c4_r</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>만족도_배우자와의 관계</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>N4_7_2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>가구_총수입액_금액</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>N3_3_15_b</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>J3b_3_13</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>x</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -4221,7 +4159,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7">
+  <fonts count="6">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -4243,13 +4181,6 @@
     </font>
     <font>
       <sz val="8"/>
-      <name val="돋움"/>
-      <family val="3"/>
-      <charset val="129"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
       <name val="돋움"/>
       <family val="3"/>
       <charset val="129"/>
@@ -4311,7 +4242,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -4320,23 +4251,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -4344,6 +4275,13 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4560,10 +4498,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7C1B0D4-8CA4-4B4C-9096-6AAA7899E3C8}">
-  <dimension ref="A1:J329"/>
+  <dimension ref="A1:J333"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A295" workbookViewId="0">
-      <selection activeCell="G310" sqref="G310"/>
+    <sheetView tabSelected="1" topLeftCell="A296" workbookViewId="0">
+      <selection activeCell="E312" sqref="E312"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4579,19 +4517,19 @@
   <sheetData>
     <row r="1" spans="1:10" ht="15.75">
       <c r="A1" s="10" t="s">
-        <v>1326</v>
+        <v>1315</v>
       </c>
       <c r="B1" s="7" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>1327</v>
+        <v>1316</v>
       </c>
       <c r="D1" s="7" t="s">
         <v>0</v>
       </c>
       <c r="E1" s="7" t="s">
-        <v>1328</v>
+        <v>1317</v>
       </c>
       <c r="F1" s="8" t="s">
         <v>0</v>
@@ -4627,7 +4565,7 @@
         <v>6</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>1330</v>
+        <v>1319</v>
       </c>
       <c r="H2" s="9" t="s">
         <v>4</v>
@@ -5339,7 +5277,7 @@
         <v>104</v>
       </c>
       <c r="G26" s="9" t="s">
-        <v>1330</v>
+        <v>1319</v>
       </c>
       <c r="H26" s="9" t="s">
         <v>7</v>
@@ -5369,7 +5307,7 @@
         <v>109</v>
       </c>
       <c r="G27" s="9" t="s">
-        <v>1330</v>
+        <v>1319</v>
       </c>
       <c r="H27" s="9" t="s">
         <v>7</v>
@@ -5399,7 +5337,7 @@
         <v>113</v>
       </c>
       <c r="G28" s="9" t="s">
-        <v>1330</v>
+        <v>1319</v>
       </c>
       <c r="H28" s="9" t="s">
         <v>7</v>
@@ -5429,7 +5367,7 @@
         <v>117</v>
       </c>
       <c r="G29" s="9" t="s">
-        <v>1330</v>
+        <v>1319</v>
       </c>
       <c r="H29" s="9" t="s">
         <v>7</v>
@@ -5459,7 +5397,7 @@
         <v>121</v>
       </c>
       <c r="G30" s="9" t="s">
-        <v>1330</v>
+        <v>1319</v>
       </c>
       <c r="H30" s="9" t="s">
         <v>7</v>
@@ -5489,7 +5427,7 @@
         <v>125</v>
       </c>
       <c r="G31" s="9" t="s">
-        <v>1330</v>
+        <v>1319</v>
       </c>
       <c r="H31" s="9" t="s">
         <v>7</v>
@@ -5519,7 +5457,7 @@
         <v>129</v>
       </c>
       <c r="G32" s="9" t="s">
-        <v>1330</v>
+        <v>1319</v>
       </c>
       <c r="H32" s="9" t="s">
         <v>7</v>
@@ -5549,7 +5487,7 @@
         <v>133</v>
       </c>
       <c r="G33" s="9" t="s">
-        <v>1330</v>
+        <v>1319</v>
       </c>
       <c r="H33" s="9" t="s">
         <v>7</v>
@@ -5579,7 +5517,7 @@
         <v>137</v>
       </c>
       <c r="G34" s="9" t="s">
-        <v>1330</v>
+        <v>1319</v>
       </c>
       <c r="H34" s="9" t="s">
         <v>7</v>
@@ -5609,7 +5547,7 @@
         <v>141</v>
       </c>
       <c r="G35" s="9" t="s">
-        <v>1330</v>
+        <v>1319</v>
       </c>
       <c r="H35" s="9" t="s">
         <v>7</v>
@@ -5639,7 +5577,7 @@
         <v>145</v>
       </c>
       <c r="G36" s="9" t="s">
-        <v>1330</v>
+        <v>1319</v>
       </c>
       <c r="H36" s="9" t="s">
         <v>7</v>
@@ -5669,7 +5607,7 @@
         <v>150</v>
       </c>
       <c r="G37" s="9" t="s">
-        <v>1330</v>
+        <v>1319</v>
       </c>
       <c r="H37" s="9" t="s">
         <v>7</v>
@@ -5699,7 +5637,7 @@
         <v>154</v>
       </c>
       <c r="G38" s="9" t="s">
-        <v>1330</v>
+        <v>1319</v>
       </c>
       <c r="H38" s="9" t="s">
         <v>7</v>
@@ -5729,7 +5667,7 @@
         <v>158</v>
       </c>
       <c r="G39" s="9" t="s">
-        <v>1330</v>
+        <v>1319</v>
       </c>
       <c r="H39" s="9" t="s">
         <v>7</v>
@@ -5759,7 +5697,7 @@
         <v>162</v>
       </c>
       <c r="G40" s="9" t="s">
-        <v>1330</v>
+        <v>1319</v>
       </c>
       <c r="H40" s="9" t="s">
         <v>7</v>
@@ -5789,7 +5727,7 @@
         <v>166</v>
       </c>
       <c r="G41" s="9" t="s">
-        <v>1330</v>
+        <v>1319</v>
       </c>
       <c r="H41" s="9" t="s">
         <v>7</v>
@@ -5819,7 +5757,7 @@
         <v>170</v>
       </c>
       <c r="G42" s="9" t="s">
-        <v>1330</v>
+        <v>1319</v>
       </c>
       <c r="H42" s="9" t="s">
         <v>7</v>
@@ -5849,7 +5787,7 @@
         <v>174</v>
       </c>
       <c r="G43" s="9" t="s">
-        <v>1330</v>
+        <v>1319</v>
       </c>
       <c r="H43" s="9" t="s">
         <v>7</v>
@@ -5879,7 +5817,7 @@
         <v>178</v>
       </c>
       <c r="G44" s="9" t="s">
-        <v>1330</v>
+        <v>1319</v>
       </c>
       <c r="H44" s="9" t="s">
         <v>7</v>
@@ -5909,7 +5847,7 @@
         <v>182</v>
       </c>
       <c r="G45" s="9" t="s">
-        <v>1330</v>
+        <v>1319</v>
       </c>
       <c r="H45" s="9" t="s">
         <v>7</v>
@@ -5939,7 +5877,7 @@
         <v>186</v>
       </c>
       <c r="G46" s="9" t="s">
-        <v>1331</v>
+        <v>1320</v>
       </c>
       <c r="H46" s="9" t="s">
         <v>4</v>
@@ -5967,7 +5905,7 @@
         <v>190</v>
       </c>
       <c r="G47" s="9" t="s">
-        <v>1330</v>
+        <v>1319</v>
       </c>
       <c r="H47" s="9" t="s">
         <v>4</v>
@@ -5995,7 +5933,7 @@
         <v>192</v>
       </c>
       <c r="G48" s="9" t="s">
-        <v>1330</v>
+        <v>1319</v>
       </c>
       <c r="H48" s="9" t="s">
         <v>4</v>
@@ -6023,7 +5961,7 @@
         <v>197</v>
       </c>
       <c r="G49" s="9" t="s">
-        <v>1330</v>
+        <v>1319</v>
       </c>
       <c r="H49" s="9" t="s">
         <v>4</v>
@@ -6051,7 +5989,7 @@
         <v>201</v>
       </c>
       <c r="G50" s="9" t="s">
-        <v>1330</v>
+        <v>1319</v>
       </c>
       <c r="H50" s="9" t="s">
         <v>4</v>
@@ -6079,7 +6017,7 @@
         <v>206</v>
       </c>
       <c r="G51" s="9" t="s">
-        <v>1330</v>
+        <v>1319</v>
       </c>
       <c r="H51" s="9" t="s">
         <v>4</v>
@@ -6107,7 +6045,7 @@
         <v>210</v>
       </c>
       <c r="G52" s="9" t="s">
-        <v>1330</v>
+        <v>1319</v>
       </c>
       <c r="H52" s="9" t="s">
         <v>4</v>
@@ -6135,7 +6073,7 @@
         <v>215</v>
       </c>
       <c r="G53" s="9" t="s">
-        <v>1330</v>
+        <v>1319</v>
       </c>
       <c r="H53" s="9" t="s">
         <v>4</v>
@@ -6163,7 +6101,7 @@
         <v>220</v>
       </c>
       <c r="G54" s="9" t="s">
-        <v>1330</v>
+        <v>1319</v>
       </c>
       <c r="H54" s="9" t="s">
         <v>4</v>
@@ -6191,7 +6129,7 @@
         <v>225</v>
       </c>
       <c r="G55" s="9" t="s">
-        <v>1330</v>
+        <v>1319</v>
       </c>
       <c r="H55" s="9" t="s">
         <v>4</v>
@@ -6219,7 +6157,7 @@
         <v>229</v>
       </c>
       <c r="G56" s="9" t="s">
-        <v>1330</v>
+        <v>1319</v>
       </c>
       <c r="H56" s="9" t="s">
         <v>4</v>
@@ -6247,7 +6185,7 @@
         <v>234</v>
       </c>
       <c r="G57" s="9" t="s">
-        <v>1330</v>
+        <v>1319</v>
       </c>
       <c r="H57" s="9" t="s">
         <v>4</v>
@@ -6275,7 +6213,7 @@
         <v>239</v>
       </c>
       <c r="G58" s="9" t="s">
-        <v>1330</v>
+        <v>1319</v>
       </c>
       <c r="H58" s="9" t="s">
         <v>4</v>
@@ -6303,7 +6241,7 @@
         <v>244</v>
       </c>
       <c r="G59" s="9" t="s">
-        <v>1330</v>
+        <v>1319</v>
       </c>
       <c r="H59" s="9" t="s">
         <v>4</v>
@@ -6331,7 +6269,7 @@
         <v>248</v>
       </c>
       <c r="G60" s="9" t="s">
-        <v>1330</v>
+        <v>1319</v>
       </c>
       <c r="H60" s="9" t="s">
         <v>4</v>
@@ -6359,7 +6297,7 @@
         <v>253</v>
       </c>
       <c r="G61" s="9" t="s">
-        <v>1330</v>
+        <v>1319</v>
       </c>
       <c r="H61" s="9" t="s">
         <v>4</v>
@@ -6387,7 +6325,7 @@
         <v>257</v>
       </c>
       <c r="G62" s="9" t="s">
-        <v>1330</v>
+        <v>1319</v>
       </c>
       <c r="H62" s="9" t="s">
         <v>4</v>
@@ -6415,7 +6353,7 @@
         <v>262</v>
       </c>
       <c r="G63" s="9" t="s">
-        <v>1330</v>
+        <v>1319</v>
       </c>
       <c r="H63" s="9" t="s">
         <v>4</v>
@@ -6443,7 +6381,7 @@
         <v>267</v>
       </c>
       <c r="G64" s="9" t="s">
-        <v>1330</v>
+        <v>1319</v>
       </c>
       <c r="H64" s="9" t="s">
         <v>4</v>
@@ -6471,7 +6409,7 @@
         <v>272</v>
       </c>
       <c r="G65" s="9" t="s">
-        <v>1330</v>
+        <v>1319</v>
       </c>
       <c r="H65" s="9" t="s">
         <v>4</v>
@@ -6499,7 +6437,7 @@
         <v>276</v>
       </c>
       <c r="G66" s="9" t="s">
-        <v>1330</v>
+        <v>1319</v>
       </c>
       <c r="H66" s="9" t="s">
         <v>4</v>
@@ -6527,7 +6465,7 @@
         <v>281</v>
       </c>
       <c r="G67" s="9" t="s">
-        <v>1330</v>
+        <v>1319</v>
       </c>
       <c r="H67" s="9" t="s">
         <v>4</v>
@@ -6555,7 +6493,7 @@
         <v>285</v>
       </c>
       <c r="G68" s="9" t="s">
-        <v>1330</v>
+        <v>1319</v>
       </c>
       <c r="H68" s="9" t="s">
         <v>4</v>
@@ -6583,7 +6521,7 @@
         <v>290</v>
       </c>
       <c r="G69" s="9" t="s">
-        <v>1330</v>
+        <v>1319</v>
       </c>
       <c r="H69" s="9" t="s">
         <v>4</v>
@@ -6611,7 +6549,7 @@
         <v>294</v>
       </c>
       <c r="G70" s="9" t="s">
-        <v>1330</v>
+        <v>1319</v>
       </c>
       <c r="H70" s="9" t="s">
         <v>4</v>
@@ -6639,7 +6577,7 @@
         <v>299</v>
       </c>
       <c r="G71" s="9" t="s">
-        <v>1330</v>
+        <v>1319</v>
       </c>
       <c r="H71" s="9" t="s">
         <v>4</v>
@@ -6667,7 +6605,7 @@
         <v>304</v>
       </c>
       <c r="G72" s="9" t="s">
-        <v>1330</v>
+        <v>1319</v>
       </c>
       <c r="H72" s="9" t="s">
         <v>4</v>
@@ -6695,7 +6633,7 @@
         <v>309</v>
       </c>
       <c r="G73" s="9" t="s">
-        <v>1330</v>
+        <v>1319</v>
       </c>
       <c r="H73" s="9" t="s">
         <v>4</v>
@@ -6723,7 +6661,7 @@
         <v>313</v>
       </c>
       <c r="G74" s="9" t="s">
-        <v>1330</v>
+        <v>1319</v>
       </c>
       <c r="H74" s="9" t="s">
         <v>4</v>
@@ -6751,7 +6689,7 @@
         <v>318</v>
       </c>
       <c r="G75" s="9" t="s">
-        <v>1330</v>
+        <v>1319</v>
       </c>
       <c r="H75" s="9" t="s">
         <v>4</v>
@@ -6779,7 +6717,7 @@
         <v>322</v>
       </c>
       <c r="G76" s="9" t="s">
-        <v>1330</v>
+        <v>1319</v>
       </c>
       <c r="H76" s="9" t="s">
         <v>4</v>
@@ -6807,7 +6745,7 @@
         <v>327</v>
       </c>
       <c r="G77" s="9" t="s">
-        <v>1330</v>
+        <v>1319</v>
       </c>
       <c r="H77" s="9" t="s">
         <v>4</v>
@@ -6835,7 +6773,7 @@
         <v>331</v>
       </c>
       <c r="G78" s="9" t="s">
-        <v>1330</v>
+        <v>1319</v>
       </c>
       <c r="H78" s="9" t="s">
         <v>4</v>
@@ -6863,7 +6801,7 @@
         <v>336</v>
       </c>
       <c r="G79" s="9" t="s">
-        <v>1330</v>
+        <v>1319</v>
       </c>
       <c r="H79" s="9" t="s">
         <v>4</v>
@@ -6891,7 +6829,7 @@
         <v>340</v>
       </c>
       <c r="G80" s="9" t="s">
-        <v>1330</v>
+        <v>1319</v>
       </c>
       <c r="H80" s="9" t="s">
         <v>4</v>
@@ -6919,7 +6857,7 @@
         <v>345</v>
       </c>
       <c r="G81" s="9" t="s">
-        <v>1330</v>
+        <v>1319</v>
       </c>
       <c r="H81" s="9" t="s">
         <v>4</v>
@@ -6947,7 +6885,7 @@
         <v>349</v>
       </c>
       <c r="G82" s="9" t="s">
-        <v>1330</v>
+        <v>1319</v>
       </c>
       <c r="H82" s="9" t="s">
         <v>4</v>
@@ -6975,7 +6913,7 @@
         <v>354</v>
       </c>
       <c r="G83" s="9" t="s">
-        <v>1330</v>
+        <v>1319</v>
       </c>
       <c r="H83" s="9" t="s">
         <v>4</v>
@@ -7003,7 +6941,7 @@
         <v>358</v>
       </c>
       <c r="G84" s="9" t="s">
-        <v>1330</v>
+        <v>1319</v>
       </c>
       <c r="H84" s="9" t="s">
         <v>4</v>
@@ -7031,7 +6969,7 @@
         <v>363</v>
       </c>
       <c r="G85" s="9" t="s">
-        <v>1330</v>
+        <v>1319</v>
       </c>
       <c r="H85" s="9" t="s">
         <v>4</v>
@@ -7059,7 +6997,7 @@
         <v>367</v>
       </c>
       <c r="G86" s="9" t="s">
-        <v>1330</v>
+        <v>1319</v>
       </c>
       <c r="H86" s="9" t="s">
         <v>4</v>
@@ -7087,7 +7025,7 @@
         <v>372</v>
       </c>
       <c r="G87" s="9" t="s">
-        <v>1330</v>
+        <v>1319</v>
       </c>
       <c r="H87" s="9" t="s">
         <v>4</v>
@@ -7115,7 +7053,7 @@
         <v>376</v>
       </c>
       <c r="G88" s="9" t="s">
-        <v>1330</v>
+        <v>1319</v>
       </c>
       <c r="H88" s="9" t="s">
         <v>4</v>
@@ -7143,7 +7081,7 @@
         <v>381</v>
       </c>
       <c r="G89" s="9" t="s">
-        <v>1330</v>
+        <v>1319</v>
       </c>
       <c r="H89" s="9" t="s">
         <v>4</v>
@@ -7171,7 +7109,7 @@
         <v>385</v>
       </c>
       <c r="G90" s="9" t="s">
-        <v>1330</v>
+        <v>1319</v>
       </c>
       <c r="H90" s="9" t="s">
         <v>4</v>
@@ -7199,7 +7137,7 @@
         <v>390</v>
       </c>
       <c r="G91" s="9" t="s">
-        <v>1330</v>
+        <v>1319</v>
       </c>
       <c r="H91" s="9" t="s">
         <v>4</v>
@@ -7227,7 +7165,7 @@
         <v>395</v>
       </c>
       <c r="G92" s="9" t="s">
-        <v>1330</v>
+        <v>1319</v>
       </c>
       <c r="H92" s="9" t="s">
         <v>4</v>
@@ -7255,7 +7193,7 @@
         <v>400</v>
       </c>
       <c r="G93" s="9" t="s">
-        <v>1330</v>
+        <v>1319</v>
       </c>
       <c r="H93" s="9" t="s">
         <v>4</v>
@@ -7283,7 +7221,7 @@
         <v>404</v>
       </c>
       <c r="G94" s="9" t="s">
-        <v>1330</v>
+        <v>1319</v>
       </c>
       <c r="H94" s="9" t="s">
         <v>4</v>
@@ -7311,7 +7249,7 @@
         <v>409</v>
       </c>
       <c r="G95" s="9" t="s">
-        <v>1330</v>
+        <v>1319</v>
       </c>
       <c r="H95" s="9" t="s">
         <v>4</v>
@@ -7339,7 +7277,7 @@
         <v>414</v>
       </c>
       <c r="G96" s="9" t="s">
-        <v>1330</v>
+        <v>1319</v>
       </c>
       <c r="H96" s="9" t="s">
         <v>4</v>
@@ -7367,7 +7305,7 @@
         <v>420</v>
       </c>
       <c r="G97" s="9" t="s">
-        <v>1330</v>
+        <v>1319</v>
       </c>
       <c r="H97" s="9" t="s">
         <v>4</v>
@@ -7395,7 +7333,7 @@
         <v>426</v>
       </c>
       <c r="G98" s="9" t="s">
-        <v>1330</v>
+        <v>1319</v>
       </c>
       <c r="H98" s="9" t="s">
         <v>4</v>
@@ -7423,7 +7361,7 @@
         <v>431</v>
       </c>
       <c r="G99" s="9" t="s">
-        <v>1330</v>
+        <v>1319</v>
       </c>
       <c r="H99" s="9" t="s">
         <v>4</v>
@@ -7451,7 +7389,7 @@
         <v>436</v>
       </c>
       <c r="G100" s="9" t="s">
-        <v>1330</v>
+        <v>1319</v>
       </c>
       <c r="H100" s="9" t="s">
         <v>4</v>
@@ -7479,7 +7417,7 @@
         <v>441</v>
       </c>
       <c r="G101" s="9" t="s">
-        <v>1330</v>
+        <v>1319</v>
       </c>
       <c r="H101" s="9" t="s">
         <v>4</v>
@@ -7507,7 +7445,7 @@
         <v>445</v>
       </c>
       <c r="G102" s="9" t="s">
-        <v>1330</v>
+        <v>1319</v>
       </c>
       <c r="H102" s="9" t="s">
         <v>4</v>
@@ -7535,7 +7473,7 @@
         <v>450</v>
       </c>
       <c r="G103" s="9" t="s">
-        <v>1330</v>
+        <v>1319</v>
       </c>
       <c r="H103" s="9" t="s">
         <v>4</v>
@@ -7632,7 +7570,7 @@
         <v>466</v>
       </c>
       <c r="B107" s="4" t="s">
-        <v>1293</v>
+        <v>1284</v>
       </c>
       <c r="C107" s="9" t="s">
         <v>464</v>
@@ -7641,10 +7579,10 @@
         <v>465</v>
       </c>
       <c r="E107" s="9" t="s">
-        <v>1292</v>
+        <v>1283</v>
       </c>
       <c r="F107" s="4" t="s">
-        <v>1294</v>
+        <v>1285</v>
       </c>
       <c r="G107" s="9" t="s">
         <v>12</v>
@@ -7675,13 +7613,13 @@
         <v>467</v>
       </c>
       <c r="G108" s="9" t="s">
-        <v>1330</v>
+        <v>1319</v>
       </c>
       <c r="H108" s="9" t="s">
         <v>7</v>
       </c>
       <c r="I108" s="9" t="s">
-        <v>1282</v>
+        <v>1273</v>
       </c>
       <c r="J108" s="5"/>
     </row>
@@ -7705,7 +7643,7 @@
         <v>471</v>
       </c>
       <c r="G109" s="9" t="s">
-        <v>1330</v>
+        <v>1319</v>
       </c>
       <c r="H109" s="9" t="s">
         <v>7</v>
@@ -7735,7 +7673,7 @@
         <v>474</v>
       </c>
       <c r="G110" s="9" t="s">
-        <v>1330</v>
+        <v>1319</v>
       </c>
       <c r="H110" s="9" t="s">
         <v>7</v>
@@ -7765,7 +7703,7 @@
         <v>477</v>
       </c>
       <c r="G111" s="9" t="s">
-        <v>1330</v>
+        <v>1319</v>
       </c>
       <c r="H111" s="9" t="s">
         <v>7</v>
@@ -7795,7 +7733,7 @@
         <v>480</v>
       </c>
       <c r="G112" s="9" t="s">
-        <v>1330</v>
+        <v>1319</v>
       </c>
       <c r="H112" s="9" t="s">
         <v>7</v>
@@ -7825,7 +7763,7 @@
         <v>483</v>
       </c>
       <c r="G113" s="9" t="s">
-        <v>1330</v>
+        <v>1319</v>
       </c>
       <c r="H113" s="9" t="s">
         <v>7</v>
@@ -7855,7 +7793,7 @@
         <v>486</v>
       </c>
       <c r="G114" s="9" t="s">
-        <v>1330</v>
+        <v>1319</v>
       </c>
       <c r="H114" s="9" t="s">
         <v>7</v>
@@ -7885,7 +7823,7 @@
         <v>489</v>
       </c>
       <c r="G115" s="9" t="s">
-        <v>1330</v>
+        <v>1319</v>
       </c>
       <c r="H115" s="9" t="s">
         <v>7</v>
@@ -7915,7 +7853,7 @@
         <v>492</v>
       </c>
       <c r="G116" s="9" t="s">
-        <v>1330</v>
+        <v>1319</v>
       </c>
       <c r="H116" s="9" t="s">
         <v>7</v>
@@ -7945,13 +7883,13 @@
         <v>495</v>
       </c>
       <c r="G117" s="9" t="s">
-        <v>1330</v>
+        <v>1319</v>
       </c>
       <c r="H117" s="9" t="s">
         <v>7</v>
       </c>
       <c r="I117" s="9" t="s">
-        <v>1282</v>
+        <v>1273</v>
       </c>
       <c r="J117" s="5"/>
     </row>
@@ -7975,7 +7913,7 @@
         <v>498</v>
       </c>
       <c r="G118" s="9" t="s">
-        <v>1330</v>
+        <v>1319</v>
       </c>
       <c r="H118" s="9" t="s">
         <v>7</v>
@@ -8005,7 +7943,7 @@
         <v>501</v>
       </c>
       <c r="G119" s="9" t="s">
-        <v>1330</v>
+        <v>1319</v>
       </c>
       <c r="H119" s="9" t="s">
         <v>7</v>
@@ -8035,7 +7973,7 @@
         <v>504</v>
       </c>
       <c r="G120" s="9" t="s">
-        <v>1330</v>
+        <v>1319</v>
       </c>
       <c r="H120" s="9" t="s">
         <v>7</v>
@@ -8065,7 +8003,7 @@
         <v>507</v>
       </c>
       <c r="G121" s="9" t="s">
-        <v>1330</v>
+        <v>1319</v>
       </c>
       <c r="H121" s="9" t="s">
         <v>7</v>
@@ -8095,7 +8033,7 @@
         <v>510</v>
       </c>
       <c r="G122" s="9" t="s">
-        <v>1330</v>
+        <v>1319</v>
       </c>
       <c r="H122" s="9" t="s">
         <v>7</v>
@@ -8119,13 +8057,13 @@
         <v>512</v>
       </c>
       <c r="E123" s="9" t="s">
-        <v>1312</v>
+        <v>1303</v>
       </c>
       <c r="F123" s="4" t="s">
         <v>512</v>
       </c>
       <c r="G123" s="9" t="s">
-        <v>1330</v>
+        <v>1319</v>
       </c>
       <c r="H123" s="9" t="s">
         <v>4</v>
@@ -8153,7 +8091,7 @@
         <v>515</v>
       </c>
       <c r="G124" s="9" t="s">
-        <v>1330</v>
+        <v>1319</v>
       </c>
       <c r="H124" s="9" t="s">
         <v>4</v>
@@ -8175,13 +8113,13 @@
         <v>517</v>
       </c>
       <c r="E125" s="9" t="s">
-        <v>1313</v>
+        <v>1304</v>
       </c>
       <c r="F125" s="4" t="s">
         <v>517</v>
       </c>
       <c r="G125" s="9" t="s">
-        <v>1330</v>
+        <v>1319</v>
       </c>
       <c r="H125" s="9" t="s">
         <v>4</v>
@@ -8263,19 +8201,19 @@
         <v>526</v>
       </c>
       <c r="E128" s="9" t="s">
-        <v>1295</v>
+        <v>1286</v>
       </c>
       <c r="F128" s="4" t="s">
         <v>526</v>
       </c>
       <c r="G128" s="9" t="s">
-        <v>1330</v>
+        <v>1319</v>
       </c>
       <c r="H128" s="9" t="s">
         <v>7</v>
       </c>
       <c r="I128" s="6" t="s">
-        <v>1296</v>
+        <v>1287</v>
       </c>
       <c r="J128" s="5"/>
     </row>
@@ -8299,13 +8237,13 @@
         <v>529</v>
       </c>
       <c r="G129" s="9" t="s">
-        <v>1330</v>
+        <v>1319</v>
       </c>
       <c r="H129" s="9" t="s">
         <v>7</v>
       </c>
       <c r="I129" s="6" t="s">
-        <v>1296</v>
+        <v>1287</v>
       </c>
       <c r="J129" s="5"/>
     </row>
@@ -8329,13 +8267,13 @@
         <v>532</v>
       </c>
       <c r="G130" s="9" t="s">
-        <v>1330</v>
+        <v>1319</v>
       </c>
       <c r="H130" s="9" t="s">
         <v>7</v>
       </c>
       <c r="I130" s="6" t="s">
-        <v>1296</v>
+        <v>1287</v>
       </c>
       <c r="J130" s="5"/>
     </row>
@@ -8359,13 +8297,13 @@
         <v>537</v>
       </c>
       <c r="G131" s="9" t="s">
-        <v>1330</v>
+        <v>1319</v>
       </c>
       <c r="H131" s="9" t="s">
         <v>7</v>
       </c>
       <c r="I131" s="6" t="s">
-        <v>1296</v>
+        <v>1287</v>
       </c>
       <c r="J131" s="5"/>
     </row>
@@ -8389,13 +8327,13 @@
         <v>540</v>
       </c>
       <c r="G132" s="9" t="s">
-        <v>1330</v>
+        <v>1319</v>
       </c>
       <c r="H132" s="9" t="s">
         <v>7</v>
       </c>
       <c r="I132" s="6" t="s">
-        <v>1296</v>
+        <v>1287</v>
       </c>
       <c r="J132" s="5"/>
     </row>
@@ -8419,13 +8357,13 @@
         <v>543</v>
       </c>
       <c r="G133" s="9" t="s">
-        <v>1330</v>
+        <v>1319</v>
       </c>
       <c r="H133" s="9" t="s">
         <v>7</v>
       </c>
       <c r="I133" s="6" t="s">
-        <v>1296</v>
+        <v>1287</v>
       </c>
       <c r="J133" s="5"/>
     </row>
@@ -8449,13 +8387,13 @@
         <v>547</v>
       </c>
       <c r="G134" s="9" t="s">
-        <v>1330</v>
+        <v>1319</v>
       </c>
       <c r="H134" s="9" t="s">
         <v>7</v>
       </c>
       <c r="I134" s="6" t="s">
-        <v>1296</v>
+        <v>1287</v>
       </c>
       <c r="J134" s="5"/>
     </row>
@@ -8479,13 +8417,13 @@
         <v>550</v>
       </c>
       <c r="G135" s="9" t="s">
-        <v>1330</v>
+        <v>1319</v>
       </c>
       <c r="H135" s="9" t="s">
         <v>7</v>
       </c>
       <c r="I135" s="6" t="s">
-        <v>1296</v>
+        <v>1287</v>
       </c>
       <c r="J135" s="5"/>
     </row>
@@ -8509,13 +8447,13 @@
         <v>553</v>
       </c>
       <c r="G136" s="9" t="s">
-        <v>1330</v>
+        <v>1319</v>
       </c>
       <c r="H136" s="9" t="s">
         <v>7</v>
       </c>
       <c r="I136" s="6" t="s">
-        <v>1296</v>
+        <v>1287</v>
       </c>
       <c r="J136" s="5"/>
     </row>
@@ -8539,13 +8477,13 @@
         <v>556</v>
       </c>
       <c r="G137" s="9" t="s">
-        <v>1330</v>
+        <v>1319</v>
       </c>
       <c r="H137" s="9" t="s">
         <v>7</v>
       </c>
       <c r="I137" s="6" t="s">
-        <v>1296</v>
+        <v>1287</v>
       </c>
       <c r="J137" s="5"/>
     </row>
@@ -8569,13 +8507,13 @@
         <v>559</v>
       </c>
       <c r="G138" s="9" t="s">
-        <v>1330</v>
+        <v>1319</v>
       </c>
       <c r="H138" s="9" t="s">
         <v>7</v>
       </c>
       <c r="I138" s="6" t="s">
-        <v>1296</v>
+        <v>1287</v>
       </c>
       <c r="J138" s="5"/>
     </row>
@@ -8599,13 +8537,13 @@
         <v>562</v>
       </c>
       <c r="G139" s="9" t="s">
-        <v>1330</v>
+        <v>1319</v>
       </c>
       <c r="H139" s="9" t="s">
         <v>7</v>
       </c>
       <c r="I139" s="6" t="s">
-        <v>1296</v>
+        <v>1287</v>
       </c>
       <c r="J139" s="5"/>
     </row>
@@ -8629,7 +8567,7 @@
         <v>565</v>
       </c>
       <c r="G140" s="9" t="s">
-        <v>1330</v>
+        <v>1319</v>
       </c>
       <c r="H140" s="9" t="s">
         <v>7</v>
@@ -8659,7 +8597,7 @@
         <v>572</v>
       </c>
       <c r="G141" s="9" t="s">
-        <v>1330</v>
+        <v>1319</v>
       </c>
       <c r="H141" s="9" t="s">
         <v>7</v>
@@ -8689,7 +8627,7 @@
         <v>578</v>
       </c>
       <c r="G142" s="9" t="s">
-        <v>1330</v>
+        <v>1319</v>
       </c>
       <c r="H142" s="9" t="s">
         <v>4</v>
@@ -8717,7 +8655,7 @@
         <v>583</v>
       </c>
       <c r="G143" s="9" t="s">
-        <v>1330</v>
+        <v>1319</v>
       </c>
       <c r="H143" s="9" t="s">
         <v>7</v>
@@ -8747,7 +8685,7 @@
         <v>589</v>
       </c>
       <c r="G144" s="9" t="s">
-        <v>1330</v>
+        <v>1319</v>
       </c>
       <c r="H144" s="9" t="s">
         <v>7</v>
@@ -8759,13 +8697,13 @@
     </row>
     <row r="145" spans="1:10" ht="15.75">
       <c r="A145" s="9" t="s">
-        <v>1306</v>
+        <v>1297</v>
       </c>
       <c r="B145" s="4" t="s">
         <v>595</v>
       </c>
       <c r="C145" s="9" t="s">
-        <v>1305</v>
+        <v>1296</v>
       </c>
       <c r="D145" s="4" t="s">
         <v>595</v>
@@ -8777,7 +8715,7 @@
         <v>595</v>
       </c>
       <c r="G145" s="9" t="s">
-        <v>1330</v>
+        <v>1319</v>
       </c>
       <c r="H145" s="9" t="s">
         <v>7</v>
@@ -8789,13 +8727,13 @@
     </row>
     <row r="146" spans="1:10" ht="15.75">
       <c r="A146" s="9" t="s">
-        <v>1307</v>
+        <v>1298</v>
       </c>
       <c r="B146" s="4" t="s">
         <v>598</v>
       </c>
       <c r="C146" s="9" t="s">
-        <v>1307</v>
+        <v>1298</v>
       </c>
       <c r="D146" s="4" t="s">
         <v>598</v>
@@ -8807,7 +8745,7 @@
         <v>598</v>
       </c>
       <c r="G146" s="9" t="s">
-        <v>1330</v>
+        <v>1319</v>
       </c>
       <c r="H146" s="9" t="s">
         <v>7</v>
@@ -8819,13 +8757,13 @@
     </row>
     <row r="147" spans="1:10" ht="15.75">
       <c r="A147" s="9" t="s">
-        <v>1308</v>
+        <v>1299</v>
       </c>
       <c r="B147" s="4" t="s">
         <v>599</v>
       </c>
       <c r="C147" s="9" t="s">
-        <v>1308</v>
+        <v>1299</v>
       </c>
       <c r="D147" s="4" t="s">
         <v>599</v>
@@ -8837,7 +8775,7 @@
         <v>599</v>
       </c>
       <c r="G147" s="9" t="s">
-        <v>1330</v>
+        <v>1319</v>
       </c>
       <c r="H147" s="9" t="s">
         <v>7</v>
@@ -8849,13 +8787,13 @@
     </row>
     <row r="148" spans="1:10" ht="15.75">
       <c r="A148" s="9" t="s">
-        <v>1309</v>
+        <v>1300</v>
       </c>
       <c r="B148" s="4" t="s">
         <v>601</v>
       </c>
       <c r="C148" s="9" t="s">
-        <v>1309</v>
+        <v>1300</v>
       </c>
       <c r="D148" s="4" t="s">
         <v>601</v>
@@ -8867,7 +8805,7 @@
         <v>601</v>
       </c>
       <c r="G148" s="9" t="s">
-        <v>1330</v>
+        <v>1319</v>
       </c>
       <c r="H148" s="9" t="s">
         <v>4</v>
@@ -8877,13 +8815,13 @@
     </row>
     <row r="149" spans="1:10" ht="15.75">
       <c r="A149" s="9" t="s">
-        <v>1310</v>
+        <v>1301</v>
       </c>
       <c r="B149" s="4" t="s">
         <v>603</v>
       </c>
       <c r="C149" s="9" t="s">
-        <v>1310</v>
+        <v>1301</v>
       </c>
       <c r="D149" s="4" t="s">
         <v>603</v>
@@ -8895,7 +8833,7 @@
         <v>603</v>
       </c>
       <c r="G149" s="9" t="s">
-        <v>1330</v>
+        <v>1319</v>
       </c>
       <c r="H149" s="9" t="s">
         <v>4</v>
@@ -8923,7 +8861,7 @@
         <v>605</v>
       </c>
       <c r="G150" s="9" t="s">
-        <v>1330</v>
+        <v>1319</v>
       </c>
       <c r="H150" s="9" t="s">
         <v>4</v>
@@ -8951,7 +8889,7 @@
         <v>607</v>
       </c>
       <c r="G151" s="9" t="s">
-        <v>1330</v>
+        <v>1319</v>
       </c>
       <c r="H151" s="9" t="s">
         <v>7</v>
@@ -8981,12 +8919,14 @@
         <v>610</v>
       </c>
       <c r="G152" s="9" t="s">
-        <v>1330</v>
+        <v>1319</v>
       </c>
       <c r="H152" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="I152" s="9"/>
+      <c r="I152" s="9" t="s">
+        <v>611</v>
+      </c>
       <c r="J152" s="5"/>
     </row>
     <row r="153" spans="1:10" ht="15.75">
@@ -9165,7 +9105,7 @@
         <v>7</v>
       </c>
       <c r="I158" s="9" t="s">
-        <v>611</v>
+        <v>630</v>
       </c>
       <c r="J158" s="5"/>
     </row>
@@ -9375,7 +9315,7 @@
         <v>7</v>
       </c>
       <c r="I165" s="9" t="s">
-        <v>630</v>
+        <v>651</v>
       </c>
       <c r="J165" s="5"/>
     </row>
@@ -9674,9 +9614,7 @@
       <c r="H175" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="I175" s="9" t="s">
-        <v>651</v>
-      </c>
+      <c r="I175" s="6"/>
       <c r="J175" s="5"/>
     </row>
     <row r="176" spans="1:10" ht="15.75">
@@ -9693,26 +9631,28 @@
         <v>684</v>
       </c>
       <c r="E176" s="9" t="s">
-        <v>1283</v>
+        <v>1274</v>
       </c>
       <c r="F176" s="4" t="s">
         <v>684</v>
       </c>
       <c r="G176" s="9" t="s">
-        <v>1330</v>
+        <v>1319</v>
       </c>
       <c r="H176" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="I176" s="6"/>
+      <c r="I176" s="6" t="s">
+        <v>1288</v>
+      </c>
       <c r="J176" s="5"/>
     </row>
     <row r="177" spans="1:10" ht="15.75">
       <c r="A177" s="9" t="s">
-        <v>1329</v>
+        <v>1318</v>
       </c>
       <c r="B177" s="4" t="s">
-        <v>1329</v>
+        <v>1318</v>
       </c>
       <c r="C177" s="9" t="s">
         <v>689</v>
@@ -9727,13 +9667,13 @@
         <v>688</v>
       </c>
       <c r="G177" s="9" t="s">
-        <v>1330</v>
+        <v>1319</v>
       </c>
       <c r="H177" s="9" t="s">
-        <v>1291</v>
+        <v>1282</v>
       </c>
       <c r="I177" s="6" t="s">
-        <v>1297</v>
+        <v>1288</v>
       </c>
       <c r="J177" s="5"/>
     </row>
@@ -9757,14 +9697,12 @@
         <v>691</v>
       </c>
       <c r="G178" s="9" t="s">
-        <v>1330</v>
+        <v>1319</v>
       </c>
       <c r="H178" s="9" t="s">
-        <v>1291</v>
-      </c>
-      <c r="I178" s="6" t="s">
-        <v>1297</v>
-      </c>
+        <v>1282</v>
+      </c>
+      <c r="I178" s="6"/>
       <c r="J178" s="5"/>
     </row>
     <row r="179" spans="1:10" ht="15.75">
@@ -9787,7 +9725,7 @@
         <v>695</v>
       </c>
       <c r="G179" s="9" t="s">
-        <v>1330</v>
+        <v>1319</v>
       </c>
       <c r="H179" s="9" t="s">
         <v>4</v>
@@ -9815,7 +9753,7 @@
         <v>698</v>
       </c>
       <c r="G180" s="9" t="s">
-        <v>1330</v>
+        <v>1319</v>
       </c>
       <c r="H180" s="9" t="s">
         <v>4</v>
@@ -9843,7 +9781,7 @@
         <v>702</v>
       </c>
       <c r="G181" s="9" t="s">
-        <v>1330</v>
+        <v>1319</v>
       </c>
       <c r="H181" s="9" t="s">
         <v>4</v>
@@ -9871,7 +9809,7 @@
         <v>706</v>
       </c>
       <c r="G182" s="9" t="s">
-        <v>1330</v>
+        <v>1319</v>
       </c>
       <c r="H182" s="9" t="s">
         <v>4</v>
@@ -9893,26 +9831,28 @@
         <v>708</v>
       </c>
       <c r="E183" s="9" t="s">
-        <v>1298</v>
+        <v>1289</v>
       </c>
       <c r="F183" s="4" t="s">
         <v>708</v>
       </c>
       <c r="G183" s="9" t="s">
-        <v>1330</v>
+        <v>1319</v>
       </c>
       <c r="H183" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="I183" s="6"/>
+      <c r="I183" s="6" t="s">
+        <v>1290</v>
+      </c>
       <c r="J183" s="5"/>
     </row>
     <row r="184" spans="1:10" ht="15.75">
       <c r="A184" s="9" t="s">
-        <v>1329</v>
+        <v>1318</v>
       </c>
       <c r="B184" s="4" t="s">
-        <v>1329</v>
+        <v>1318</v>
       </c>
       <c r="C184" s="9" t="s">
         <v>714</v>
@@ -9927,13 +9867,13 @@
         <v>713</v>
       </c>
       <c r="G184" s="9" t="s">
-        <v>1330</v>
+        <v>1319</v>
       </c>
       <c r="H184" s="9" t="s">
-        <v>1291</v>
+        <v>1282</v>
       </c>
       <c r="I184" s="6" t="s">
-        <v>1299</v>
+        <v>1290</v>
       </c>
       <c r="J184" s="5"/>
     </row>
@@ -9945,26 +9885,24 @@
         <v>719</v>
       </c>
       <c r="C185" s="9" t="s">
-        <v>1284</v>
+        <v>1275</v>
       </c>
       <c r="D185" s="4" t="s">
         <v>719</v>
       </c>
       <c r="E185" s="9" t="s">
-        <v>1285</v>
+        <v>1276</v>
       </c>
       <c r="F185" s="4" t="s">
         <v>717</v>
       </c>
       <c r="G185" s="9" t="s">
-        <v>1330</v>
+        <v>1319</v>
       </c>
       <c r="H185" s="9" t="s">
-        <v>1291</v>
-      </c>
-      <c r="I185" s="6" t="s">
-        <v>1299</v>
-      </c>
+        <v>1282</v>
+      </c>
+      <c r="I185" s="6"/>
       <c r="J185" s="5"/>
     </row>
     <row r="186" spans="1:10" ht="15.75">
@@ -10056,7 +9994,7 @@
         <v>718</v>
       </c>
       <c r="B189" s="4" t="s">
-        <v>1286</v>
+        <v>1277</v>
       </c>
       <c r="C189" s="9" t="s">
         <v>734</v>
@@ -10065,7 +10003,7 @@
         <v>735</v>
       </c>
       <c r="E189" s="9" t="s">
-        <v>1287</v>
+        <v>1278</v>
       </c>
       <c r="F189" s="4" t="s">
         <v>733</v>
@@ -10109,7 +10047,7 @@
     </row>
     <row r="191" spans="1:10" ht="15.75">
       <c r="A191" s="9" t="s">
-        <v>1324</v>
+        <v>1313</v>
       </c>
       <c r="B191" s="4" t="s">
         <v>740</v>
@@ -10127,12 +10065,14 @@
         <v>740</v>
       </c>
       <c r="G191" s="9" t="s">
-        <v>1331</v>
+        <v>1320</v>
       </c>
       <c r="H191" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="I191" s="6"/>
+      <c r="I191" s="9" t="s">
+        <v>741</v>
+      </c>
       <c r="J191" s="5"/>
     </row>
     <row r="192" spans="1:10" ht="15.75">
@@ -10155,7 +10095,7 @@
         <v>744</v>
       </c>
       <c r="G192" s="9" t="s">
-        <v>1330</v>
+        <v>1319</v>
       </c>
       <c r="H192" s="9" t="s">
         <v>7</v>
@@ -10185,7 +10125,7 @@
         <v>748</v>
       </c>
       <c r="G193" s="9" t="s">
-        <v>1330</v>
+        <v>1319</v>
       </c>
       <c r="H193" s="9" t="s">
         <v>7</v>
@@ -10215,7 +10155,7 @@
         <v>753</v>
       </c>
       <c r="G194" s="9" t="s">
-        <v>1330</v>
+        <v>1319</v>
       </c>
       <c r="H194" s="9" t="s">
         <v>7</v>
@@ -10245,13 +10185,13 @@
         <v>757</v>
       </c>
       <c r="G195" s="9" t="s">
-        <v>1330</v>
+        <v>1319</v>
       </c>
       <c r="H195" s="9" t="s">
         <v>7</v>
       </c>
       <c r="I195" s="9" t="s">
-        <v>741</v>
+        <v>1279</v>
       </c>
       <c r="J195" s="5"/>
     </row>
@@ -10275,13 +10215,13 @@
         <v>762</v>
       </c>
       <c r="G196" s="9" t="s">
-        <v>1330</v>
+        <v>1319</v>
       </c>
       <c r="H196" s="9" t="s">
         <v>7</v>
       </c>
       <c r="I196" s="9" t="s">
-        <v>1288</v>
+        <v>741</v>
       </c>
       <c r="J196" s="5"/>
     </row>
@@ -10305,13 +10245,13 @@
         <v>767</v>
       </c>
       <c r="G197" s="9" t="s">
-        <v>1330</v>
+        <v>1319</v>
       </c>
       <c r="H197" s="9" t="s">
         <v>7</v>
       </c>
       <c r="I197" s="9" t="s">
-        <v>741</v>
+        <v>768</v>
       </c>
       <c r="J197" s="5"/>
     </row>
@@ -10341,7 +10281,7 @@
         <v>7</v>
       </c>
       <c r="I198" s="9" t="s">
-        <v>768</v>
+        <v>1280</v>
       </c>
       <c r="J198" s="5"/>
     </row>
@@ -10353,7 +10293,7 @@
         <v>780</v>
       </c>
       <c r="C199" s="9" t="s">
-        <v>1290</v>
+        <v>1281</v>
       </c>
       <c r="D199" s="4" t="s">
         <v>780</v>
@@ -10371,7 +10311,7 @@
         <v>7</v>
       </c>
       <c r="I199" s="9" t="s">
-        <v>1289</v>
+        <v>779</v>
       </c>
       <c r="J199" s="5"/>
     </row>
@@ -10395,7 +10335,7 @@
         <v>783</v>
       </c>
       <c r="G200" s="9" t="s">
-        <v>1330</v>
+        <v>1319</v>
       </c>
       <c r="H200" s="9" t="s">
         <v>7</v>
@@ -10425,14 +10365,12 @@
         <v>787</v>
       </c>
       <c r="G201" s="9" t="s">
-        <v>1330</v>
+        <v>1319</v>
       </c>
       <c r="H201" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="I201" s="9" t="s">
-        <v>779</v>
-      </c>
+      <c r="I201" s="6"/>
       <c r="J201" s="5"/>
     </row>
     <row r="202" spans="1:10" ht="15.75">
@@ -10455,7 +10393,7 @@
         <v>790</v>
       </c>
       <c r="G202" s="9" t="s">
-        <v>1330</v>
+        <v>1319</v>
       </c>
       <c r="H202" s="9" t="s">
         <v>4</v>
@@ -10483,7 +10421,7 @@
         <v>793</v>
       </c>
       <c r="G203" s="9" t="s">
-        <v>1331</v>
+        <v>1320</v>
       </c>
       <c r="H203" s="9" t="s">
         <v>4</v>
@@ -10511,7 +10449,7 @@
         <v>796</v>
       </c>
       <c r="G204" s="9" t="s">
-        <v>1331</v>
+        <v>1320</v>
       </c>
       <c r="H204" s="9" t="s">
         <v>4</v>
@@ -10539,7 +10477,7 @@
         <v>799</v>
       </c>
       <c r="G205" s="9" t="s">
-        <v>1331</v>
+        <v>1320</v>
       </c>
       <c r="H205" s="9" t="s">
         <v>4</v>
@@ -10595,7 +10533,7 @@
         <v>806</v>
       </c>
       <c r="G207" s="9" t="s">
-        <v>1330</v>
+        <v>1319</v>
       </c>
       <c r="H207" s="9" t="s">
         <v>4</v>
@@ -10623,7 +10561,7 @@
         <v>810</v>
       </c>
       <c r="G208" s="9" t="s">
-        <v>1331</v>
+        <v>1320</v>
       </c>
       <c r="H208" s="9" t="s">
         <v>4</v>
@@ -10679,7 +10617,7 @@
         <v>816</v>
       </c>
       <c r="G210" s="9" t="s">
-        <v>1331</v>
+        <v>1320</v>
       </c>
       <c r="H210" s="9" t="s">
         <v>4</v>
@@ -10689,13 +10627,13 @@
     </row>
     <row r="211" spans="1:10" ht="15.75">
       <c r="A211" s="9" t="s">
-        <v>1300</v>
+        <v>1291</v>
       </c>
       <c r="B211" s="4" t="s">
         <v>822</v>
       </c>
       <c r="C211" s="9" t="s">
-        <v>1301</v>
+        <v>1292</v>
       </c>
       <c r="D211" s="4" t="s">
         <v>821</v>
@@ -10707,7 +10645,7 @@
         <v>820</v>
       </c>
       <c r="G211" s="9" t="s">
-        <v>1330</v>
+        <v>1319</v>
       </c>
       <c r="H211" s="9" t="s">
         <v>4</v>
@@ -10735,7 +10673,7 @@
         <v>824</v>
       </c>
       <c r="G212" s="9" t="s">
-        <v>1331</v>
+        <v>1320</v>
       </c>
       <c r="H212" s="9" t="s">
         <v>4</v>
@@ -10763,7 +10701,7 @@
         <v>828</v>
       </c>
       <c r="G213" s="9" t="s">
-        <v>1330</v>
+        <v>1319</v>
       </c>
       <c r="H213" s="9" t="s">
         <v>4</v>
@@ -10791,12 +10729,14 @@
         <v>832</v>
       </c>
       <c r="G214" s="9" t="s">
-        <v>1330</v>
+        <v>1319</v>
       </c>
       <c r="H214" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="I214" s="6"/>
+      <c r="I214" s="9" t="s">
+        <v>833</v>
+      </c>
       <c r="J214" s="5"/>
     </row>
     <row r="215" spans="1:10" ht="15.75">
@@ -10825,7 +10765,7 @@
         <v>7</v>
       </c>
       <c r="I215" s="9" t="s">
-        <v>833</v>
+        <v>838</v>
       </c>
       <c r="J215" s="5"/>
     </row>
@@ -10849,13 +10789,13 @@
         <v>841</v>
       </c>
       <c r="G216" s="9" t="s">
-        <v>1330</v>
+        <v>1319</v>
       </c>
       <c r="H216" s="9" t="s">
         <v>7</v>
       </c>
       <c r="I216" s="9" t="s">
-        <v>838</v>
+        <v>842</v>
       </c>
       <c r="J216" s="5"/>
     </row>
@@ -10879,14 +10819,12 @@
         <v>846</v>
       </c>
       <c r="G217" s="9" t="s">
-        <v>1330</v>
+        <v>1319</v>
       </c>
       <c r="H217" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="I217" s="9" t="s">
-        <v>842</v>
-      </c>
+      <c r="I217" s="6"/>
       <c r="J217" s="5"/>
     </row>
     <row r="218" spans="1:10" ht="15.75">
@@ -10909,7 +10847,7 @@
         <v>849</v>
       </c>
       <c r="G218" s="9" t="s">
-        <v>1330</v>
+        <v>1319</v>
       </c>
       <c r="H218" s="9" t="s">
         <v>4</v>
@@ -10937,12 +10875,14 @@
         <v>853</v>
       </c>
       <c r="G219" s="9" t="s">
-        <v>1330</v>
+        <v>1319</v>
       </c>
       <c r="H219" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="I219" s="6"/>
+      <c r="I219" s="9" t="s">
+        <v>833</v>
+      </c>
       <c r="J219" s="5"/>
     </row>
     <row r="220" spans="1:10" ht="15.75">
@@ -10971,7 +10911,7 @@
         <v>7</v>
       </c>
       <c r="I220" s="9" t="s">
-        <v>833</v>
+        <v>838</v>
       </c>
       <c r="J220" s="5"/>
     </row>
@@ -10995,13 +10935,13 @@
         <v>860</v>
       </c>
       <c r="G221" s="9" t="s">
-        <v>1330</v>
+        <v>1319</v>
       </c>
       <c r="H221" s="9" t="s">
         <v>7</v>
       </c>
       <c r="I221" s="9" t="s">
-        <v>838</v>
+        <v>842</v>
       </c>
       <c r="J221" s="5"/>
     </row>
@@ -11025,14 +10965,12 @@
         <v>864</v>
       </c>
       <c r="G222" s="9" t="s">
-        <v>1330</v>
+        <v>1319</v>
       </c>
       <c r="H222" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="I222" s="9" t="s">
-        <v>842</v>
-      </c>
+      <c r="I222" s="6"/>
       <c r="J222" s="5"/>
     </row>
     <row r="223" spans="1:10" ht="15.75">
@@ -11055,7 +10993,7 @@
         <v>869</v>
       </c>
       <c r="G223" s="9" t="s">
-        <v>1330</v>
+        <v>1319</v>
       </c>
       <c r="H223" s="9" t="s">
         <v>4</v>
@@ -11083,12 +11021,14 @@
         <v>874</v>
       </c>
       <c r="G224" s="9" t="s">
-        <v>1331</v>
+        <v>1320</v>
       </c>
       <c r="H224" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="I224" s="6"/>
+      <c r="I224" s="9" t="s">
+        <v>875</v>
+      </c>
       <c r="J224" s="5"/>
     </row>
     <row r="225" spans="1:10" ht="15.75">
@@ -11111,7 +11051,7 @@
         <v>878</v>
       </c>
       <c r="G225" s="9" t="s">
-        <v>1330</v>
+        <v>1319</v>
       </c>
       <c r="H225" s="9" t="s">
         <v>7</v>
@@ -11141,13 +11081,13 @@
         <v>881</v>
       </c>
       <c r="G226" s="9" t="s">
-        <v>1330</v>
+        <v>1319</v>
       </c>
       <c r="H226" s="9" t="s">
         <v>7</v>
       </c>
       <c r="I226" s="9" t="s">
-        <v>875</v>
+        <v>882</v>
       </c>
       <c r="J226" s="5"/>
     </row>
@@ -11171,7 +11111,7 @@
         <v>886</v>
       </c>
       <c r="G227" s="9" t="s">
-        <v>1330</v>
+        <v>1319</v>
       </c>
       <c r="H227" s="9" t="s">
         <v>7</v>
@@ -11201,13 +11141,13 @@
         <v>889</v>
       </c>
       <c r="G228" s="9" t="s">
-        <v>1330</v>
+        <v>1319</v>
       </c>
       <c r="H228" s="9" t="s">
         <v>7</v>
       </c>
       <c r="I228" s="9" t="s">
-        <v>882</v>
+        <v>890</v>
       </c>
       <c r="J228" s="5"/>
     </row>
@@ -11225,7 +11165,7 @@
         <v>893</v>
       </c>
       <c r="E229" s="9" t="s">
-        <v>1314</v>
+        <v>1305</v>
       </c>
       <c r="F229" s="4" t="s">
         <v>893</v>
@@ -11264,11 +11204,9 @@
         <v>12</v>
       </c>
       <c r="H230" s="9" t="s">
-        <v>1291</v>
-      </c>
-      <c r="I230" s="9" t="s">
-        <v>890</v>
-      </c>
+        <v>1282</v>
+      </c>
+      <c r="I230" s="6"/>
       <c r="J230" s="5"/>
     </row>
     <row r="231" spans="1:10" ht="15.75">
@@ -11291,7 +11229,7 @@
         <v>900</v>
       </c>
       <c r="G231" s="9" t="s">
-        <v>1330</v>
+        <v>1319</v>
       </c>
       <c r="H231" s="9" t="s">
         <v>4</v>
@@ -11319,7 +11257,7 @@
         <v>904</v>
       </c>
       <c r="G232" s="9" t="s">
-        <v>1330</v>
+        <v>1319</v>
       </c>
       <c r="H232" s="9" t="s">
         <v>4</v>
@@ -11347,7 +11285,7 @@
         <v>908</v>
       </c>
       <c r="G233" s="9" t="s">
-        <v>1330</v>
+        <v>1319</v>
       </c>
       <c r="H233" s="9" t="s">
         <v>4</v>
@@ -11375,7 +11313,7 @@
         <v>912</v>
       </c>
       <c r="G234" s="9" t="s">
-        <v>1330</v>
+        <v>1319</v>
       </c>
       <c r="H234" s="9" t="s">
         <v>4</v>
@@ -11403,7 +11341,7 @@
         <v>916</v>
       </c>
       <c r="G235" s="9" t="s">
-        <v>1330</v>
+        <v>1319</v>
       </c>
       <c r="H235" s="9" t="s">
         <v>4</v>
@@ -11431,7 +11369,7 @@
         <v>920</v>
       </c>
       <c r="G236" s="9" t="s">
-        <v>1330</v>
+        <v>1319</v>
       </c>
       <c r="H236" s="9" t="s">
         <v>4</v>
@@ -11459,7 +11397,7 @@
         <v>924</v>
       </c>
       <c r="G237" s="9" t="s">
-        <v>1330</v>
+        <v>1319</v>
       </c>
       <c r="H237" s="9" t="s">
         <v>4</v>
@@ -11487,7 +11425,7 @@
         <v>928</v>
       </c>
       <c r="G238" s="9" t="s">
-        <v>1330</v>
+        <v>1319</v>
       </c>
       <c r="H238" s="9" t="s">
         <v>4</v>
@@ -11515,7 +11453,7 @@
         <v>932</v>
       </c>
       <c r="G239" s="9" t="s">
-        <v>1330</v>
+        <v>1319</v>
       </c>
       <c r="H239" s="9" t="s">
         <v>4</v>
@@ -11543,7 +11481,7 @@
         <v>936</v>
       </c>
       <c r="G240" s="9" t="s">
-        <v>1330</v>
+        <v>1319</v>
       </c>
       <c r="H240" s="9" t="s">
         <v>4</v>
@@ -11571,7 +11509,7 @@
         <v>940</v>
       </c>
       <c r="G241" s="9" t="s">
-        <v>1330</v>
+        <v>1319</v>
       </c>
       <c r="H241" s="9" t="s">
         <v>4</v>
@@ -11599,7 +11537,7 @@
         <v>944</v>
       </c>
       <c r="G242" s="9" t="s">
-        <v>1330</v>
+        <v>1319</v>
       </c>
       <c r="H242" s="9" t="s">
         <v>4</v>
@@ -11627,7 +11565,7 @@
         <v>947</v>
       </c>
       <c r="G243" s="9" t="s">
-        <v>1330</v>
+        <v>1319</v>
       </c>
       <c r="H243" s="9" t="s">
         <v>4</v>
@@ -11655,7 +11593,7 @@
         <v>951</v>
       </c>
       <c r="G244" s="9" t="s">
-        <v>1330</v>
+        <v>1319</v>
       </c>
       <c r="H244" s="9" t="s">
         <v>4</v>
@@ -11683,7 +11621,7 @@
         <v>955</v>
       </c>
       <c r="G245" s="9" t="s">
-        <v>1330</v>
+        <v>1319</v>
       </c>
       <c r="H245" s="9" t="s">
         <v>4</v>
@@ -11711,7 +11649,7 @@
         <v>959</v>
       </c>
       <c r="G246" s="9" t="s">
-        <v>1330</v>
+        <v>1319</v>
       </c>
       <c r="H246" s="9" t="s">
         <v>4</v>
@@ -11739,7 +11677,7 @@
         <v>963</v>
       </c>
       <c r="G247" s="9" t="s">
-        <v>1330</v>
+        <v>1319</v>
       </c>
       <c r="H247" s="9" t="s">
         <v>4</v>
@@ -11767,7 +11705,7 @@
         <v>967</v>
       </c>
       <c r="G248" s="9" t="s">
-        <v>1330</v>
+        <v>1319</v>
       </c>
       <c r="H248" s="9" t="s">
         <v>4</v>
@@ -11795,7 +11733,7 @@
         <v>971</v>
       </c>
       <c r="G249" s="9" t="s">
-        <v>1330</v>
+        <v>1319</v>
       </c>
       <c r="H249" s="9" t="s">
         <v>4</v>
@@ -11823,7 +11761,7 @@
         <v>975</v>
       </c>
       <c r="G250" s="9" t="s">
-        <v>1330</v>
+        <v>1319</v>
       </c>
       <c r="H250" s="9" t="s">
         <v>4</v>
@@ -11851,7 +11789,7 @@
         <v>979</v>
       </c>
       <c r="G251" s="9" t="s">
-        <v>1330</v>
+        <v>1319</v>
       </c>
       <c r="H251" s="9" t="s">
         <v>4</v>
@@ -11879,7 +11817,7 @@
         <v>983</v>
       </c>
       <c r="G252" s="9" t="s">
-        <v>1330</v>
+        <v>1319</v>
       </c>
       <c r="H252" s="9" t="s">
         <v>4</v>
@@ -11907,7 +11845,7 @@
         <v>987</v>
       </c>
       <c r="G253" s="9" t="s">
-        <v>1330</v>
+        <v>1319</v>
       </c>
       <c r="H253" s="9" t="s">
         <v>4</v>
@@ -11935,7 +11873,7 @@
         <v>991</v>
       </c>
       <c r="G254" s="9" t="s">
-        <v>1330</v>
+        <v>1319</v>
       </c>
       <c r="H254" s="9" t="s">
         <v>4</v>
@@ -11963,7 +11901,7 @@
         <v>995</v>
       </c>
       <c r="G255" s="9" t="s">
-        <v>1330</v>
+        <v>1319</v>
       </c>
       <c r="H255" s="9" t="s">
         <v>4</v>
@@ -11991,7 +11929,7 @@
         <v>999</v>
       </c>
       <c r="G256" s="9" t="s">
-        <v>1330</v>
+        <v>1319</v>
       </c>
       <c r="H256" s="9" t="s">
         <v>4</v>
@@ -12019,7 +11957,7 @@
         <v>1005</v>
       </c>
       <c r="G257" s="9" t="s">
-        <v>1330</v>
+        <v>1319</v>
       </c>
       <c r="H257" s="9" t="s">
         <v>4</v>
@@ -12047,7 +11985,7 @@
         <v>1009</v>
       </c>
       <c r="G258" s="9" t="s">
-        <v>1330</v>
+        <v>1319</v>
       </c>
       <c r="H258" s="9" t="s">
         <v>4</v>
@@ -12075,7 +12013,7 @@
         <v>1013</v>
       </c>
       <c r="G259" s="9" t="s">
-        <v>1330</v>
+        <v>1319</v>
       </c>
       <c r="H259" s="9" t="s">
         <v>4</v>
@@ -12103,7 +12041,7 @@
         <v>1017</v>
       </c>
       <c r="G260" s="9" t="s">
-        <v>1330</v>
+        <v>1319</v>
       </c>
       <c r="H260" s="9" t="s">
         <v>4</v>
@@ -12131,7 +12069,7 @@
         <v>1021</v>
       </c>
       <c r="G261" s="9" t="s">
-        <v>1330</v>
+        <v>1319</v>
       </c>
       <c r="H261" s="9" t="s">
         <v>4</v>
@@ -12159,7 +12097,7 @@
         <v>1026</v>
       </c>
       <c r="G262" s="9" t="s">
-        <v>1330</v>
+        <v>1319</v>
       </c>
       <c r="H262" s="9" t="s">
         <v>4</v>
@@ -12187,7 +12125,7 @@
         <v>1030</v>
       </c>
       <c r="G263" s="9" t="s">
-        <v>1330</v>
+        <v>1319</v>
       </c>
       <c r="H263" s="9" t="s">
         <v>4</v>
@@ -12215,12 +12153,14 @@
         <v>1033</v>
       </c>
       <c r="G264" s="9" t="s">
-        <v>1330</v>
+        <v>1319</v>
       </c>
       <c r="H264" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="I264" s="6"/>
+      <c r="I264" s="9" t="s">
+        <v>1034</v>
+      </c>
       <c r="J264" s="5"/>
     </row>
     <row r="265" spans="1:10" ht="15.75">
@@ -12398,9 +12338,7 @@
       <c r="H270" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="I270" s="9" t="s">
-        <v>1034</v>
-      </c>
+      <c r="I270" s="6"/>
       <c r="J270" s="5"/>
     </row>
     <row r="271" spans="1:10" ht="15.75">
@@ -12423,7 +12361,7 @@
         <v>1069</v>
       </c>
       <c r="G271" s="9" t="s">
-        <v>1331</v>
+        <v>1320</v>
       </c>
       <c r="H271" s="9" t="s">
         <v>4</v>
@@ -12451,7 +12389,7 @@
         <v>1072</v>
       </c>
       <c r="G272" s="9" t="s">
-        <v>1330</v>
+        <v>1319</v>
       </c>
       <c r="H272" s="9" t="s">
         <v>4</v>
@@ -12484,7 +12422,9 @@
       <c r="H273" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="I273" s="6"/>
+      <c r="I273" s="9" t="s">
+        <v>1077</v>
+      </c>
       <c r="J273" s="5"/>
     </row>
     <row r="274" spans="1:10" ht="15.75">
@@ -12507,7 +12447,7 @@
         <v>1081</v>
       </c>
       <c r="G274" s="9" t="s">
-        <v>1330</v>
+        <v>1319</v>
       </c>
       <c r="H274" s="9" t="s">
         <v>7</v>
@@ -12537,7 +12477,7 @@
         <v>1085</v>
       </c>
       <c r="G275" s="9" t="s">
-        <v>1330</v>
+        <v>1319</v>
       </c>
       <c r="H275" s="9" t="s">
         <v>7</v>
@@ -12567,7 +12507,7 @@
         <v>1089</v>
       </c>
       <c r="G276" s="9" t="s">
-        <v>1330</v>
+        <v>1319</v>
       </c>
       <c r="H276" s="9" t="s">
         <v>7</v>
@@ -12597,14 +12537,12 @@
         <v>1094</v>
       </c>
       <c r="G277" s="9" t="s">
-        <v>1330</v>
+        <v>1319</v>
       </c>
       <c r="H277" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="I277" s="9" t="s">
-        <v>1077</v>
-      </c>
+      <c r="I277" s="6"/>
       <c r="J277" s="5"/>
     </row>
     <row r="278" spans="1:10" ht="15.75">
@@ -12627,7 +12565,7 @@
         <v>1098</v>
       </c>
       <c r="G278" s="9" t="s">
-        <v>1330</v>
+        <v>1319</v>
       </c>
       <c r="H278" s="9" t="s">
         <v>4</v>
@@ -12655,7 +12593,7 @@
         <v>1102</v>
       </c>
       <c r="G279" s="9" t="s">
-        <v>1330</v>
+        <v>1319</v>
       </c>
       <c r="H279" s="9" t="s">
         <v>4</v>
@@ -12683,7 +12621,7 @@
         <v>1106</v>
       </c>
       <c r="G280" s="9" t="s">
-        <v>1330</v>
+        <v>1319</v>
       </c>
       <c r="H280" s="9" t="s">
         <v>4</v>
@@ -12711,7 +12649,7 @@
         <v>1110</v>
       </c>
       <c r="G281" s="9" t="s">
-        <v>1330</v>
+        <v>1319</v>
       </c>
       <c r="H281" s="9" t="s">
         <v>4</v>
@@ -12739,7 +12677,7 @@
         <v>1114</v>
       </c>
       <c r="G282" s="9" t="s">
-        <v>1330</v>
+        <v>1319</v>
       </c>
       <c r="H282" s="9" t="s">
         <v>4</v>
@@ -12767,7 +12705,7 @@
         <v>1118</v>
       </c>
       <c r="G283" s="9" t="s">
-        <v>1330</v>
+        <v>1319</v>
       </c>
       <c r="H283" s="9" t="s">
         <v>4</v>
@@ -12792,10 +12730,10 @@
         <v>1121</v>
       </c>
       <c r="F284" s="4" t="s">
-        <v>1122</v>
+        <v>1335</v>
       </c>
       <c r="G284" s="9" t="s">
-        <v>1330</v>
+        <v>1319</v>
       </c>
       <c r="H284" s="9" t="s">
         <v>4</v>
@@ -12823,7 +12761,7 @@
         <v>1126</v>
       </c>
       <c r="G285" s="9" t="s">
-        <v>1330</v>
+        <v>1319</v>
       </c>
       <c r="H285" s="9" t="s">
         <v>4</v>
@@ -12851,7 +12789,7 @@
         <v>1130</v>
       </c>
       <c r="G286" s="9" t="s">
-        <v>1330</v>
+        <v>1319</v>
       </c>
       <c r="H286" s="9" t="s">
         <v>4</v>
@@ -12879,7 +12817,7 @@
         <v>1135</v>
       </c>
       <c r="G287" s="9" t="s">
-        <v>1330</v>
+        <v>1319</v>
       </c>
       <c r="H287" s="9" t="s">
         <v>4</v>
@@ -12892,7 +12830,7 @@
         <v>1141</v>
       </c>
       <c r="B288" s="4" t="s">
-        <v>1140</v>
+        <v>1333</v>
       </c>
       <c r="C288" s="9" t="s">
         <v>1139</v>
@@ -12901,13 +12839,13 @@
         <v>1140</v>
       </c>
       <c r="E288" s="9" t="s">
-        <v>1302</v>
+        <v>1293</v>
       </c>
       <c r="F288" s="4" t="s">
         <v>1138</v>
       </c>
       <c r="G288" s="9" t="s">
-        <v>1330</v>
+        <v>1319</v>
       </c>
       <c r="H288" s="9" t="s">
         <v>4</v>
@@ -12935,26 +12873,28 @@
         <v>1143</v>
       </c>
       <c r="G289" s="9" t="s">
-        <v>1330</v>
+        <v>1319</v>
       </c>
       <c r="H289" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="I289" s="6"/>
+      <c r="I289" s="9" t="s">
+        <v>1144</v>
+      </c>
       <c r="J289" s="5"/>
     </row>
     <row r="290" spans="1:10" ht="15.75">
       <c r="A290" s="9" t="s">
-        <v>1329</v>
+        <v>1318</v>
       </c>
       <c r="B290" s="4" t="s">
-        <v>1329</v>
+        <v>1318</v>
       </c>
       <c r="C290" s="9" t="s">
-        <v>1329</v>
+        <v>1318</v>
       </c>
       <c r="D290" s="4" t="s">
-        <v>1329</v>
+        <v>1318</v>
       </c>
       <c r="E290" s="9" t="s">
         <v>1147</v>
@@ -12963,7 +12903,7 @@
         <v>1148</v>
       </c>
       <c r="G290" s="9" t="s">
-        <v>1330</v>
+        <v>1319</v>
       </c>
       <c r="H290" s="9" t="s">
         <v>7</v>
@@ -12975,16 +12915,16 @@
     </row>
     <row r="291" spans="1:10" ht="15.75">
       <c r="A291" s="9" t="s">
-        <v>1329</v>
+        <v>1318</v>
       </c>
       <c r="B291" s="4" t="s">
-        <v>1329</v>
+        <v>1318</v>
       </c>
       <c r="C291" s="9" t="s">
-        <v>1329</v>
+        <v>1318</v>
       </c>
       <c r="D291" s="4" t="s">
-        <v>1329</v>
+        <v>1318</v>
       </c>
       <c r="E291" s="9" t="s">
         <v>1149</v>
@@ -12993,7 +12933,7 @@
         <v>1150</v>
       </c>
       <c r="G291" s="9" t="s">
-        <v>1330</v>
+        <v>1319</v>
       </c>
       <c r="H291" s="9" t="s">
         <v>7</v>
@@ -13005,16 +12945,16 @@
     </row>
     <row r="292" spans="1:10" ht="15.75">
       <c r="A292" s="9" t="s">
-        <v>1329</v>
+        <v>1318</v>
       </c>
       <c r="B292" s="4" t="s">
-        <v>1329</v>
+        <v>1318</v>
       </c>
       <c r="C292" s="9" t="s">
-        <v>1329</v>
+        <v>1318</v>
       </c>
       <c r="D292" s="4" t="s">
-        <v>1329</v>
+        <v>1318</v>
       </c>
       <c r="E292" s="9" t="s">
         <v>1151</v>
@@ -13023,7 +12963,7 @@
         <v>1152</v>
       </c>
       <c r="G292" s="9" t="s">
-        <v>1330</v>
+        <v>1319</v>
       </c>
       <c r="H292" s="9" t="s">
         <v>7</v>
@@ -13035,16 +12975,16 @@
     </row>
     <row r="293" spans="1:10" ht="15.75">
       <c r="A293" s="9" t="s">
-        <v>1329</v>
+        <v>1318</v>
       </c>
       <c r="B293" s="4" t="s">
-        <v>1329</v>
+        <v>1318</v>
       </c>
       <c r="C293" s="9" t="s">
-        <v>1329</v>
+        <v>1318</v>
       </c>
       <c r="D293" s="4" t="s">
-        <v>1329</v>
+        <v>1318</v>
       </c>
       <c r="E293" s="9" t="s">
         <v>1153</v>
@@ -13053,7 +12993,7 @@
         <v>1154</v>
       </c>
       <c r="G293" s="9" t="s">
-        <v>1330</v>
+        <v>1319</v>
       </c>
       <c r="H293" s="9" t="s">
         <v>7</v>
@@ -13065,16 +13005,16 @@
     </row>
     <row r="294" spans="1:10" ht="15.75">
       <c r="A294" s="9" t="s">
-        <v>1329</v>
+        <v>1318</v>
       </c>
       <c r="B294" s="4" t="s">
-        <v>1329</v>
+        <v>1318</v>
       </c>
       <c r="C294" s="9" t="s">
-        <v>1329</v>
+        <v>1318</v>
       </c>
       <c r="D294" s="4" t="s">
-        <v>1329</v>
+        <v>1318</v>
       </c>
       <c r="E294" s="9" t="s">
         <v>1155</v>
@@ -13083,7 +13023,7 @@
         <v>1156</v>
       </c>
       <c r="G294" s="9" t="s">
-        <v>1330</v>
+        <v>1319</v>
       </c>
       <c r="H294" s="9" t="s">
         <v>7</v>
@@ -13095,16 +13035,16 @@
     </row>
     <row r="295" spans="1:10" ht="15.75">
       <c r="A295" s="9" t="s">
-        <v>1329</v>
+        <v>1318</v>
       </c>
       <c r="B295" s="4" t="s">
-        <v>1329</v>
+        <v>1318</v>
       </c>
       <c r="C295" s="9" t="s">
-        <v>1329</v>
+        <v>1318</v>
       </c>
       <c r="D295" s="4" t="s">
-        <v>1329</v>
+        <v>1318</v>
       </c>
       <c r="E295" s="9" t="s">
         <v>1157</v>
@@ -13113,7 +13053,7 @@
         <v>1158</v>
       </c>
       <c r="G295" s="9" t="s">
-        <v>1330</v>
+        <v>1319</v>
       </c>
       <c r="H295" s="9" t="s">
         <v>7</v>
@@ -13125,16 +13065,16 @@
     </row>
     <row r="296" spans="1:10" ht="15.75">
       <c r="A296" s="9" t="s">
-        <v>1329</v>
+        <v>1318</v>
       </c>
       <c r="B296" s="4" t="s">
-        <v>1329</v>
+        <v>1318</v>
       </c>
       <c r="C296" s="9" t="s">
-        <v>1329</v>
+        <v>1318</v>
       </c>
       <c r="D296" s="4" t="s">
-        <v>1329</v>
+        <v>1318</v>
       </c>
       <c r="E296" s="9" t="s">
         <v>1159</v>
@@ -13143,7 +13083,7 @@
         <v>1160</v>
       </c>
       <c r="G296" s="9" t="s">
-        <v>1330</v>
+        <v>1319</v>
       </c>
       <c r="H296" s="9" t="s">
         <v>7</v>
@@ -13173,14 +13113,12 @@
         <v>1162</v>
       </c>
       <c r="G297" s="9" t="s">
-        <v>1330</v>
+        <v>1319</v>
       </c>
       <c r="H297" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="I297" s="9" t="s">
-        <v>1144</v>
-      </c>
+      <c r="I297" s="6"/>
       <c r="J297" s="5"/>
     </row>
     <row r="298" spans="1:10" ht="15.75">
@@ -13203,7 +13141,7 @@
         <v>1167</v>
       </c>
       <c r="G298" s="9" t="s">
-        <v>1330</v>
+        <v>1319</v>
       </c>
       <c r="H298" s="9" t="s">
         <v>4</v>
@@ -13231,12 +13169,14 @@
         <v>1171</v>
       </c>
       <c r="G299" s="9" t="s">
-        <v>1331</v>
+        <v>1320</v>
       </c>
       <c r="H299" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="I299" s="6"/>
+      <c r="I299" s="9" t="s">
+        <v>1172</v>
+      </c>
       <c r="J299" s="5"/>
     </row>
     <row r="300" spans="1:10" ht="15.75">
@@ -13259,7 +13199,7 @@
         <v>1177</v>
       </c>
       <c r="G300" s="9" t="s">
-        <v>1330</v>
+        <v>1319</v>
       </c>
       <c r="H300" s="9" t="s">
         <v>7</v>
@@ -13289,7 +13229,7 @@
         <v>1182</v>
       </c>
       <c r="G301" s="9" t="s">
-        <v>1330</v>
+        <v>1319</v>
       </c>
       <c r="H301" s="9" t="s">
         <v>7</v>
@@ -13319,7 +13259,7 @@
         <v>1186</v>
       </c>
       <c r="G302" s="9" t="s">
-        <v>1330</v>
+        <v>1319</v>
       </c>
       <c r="H302" s="9" t="s">
         <v>7</v>
@@ -13349,7 +13289,7 @@
         <v>1190</v>
       </c>
       <c r="G303" s="9" t="s">
-        <v>1330</v>
+        <v>1319</v>
       </c>
       <c r="H303" s="9" t="s">
         <v>7</v>
@@ -13379,19 +13319,19 @@
         <v>1194</v>
       </c>
       <c r="G304" s="9" t="s">
-        <v>1330</v>
+        <v>1319</v>
       </c>
       <c r="H304" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="I304" s="9" t="s">
-        <v>1172</v>
+      <c r="I304" s="6" t="s">
+        <v>1195</v>
       </c>
       <c r="J304" s="5"/>
     </row>
     <row r="305" spans="1:10" ht="15.75">
       <c r="A305" s="9" t="s">
-        <v>1311</v>
+        <v>1302</v>
       </c>
       <c r="B305" s="4" t="s">
         <v>1199</v>
@@ -13409,13 +13349,13 @@
         <v>1199</v>
       </c>
       <c r="G305" s="9" t="s">
-        <v>1330</v>
+        <v>1319</v>
       </c>
       <c r="H305" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="I305" s="6" t="s">
-        <v>1195</v>
+      <c r="I305" s="9" t="s">
+        <v>1200</v>
       </c>
       <c r="J305" s="5"/>
     </row>
@@ -13427,7 +13367,7 @@
         <v>1205</v>
       </c>
       <c r="C306" s="9" t="s">
-        <v>1320</v>
+        <v>1309</v>
       </c>
       <c r="D306" s="4" t="s">
         <v>1203</v>
@@ -13444,9 +13384,7 @@
       <c r="H306" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="I306" s="9" t="s">
-        <v>1200</v>
-      </c>
+      <c r="I306" s="6"/>
       <c r="J306" s="5"/>
     </row>
     <row r="307" spans="1:10" ht="15.75">
@@ -13472,7 +13410,7 @@
         <v>12</v>
       </c>
       <c r="H307" s="6" t="s">
-        <v>1317</v>
+        <v>1307</v>
       </c>
       <c r="I307" s="6"/>
       <c r="J307" s="5"/>
@@ -13500,14 +13438,14 @@
         <v>12</v>
       </c>
       <c r="H308" s="6" t="s">
-        <v>1317</v>
+        <v>1307</v>
       </c>
       <c r="I308" s="6"/>
       <c r="J308" s="5"/>
     </row>
     <row r="309" spans="1:10" ht="15.75">
       <c r="A309" s="9" t="s">
-        <v>1323</v>
+        <v>1312</v>
       </c>
       <c r="B309" s="4" t="s">
         <v>1217</v>
@@ -13528,26 +13466,26 @@
         <v>12</v>
       </c>
       <c r="H309" s="6" t="s">
-        <v>1317</v>
+        <v>1307</v>
       </c>
       <c r="I309" s="6"/>
       <c r="J309" s="5"/>
     </row>
     <row r="310" spans="1:10" ht="15.75">
       <c r="A310" s="9" t="s">
-        <v>1322</v>
+        <v>1311</v>
       </c>
       <c r="B310" s="4" t="s">
-        <v>1315</v>
+        <v>1218</v>
       </c>
       <c r="C310" s="9" t="s">
-        <v>1321</v>
+        <v>1310</v>
       </c>
       <c r="D310" s="4" t="s">
-        <v>1315</v>
+        <v>1218</v>
       </c>
       <c r="E310" s="9" t="s">
-        <v>1316</v>
+        <v>1306</v>
       </c>
       <c r="F310" s="4" t="s">
         <v>1218</v>
@@ -13556,440 +13494,485 @@
         <v>12</v>
       </c>
       <c r="H310" s="6" t="s">
-        <v>1317</v>
+        <v>1307</v>
       </c>
       <c r="I310" s="6"/>
       <c r="J310" s="5"/>
     </row>
-    <row r="311" spans="1:10" ht="15.75">
-      <c r="A311" s="9" t="s">
-        <v>1222</v>
-      </c>
-      <c r="B311" s="4" t="s">
-        <v>1220</v>
-      </c>
-      <c r="C311" s="9" t="s">
-        <v>1221</v>
-      </c>
-      <c r="D311" s="4" t="s">
-        <v>1220</v>
-      </c>
-      <c r="E311" s="9" t="s">
-        <v>1219</v>
-      </c>
-      <c r="F311" s="4" t="s">
-        <v>1220</v>
-      </c>
-      <c r="G311" s="9" t="s">
+    <row r="311" spans="1:10" s="2" customFormat="1" ht="15.75">
+      <c r="A311" s="14" t="s">
+        <v>1336</v>
+      </c>
+      <c r="B311" s="14" t="s">
+        <v>1337</v>
+      </c>
+      <c r="C311" s="14" t="s">
+        <v>1338</v>
+      </c>
+      <c r="D311" s="14" t="s">
+        <v>1337</v>
+      </c>
+      <c r="E311" s="14" t="s">
+        <v>1339</v>
+      </c>
+      <c r="F311" s="14" t="s">
+        <v>1337</v>
+      </c>
+      <c r="G311" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="H311" s="6" t="s">
-        <v>1317</v>
+      <c r="H311" s="15" t="s">
+        <v>1340</v>
       </c>
       <c r="I311" s="6"/>
       <c r="J311" s="5"/>
     </row>
     <row r="312" spans="1:10" ht="15.75">
       <c r="A312" s="9" t="s">
-        <v>1226</v>
+        <v>1222</v>
       </c>
       <c r="B312" s="4" t="s">
-        <v>1224</v>
+        <v>1220</v>
       </c>
       <c r="C312" s="9" t="s">
-        <v>1225</v>
+        <v>1221</v>
       </c>
       <c r="D312" s="4" t="s">
-        <v>1224</v>
+        <v>1220</v>
       </c>
       <c r="E312" s="9" t="s">
-        <v>1223</v>
+        <v>1219</v>
       </c>
       <c r="F312" s="4" t="s">
-        <v>1224</v>
+        <v>1220</v>
       </c>
       <c r="G312" s="9" t="s">
         <v>12</v>
       </c>
       <c r="H312" s="6" t="s">
-        <v>1317</v>
+        <v>1307</v>
       </c>
       <c r="I312" s="6"/>
       <c r="J312" s="5"/>
     </row>
     <row r="313" spans="1:10" ht="15.75">
       <c r="A313" s="9" t="s">
-        <v>1229</v>
+        <v>1226</v>
       </c>
       <c r="B313" s="4" t="s">
-        <v>1230</v>
+        <v>1224</v>
       </c>
       <c r="C313" s="9" t="s">
-        <v>1228</v>
+        <v>1225</v>
       </c>
       <c r="D313" s="4" t="s">
-        <v>1227</v>
+        <v>1224</v>
       </c>
       <c r="E313" s="9" t="s">
-        <v>1303</v>
+        <v>1223</v>
       </c>
       <c r="F313" s="4" t="s">
-        <v>1227</v>
+        <v>1224</v>
       </c>
       <c r="G313" s="9" t="s">
         <v>12</v>
       </c>
       <c r="H313" s="6" t="s">
-        <v>1317</v>
+        <v>1307</v>
       </c>
       <c r="I313" s="6"/>
       <c r="J313" s="5"/>
     </row>
     <row r="314" spans="1:10" ht="15.75">
-      <c r="A314" s="9"/>
-      <c r="B314" s="4"/>
+      <c r="A314" s="9" t="s">
+        <v>1229</v>
+      </c>
+      <c r="B314" s="4" t="s">
+        <v>1230</v>
+      </c>
       <c r="C314" s="9" t="s">
-        <v>1233</v>
+        <v>1228</v>
       </c>
       <c r="D314" s="4" t="s">
-        <v>1232</v>
+        <v>1227</v>
       </c>
       <c r="E314" s="9" t="s">
-        <v>1231</v>
+        <v>1294</v>
       </c>
       <c r="F314" s="4" t="s">
-        <v>1232</v>
+        <v>1227</v>
       </c>
       <c r="G314" s="9" t="s">
         <v>12</v>
       </c>
       <c r="H314" s="6" t="s">
-        <v>1291</v>
+        <v>1307</v>
       </c>
       <c r="I314" s="6" t="s">
-        <v>1304</v>
+        <v>1295</v>
       </c>
       <c r="J314" s="5"/>
     </row>
     <row r="315" spans="1:10" ht="15.75">
-      <c r="A315" s="9" t="s">
-        <v>1215</v>
-      </c>
-      <c r="B315" s="4" t="s">
-        <v>1234</v>
-      </c>
+      <c r="A315" s="9"/>
+      <c r="B315" s="4"/>
       <c r="C315" s="9" t="s">
-        <v>1235</v>
+        <v>1233</v>
       </c>
       <c r="D315" s="4" t="s">
-        <v>1234</v>
+        <v>1232</v>
       </c>
       <c r="E315" s="9" t="s">
-        <v>1032</v>
+        <v>1231</v>
       </c>
       <c r="F315" s="4" t="s">
-        <v>1234</v>
+        <v>1232</v>
       </c>
       <c r="G315" s="9" t="s">
         <v>12</v>
       </c>
       <c r="H315" s="6" t="s">
-        <v>1291</v>
+        <v>1282</v>
       </c>
       <c r="I315" s="6" t="s">
-        <v>1304</v>
+        <v>1295</v>
       </c>
       <c r="J315" s="5"/>
     </row>
     <row r="316" spans="1:10" ht="15.75">
       <c r="A316" s="9" t="s">
-        <v>1239</v>
+        <v>1324</v>
       </c>
       <c r="B316" s="4" t="s">
-        <v>1240</v>
+        <v>1234</v>
       </c>
       <c r="C316" s="9" t="s">
-        <v>1237</v>
+        <v>1235</v>
       </c>
       <c r="D316" s="4" t="s">
-        <v>1238</v>
+        <v>1234</v>
       </c>
       <c r="E316" s="9" t="s">
-        <v>1325</v>
+        <v>1032</v>
       </c>
       <c r="F316" s="4" t="s">
-        <v>1236</v>
+        <v>1234</v>
       </c>
       <c r="G316" s="9" t="s">
         <v>12</v>
       </c>
       <c r="H316" s="6" t="s">
-        <v>1317</v>
+        <v>1282</v>
       </c>
       <c r="I316" s="6"/>
       <c r="J316" s="5"/>
     </row>
     <row r="317" spans="1:10" ht="15.75">
       <c r="A317" s="9" t="s">
-        <v>1245</v>
+        <v>1323</v>
       </c>
       <c r="B317" s="4" t="s">
-        <v>1246</v>
+        <v>1330</v>
       </c>
       <c r="C317" s="9" t="s">
-        <v>1243</v>
+        <v>1321</v>
       </c>
       <c r="D317" s="4" t="s">
-        <v>1244</v>
+        <v>1237</v>
       </c>
       <c r="E317" s="9" t="s">
-        <v>1241</v>
+        <v>1314</v>
       </c>
       <c r="F317" s="4" t="s">
-        <v>1242</v>
+        <v>1236</v>
       </c>
       <c r="G317" s="9" t="s">
         <v>12</v>
       </c>
       <c r="H317" s="6" t="s">
-        <v>1317</v>
+        <v>1307</v>
       </c>
       <c r="I317" s="6"/>
       <c r="J317" s="5"/>
     </row>
     <row r="318" spans="1:10" ht="15.75">
       <c r="A318" s="9" t="s">
-        <v>1249</v>
+        <v>1325</v>
       </c>
       <c r="B318" s="4" t="s">
-        <v>1250</v>
+        <v>1331</v>
       </c>
       <c r="C318" s="9" t="s">
-        <v>1318</v>
+        <v>1240</v>
       </c>
       <c r="D318" s="4" t="s">
-        <v>1319</v>
+        <v>1241</v>
       </c>
       <c r="E318" s="9" t="s">
-        <v>1247</v>
+        <v>1238</v>
       </c>
       <c r="F318" s="4" t="s">
-        <v>1248</v>
+        <v>1239</v>
       </c>
       <c r="G318" s="9" t="s">
         <v>12</v>
       </c>
       <c r="H318" s="6" t="s">
-        <v>1317</v>
+        <v>1307</v>
       </c>
       <c r="I318" s="6"/>
       <c r="J318" s="5"/>
     </row>
     <row r="319" spans="1:10" ht="15.75">
       <c r="A319" s="9" t="s">
-        <v>1255</v>
+        <v>1326</v>
       </c>
       <c r="B319" s="4" t="s">
-        <v>1256</v>
+        <v>1322</v>
       </c>
       <c r="C319" s="9" t="s">
-        <v>1253</v>
+        <v>1308</v>
       </c>
       <c r="D319" s="4" t="s">
-        <v>1254</v>
+        <v>1322</v>
       </c>
       <c r="E319" s="9" t="s">
-        <v>1251</v>
+        <v>1242</v>
       </c>
       <c r="F319" s="4" t="s">
-        <v>1252</v>
+        <v>1243</v>
       </c>
       <c r="G319" s="9" t="s">
         <v>12</v>
       </c>
       <c r="H319" s="6" t="s">
-        <v>1317</v>
+        <v>1307</v>
       </c>
       <c r="I319" s="6"/>
       <c r="J319" s="5"/>
     </row>
     <row r="320" spans="1:10" ht="15.75">
       <c r="A320" s="9" t="s">
-        <v>1329</v>
+        <v>1327</v>
       </c>
       <c r="B320" s="4" t="s">
-        <v>1329</v>
+        <v>1332</v>
       </c>
       <c r="C320" s="9" t="s">
-        <v>1329</v>
+        <v>1246</v>
       </c>
       <c r="D320" s="4" t="s">
-        <v>1329</v>
+        <v>1247</v>
       </c>
       <c r="E320" s="9" t="s">
-        <v>1257</v>
+        <v>1244</v>
       </c>
       <c r="F320" s="4" t="s">
-        <v>1258</v>
+        <v>1245</v>
       </c>
       <c r="G320" s="9" t="s">
         <v>12</v>
       </c>
       <c r="H320" s="6" t="s">
-        <v>1317</v>
-      </c>
-      <c r="I320" s="9" t="s">
-        <v>608</v>
-      </c>
+        <v>1307</v>
+      </c>
+      <c r="I320" s="9"/>
       <c r="J320" s="5"/>
     </row>
     <row r="321" spans="1:10" ht="15.75">
       <c r="A321" s="9" t="s">
-        <v>1261</v>
+        <v>1328</v>
       </c>
       <c r="B321" s="4" t="s">
-        <v>1260</v>
+        <v>1318</v>
       </c>
       <c r="C321" s="9" t="s">
-        <v>1261</v>
+        <v>1318</v>
       </c>
       <c r="D321" s="4" t="s">
-        <v>1260</v>
+        <v>1318</v>
       </c>
       <c r="E321" s="9" t="s">
-        <v>1259</v>
+        <v>1248</v>
       </c>
       <c r="F321" s="4" t="s">
-        <v>1260</v>
+        <v>1249</v>
       </c>
       <c r="G321" s="9" t="s">
-        <v>1331</v>
+        <v>1319</v>
       </c>
       <c r="H321" s="6" t="s">
-        <v>1317</v>
-      </c>
-      <c r="I321" s="6"/>
+        <v>1307</v>
+      </c>
+      <c r="I321" s="9" t="s">
+        <v>1334</v>
+      </c>
       <c r="J321" s="5"/>
     </row>
     <row r="322" spans="1:10" ht="15.75">
       <c r="A322" s="9" t="s">
-        <v>1266</v>
+        <v>1329</v>
       </c>
       <c r="B322" s="4" t="s">
-        <v>1267</v>
+        <v>1251</v>
       </c>
       <c r="C322" s="9" t="s">
-        <v>1264</v>
+        <v>1252</v>
       </c>
       <c r="D322" s="4" t="s">
-        <v>1265</v>
+        <v>1251</v>
       </c>
       <c r="E322" s="9" t="s">
-        <v>1262</v>
+        <v>1250</v>
       </c>
       <c r="F322" s="4" t="s">
-        <v>1263</v>
+        <v>1251</v>
       </c>
       <c r="G322" s="9" t="s">
-        <v>1330</v>
+        <v>1320</v>
       </c>
       <c r="H322" s="6" t="s">
-        <v>1317</v>
+        <v>1307</v>
       </c>
       <c r="I322" s="6"/>
       <c r="J322" s="5"/>
     </row>
     <row r="323" spans="1:10" ht="15.75">
       <c r="A323" s="9" t="s">
-        <v>1272</v>
+        <v>1257</v>
       </c>
       <c r="B323" s="4" t="s">
-        <v>1273</v>
+        <v>1258</v>
       </c>
       <c r="C323" s="9" t="s">
-        <v>1270</v>
+        <v>1255</v>
       </c>
       <c r="D323" s="4" t="s">
-        <v>1271</v>
+        <v>1256</v>
       </c>
       <c r="E323" s="9" t="s">
-        <v>1268</v>
+        <v>1253</v>
       </c>
       <c r="F323" s="4" t="s">
-        <v>1269</v>
+        <v>1254</v>
       </c>
       <c r="G323" s="9" t="s">
-        <v>12</v>
+        <v>1319</v>
       </c>
       <c r="H323" s="6" t="s">
-        <v>1317</v>
+        <v>1307</v>
       </c>
       <c r="I323" s="6"/>
       <c r="J323" s="5"/>
     </row>
     <row r="324" spans="1:10" ht="15.75">
       <c r="A324" s="9" t="s">
-        <v>1002</v>
+        <v>1263</v>
       </c>
       <c r="B324" s="4" t="s">
-        <v>1003</v>
+        <v>1264</v>
       </c>
       <c r="C324" s="9" t="s">
-        <v>1000</v>
+        <v>1261</v>
       </c>
       <c r="D324" s="4" t="s">
-        <v>1001</v>
+        <v>1262</v>
       </c>
       <c r="E324" s="9" t="s">
-        <v>1274</v>
+        <v>1259</v>
       </c>
       <c r="F324" s="4" t="s">
-        <v>1275</v>
+        <v>1260</v>
       </c>
       <c r="G324" s="9" t="s">
-        <v>1330</v>
+        <v>12</v>
       </c>
       <c r="H324" s="6" t="s">
-        <v>1317</v>
+        <v>1307</v>
       </c>
       <c r="I324" s="6"/>
       <c r="J324" s="5"/>
     </row>
     <row r="325" spans="1:10" ht="15.75">
       <c r="A325" s="9" t="s">
-        <v>1280</v>
+        <v>1002</v>
       </c>
       <c r="B325" s="4" t="s">
-        <v>1281</v>
+        <v>1003</v>
       </c>
       <c r="C325" s="9" t="s">
-        <v>1278</v>
+        <v>1000</v>
       </c>
       <c r="D325" s="4" t="s">
-        <v>1279</v>
+        <v>1001</v>
       </c>
       <c r="E325" s="9" t="s">
-        <v>1276</v>
+        <v>1265</v>
       </c>
       <c r="F325" s="4" t="s">
-        <v>1277</v>
+        <v>1266</v>
       </c>
       <c r="G325" s="9" t="s">
-        <v>12</v>
+        <v>1319</v>
       </c>
       <c r="H325" s="6" t="s">
-        <v>1317</v>
+        <v>1307</v>
       </c>
       <c r="I325" s="6"/>
       <c r="J325" s="5"/>
     </row>
-    <row r="328" spans="1:10">
-      <c r="E328" s="12"/>
-      <c r="F328" s="1"/>
+    <row r="326" spans="1:10" ht="15.75">
+      <c r="A326" s="9" t="s">
+        <v>1271</v>
+      </c>
+      <c r="B326" s="4" t="s">
+        <v>1272</v>
+      </c>
+      <c r="C326" s="9" t="s">
+        <v>1269</v>
+      </c>
+      <c r="D326" s="4" t="s">
+        <v>1270</v>
+      </c>
+      <c r="E326" s="9" t="s">
+        <v>1267</v>
+      </c>
+      <c r="F326" s="4" t="s">
+        <v>1268</v>
+      </c>
+      <c r="G326" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="H326" s="6" t="s">
+        <v>1307</v>
+      </c>
+      <c r="I326" s="6"/>
+      <c r="J326" s="5"/>
     </row>
     <row r="329" spans="1:10">
       <c r="E329" s="12"/>
       <c r="F329" s="1"/>
+    </row>
+    <row r="330" spans="1:10">
+      <c r="A330" s="13"/>
+      <c r="E330" s="12"/>
+      <c r="F330" s="1"/>
+    </row>
+    <row r="331" spans="1:10">
+      <c r="A331" s="13"/>
+    </row>
+    <row r="332" spans="1:10">
+      <c r="A332" s="13"/>
+    </row>
+    <row r="333" spans="1:10" ht="15.75">
+      <c r="A333" s="14"/>
+      <c r="B333" s="14"/>
+      <c r="C333" s="14"/>
+      <c r="D333" s="14"/>
+      <c r="E333" s="14"/>
+      <c r="F333" s="14"/>
+      <c r="G333" s="14"/>
+      <c r="H333" s="15"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>

--- a/codebook/공통변수정리_최종본_0111.xlsx
+++ b/codebook/공통변수정리_최종본_0111.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wynin\Desktop\SE_Cho\노인실태조사\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wynin\Documents\git\ML_SI\codebook\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F789DFDA-168E-4A3B-A773-5AE4B142AB8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFF150B5-9352-4598-B3F8-12A390CA6B0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1530" yWindow="180" windowWidth="23040" windowHeight="11925" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1875" yWindow="525" windowWidth="23040" windowHeight="11925" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="공통변수정리" sheetId="10" r:id="rId1"/>
@@ -68,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2761" uniqueCount="1341">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2761" uniqueCount="1346">
   <si>
     <t>변수명 설명</t>
   </si>
@@ -1441,9 +1441,6 @@
     <t>B3</t>
   </si>
   <si>
-    <t>현재 3개월 이상 복용하고 있는 의사처방약(종류)</t>
-  </si>
-  <si>
     <t>현재 3개월 이상 복용하고 있는 의사처방약(알)</t>
   </si>
   <si>
@@ -3758,9 +3755,6 @@
   </si>
   <si>
     <t>N4_5_2</t>
-  </si>
-  <si>
-    <t>가구_공적이전소득_금액</t>
   </si>
   <si>
     <t>J3b_3_9</t>
@@ -4152,6 +4146,34 @@
   </si>
   <si>
     <t>x</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>B2_3</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>지난 1개월 동안 의료기관 이용시 횟수</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>지출_경조사비_금액(월평균)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>최장기 일자리_종사기간(년)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>death_prep</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>가구_공적이전소득_금액</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>현재 3개월 이상 복용하고 있는 의사처방약(종류)</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -4500,8 +4522,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7C1B0D4-8CA4-4B4C-9096-6AAA7899E3C8}">
   <dimension ref="A1:J333"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A296" workbookViewId="0">
-      <selection activeCell="E312" sqref="E312"/>
+    <sheetView tabSelected="1" topLeftCell="A311" workbookViewId="0">
+      <selection activeCell="K327" sqref="K327"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4517,19 +4539,19 @@
   <sheetData>
     <row r="1" spans="1:10" ht="15.75">
       <c r="A1" s="10" t="s">
-        <v>1315</v>
+        <v>1313</v>
       </c>
       <c r="B1" s="7" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>1316</v>
+        <v>1314</v>
       </c>
       <c r="D1" s="7" t="s">
         <v>0</v>
       </c>
       <c r="E1" s="7" t="s">
-        <v>1317</v>
+        <v>1315</v>
       </c>
       <c r="F1" s="8" t="s">
         <v>0</v>
@@ -4565,7 +4587,7 @@
         <v>6</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>1319</v>
+        <v>1317</v>
       </c>
       <c r="H2" s="9" t="s">
         <v>4</v>
@@ -5277,7 +5299,7 @@
         <v>104</v>
       </c>
       <c r="G26" s="9" t="s">
-        <v>1319</v>
+        <v>1317</v>
       </c>
       <c r="H26" s="9" t="s">
         <v>7</v>
@@ -5307,7 +5329,7 @@
         <v>109</v>
       </c>
       <c r="G27" s="9" t="s">
-        <v>1319</v>
+        <v>1317</v>
       </c>
       <c r="H27" s="9" t="s">
         <v>7</v>
@@ -5337,7 +5359,7 @@
         <v>113</v>
       </c>
       <c r="G28" s="9" t="s">
-        <v>1319</v>
+        <v>1317</v>
       </c>
       <c r="H28" s="9" t="s">
         <v>7</v>
@@ -5367,7 +5389,7 @@
         <v>117</v>
       </c>
       <c r="G29" s="9" t="s">
-        <v>1319</v>
+        <v>1317</v>
       </c>
       <c r="H29" s="9" t="s">
         <v>7</v>
@@ -5397,7 +5419,7 @@
         <v>121</v>
       </c>
       <c r="G30" s="9" t="s">
-        <v>1319</v>
+        <v>1317</v>
       </c>
       <c r="H30" s="9" t="s">
         <v>7</v>
@@ -5427,7 +5449,7 @@
         <v>125</v>
       </c>
       <c r="G31" s="9" t="s">
-        <v>1319</v>
+        <v>1317</v>
       </c>
       <c r="H31" s="9" t="s">
         <v>7</v>
@@ -5457,7 +5479,7 @@
         <v>129</v>
       </c>
       <c r="G32" s="9" t="s">
-        <v>1319</v>
+        <v>1317</v>
       </c>
       <c r="H32" s="9" t="s">
         <v>7</v>
@@ -5487,7 +5509,7 @@
         <v>133</v>
       </c>
       <c r="G33" s="9" t="s">
-        <v>1319</v>
+        <v>1317</v>
       </c>
       <c r="H33" s="9" t="s">
         <v>7</v>
@@ -5517,7 +5539,7 @@
         <v>137</v>
       </c>
       <c r="G34" s="9" t="s">
-        <v>1319</v>
+        <v>1317</v>
       </c>
       <c r="H34" s="9" t="s">
         <v>7</v>
@@ -5547,7 +5569,7 @@
         <v>141</v>
       </c>
       <c r="G35" s="9" t="s">
-        <v>1319</v>
+        <v>1317</v>
       </c>
       <c r="H35" s="9" t="s">
         <v>7</v>
@@ -5577,7 +5599,7 @@
         <v>145</v>
       </c>
       <c r="G36" s="9" t="s">
-        <v>1319</v>
+        <v>1317</v>
       </c>
       <c r="H36" s="9" t="s">
         <v>7</v>
@@ -5607,7 +5629,7 @@
         <v>150</v>
       </c>
       <c r="G37" s="9" t="s">
-        <v>1319</v>
+        <v>1317</v>
       </c>
       <c r="H37" s="9" t="s">
         <v>7</v>
@@ -5637,7 +5659,7 @@
         <v>154</v>
       </c>
       <c r="G38" s="9" t="s">
-        <v>1319</v>
+        <v>1317</v>
       </c>
       <c r="H38" s="9" t="s">
         <v>7</v>
@@ -5667,7 +5689,7 @@
         <v>158</v>
       </c>
       <c r="G39" s="9" t="s">
-        <v>1319</v>
+        <v>1317</v>
       </c>
       <c r="H39" s="9" t="s">
         <v>7</v>
@@ -5697,7 +5719,7 @@
         <v>162</v>
       </c>
       <c r="G40" s="9" t="s">
-        <v>1319</v>
+        <v>1317</v>
       </c>
       <c r="H40" s="9" t="s">
         <v>7</v>
@@ -5727,7 +5749,7 @@
         <v>166</v>
       </c>
       <c r="G41" s="9" t="s">
-        <v>1319</v>
+        <v>1317</v>
       </c>
       <c r="H41" s="9" t="s">
         <v>7</v>
@@ -5757,7 +5779,7 @@
         <v>170</v>
       </c>
       <c r="G42" s="9" t="s">
-        <v>1319</v>
+        <v>1317</v>
       </c>
       <c r="H42" s="9" t="s">
         <v>7</v>
@@ -5787,7 +5809,7 @@
         <v>174</v>
       </c>
       <c r="G43" s="9" t="s">
-        <v>1319</v>
+        <v>1317</v>
       </c>
       <c r="H43" s="9" t="s">
         <v>7</v>
@@ -5817,7 +5839,7 @@
         <v>178</v>
       </c>
       <c r="G44" s="9" t="s">
-        <v>1319</v>
+        <v>1317</v>
       </c>
       <c r="H44" s="9" t="s">
         <v>7</v>
@@ -5847,7 +5869,7 @@
         <v>182</v>
       </c>
       <c r="G45" s="9" t="s">
-        <v>1319</v>
+        <v>1317</v>
       </c>
       <c r="H45" s="9" t="s">
         <v>7</v>
@@ -5877,7 +5899,7 @@
         <v>186</v>
       </c>
       <c r="G46" s="9" t="s">
-        <v>1320</v>
+        <v>1318</v>
       </c>
       <c r="H46" s="9" t="s">
         <v>4</v>
@@ -5905,7 +5927,7 @@
         <v>190</v>
       </c>
       <c r="G47" s="9" t="s">
-        <v>1319</v>
+        <v>1317</v>
       </c>
       <c r="H47" s="9" t="s">
         <v>4</v>
@@ -5933,7 +5955,7 @@
         <v>192</v>
       </c>
       <c r="G48" s="9" t="s">
-        <v>1319</v>
+        <v>1317</v>
       </c>
       <c r="H48" s="9" t="s">
         <v>4</v>
@@ -5961,7 +5983,7 @@
         <v>197</v>
       </c>
       <c r="G49" s="9" t="s">
-        <v>1319</v>
+        <v>1317</v>
       </c>
       <c r="H49" s="9" t="s">
         <v>4</v>
@@ -5989,7 +6011,7 @@
         <v>201</v>
       </c>
       <c r="G50" s="9" t="s">
-        <v>1319</v>
+        <v>1317</v>
       </c>
       <c r="H50" s="9" t="s">
         <v>4</v>
@@ -6017,7 +6039,7 @@
         <v>206</v>
       </c>
       <c r="G51" s="9" t="s">
-        <v>1319</v>
+        <v>1317</v>
       </c>
       <c r="H51" s="9" t="s">
         <v>4</v>
@@ -6045,7 +6067,7 @@
         <v>210</v>
       </c>
       <c r="G52" s="9" t="s">
-        <v>1319</v>
+        <v>1317</v>
       </c>
       <c r="H52" s="9" t="s">
         <v>4</v>
@@ -6073,7 +6095,7 @@
         <v>215</v>
       </c>
       <c r="G53" s="9" t="s">
-        <v>1319</v>
+        <v>1317</v>
       </c>
       <c r="H53" s="9" t="s">
         <v>4</v>
@@ -6101,7 +6123,7 @@
         <v>220</v>
       </c>
       <c r="G54" s="9" t="s">
-        <v>1319</v>
+        <v>1317</v>
       </c>
       <c r="H54" s="9" t="s">
         <v>4</v>
@@ -6129,7 +6151,7 @@
         <v>225</v>
       </c>
       <c r="G55" s="9" t="s">
-        <v>1319</v>
+        <v>1317</v>
       </c>
       <c r="H55" s="9" t="s">
         <v>4</v>
@@ -6157,7 +6179,7 @@
         <v>229</v>
       </c>
       <c r="G56" s="9" t="s">
-        <v>1319</v>
+        <v>1317</v>
       </c>
       <c r="H56" s="9" t="s">
         <v>4</v>
@@ -6185,7 +6207,7 @@
         <v>234</v>
       </c>
       <c r="G57" s="9" t="s">
-        <v>1319</v>
+        <v>1317</v>
       </c>
       <c r="H57" s="9" t="s">
         <v>4</v>
@@ -6213,7 +6235,7 @@
         <v>239</v>
       </c>
       <c r="G58" s="9" t="s">
-        <v>1319</v>
+        <v>1317</v>
       </c>
       <c r="H58" s="9" t="s">
         <v>4</v>
@@ -6241,7 +6263,7 @@
         <v>244</v>
       </c>
       <c r="G59" s="9" t="s">
-        <v>1319</v>
+        <v>1317</v>
       </c>
       <c r="H59" s="9" t="s">
         <v>4</v>
@@ -6269,7 +6291,7 @@
         <v>248</v>
       </c>
       <c r="G60" s="9" t="s">
-        <v>1319</v>
+        <v>1317</v>
       </c>
       <c r="H60" s="9" t="s">
         <v>4</v>
@@ -6297,7 +6319,7 @@
         <v>253</v>
       </c>
       <c r="G61" s="9" t="s">
-        <v>1319</v>
+        <v>1317</v>
       </c>
       <c r="H61" s="9" t="s">
         <v>4</v>
@@ -6325,7 +6347,7 @@
         <v>257</v>
       </c>
       <c r="G62" s="9" t="s">
-        <v>1319</v>
+        <v>1317</v>
       </c>
       <c r="H62" s="9" t="s">
         <v>4</v>
@@ -6353,7 +6375,7 @@
         <v>262</v>
       </c>
       <c r="G63" s="9" t="s">
-        <v>1319</v>
+        <v>1317</v>
       </c>
       <c r="H63" s="9" t="s">
         <v>4</v>
@@ -6381,7 +6403,7 @@
         <v>267</v>
       </c>
       <c r="G64" s="9" t="s">
-        <v>1319</v>
+        <v>1317</v>
       </c>
       <c r="H64" s="9" t="s">
         <v>4</v>
@@ -6409,7 +6431,7 @@
         <v>272</v>
       </c>
       <c r="G65" s="9" t="s">
-        <v>1319</v>
+        <v>1317</v>
       </c>
       <c r="H65" s="9" t="s">
         <v>4</v>
@@ -6437,7 +6459,7 @@
         <v>276</v>
       </c>
       <c r="G66" s="9" t="s">
-        <v>1319</v>
+        <v>1317</v>
       </c>
       <c r="H66" s="9" t="s">
         <v>4</v>
@@ -6465,7 +6487,7 @@
         <v>281</v>
       </c>
       <c r="G67" s="9" t="s">
-        <v>1319</v>
+        <v>1317</v>
       </c>
       <c r="H67" s="9" t="s">
         <v>4</v>
@@ -6493,7 +6515,7 @@
         <v>285</v>
       </c>
       <c r="G68" s="9" t="s">
-        <v>1319</v>
+        <v>1317</v>
       </c>
       <c r="H68" s="9" t="s">
         <v>4</v>
@@ -6521,7 +6543,7 @@
         <v>290</v>
       </c>
       <c r="G69" s="9" t="s">
-        <v>1319</v>
+        <v>1317</v>
       </c>
       <c r="H69" s="9" t="s">
         <v>4</v>
@@ -6549,7 +6571,7 @@
         <v>294</v>
       </c>
       <c r="G70" s="9" t="s">
-        <v>1319</v>
+        <v>1317</v>
       </c>
       <c r="H70" s="9" t="s">
         <v>4</v>
@@ -6577,7 +6599,7 @@
         <v>299</v>
       </c>
       <c r="G71" s="9" t="s">
-        <v>1319</v>
+        <v>1317</v>
       </c>
       <c r="H71" s="9" t="s">
         <v>4</v>
@@ -6605,7 +6627,7 @@
         <v>304</v>
       </c>
       <c r="G72" s="9" t="s">
-        <v>1319</v>
+        <v>1317</v>
       </c>
       <c r="H72" s="9" t="s">
         <v>4</v>
@@ -6633,7 +6655,7 @@
         <v>309</v>
       </c>
       <c r="G73" s="9" t="s">
-        <v>1319</v>
+        <v>1317</v>
       </c>
       <c r="H73" s="9" t="s">
         <v>4</v>
@@ -6661,7 +6683,7 @@
         <v>313</v>
       </c>
       <c r="G74" s="9" t="s">
-        <v>1319</v>
+        <v>1317</v>
       </c>
       <c r="H74" s="9" t="s">
         <v>4</v>
@@ -6689,7 +6711,7 @@
         <v>318</v>
       </c>
       <c r="G75" s="9" t="s">
-        <v>1319</v>
+        <v>1317</v>
       </c>
       <c r="H75" s="9" t="s">
         <v>4</v>
@@ -6717,7 +6739,7 @@
         <v>322</v>
       </c>
       <c r="G76" s="9" t="s">
-        <v>1319</v>
+        <v>1317</v>
       </c>
       <c r="H76" s="9" t="s">
         <v>4</v>
@@ -6745,7 +6767,7 @@
         <v>327</v>
       </c>
       <c r="G77" s="9" t="s">
-        <v>1319</v>
+        <v>1317</v>
       </c>
       <c r="H77" s="9" t="s">
         <v>4</v>
@@ -6773,7 +6795,7 @@
         <v>331</v>
       </c>
       <c r="G78" s="9" t="s">
-        <v>1319</v>
+        <v>1317</v>
       </c>
       <c r="H78" s="9" t="s">
         <v>4</v>
@@ -6801,7 +6823,7 @@
         <v>336</v>
       </c>
       <c r="G79" s="9" t="s">
-        <v>1319</v>
+        <v>1317</v>
       </c>
       <c r="H79" s="9" t="s">
         <v>4</v>
@@ -6829,7 +6851,7 @@
         <v>340</v>
       </c>
       <c r="G80" s="9" t="s">
-        <v>1319</v>
+        <v>1317</v>
       </c>
       <c r="H80" s="9" t="s">
         <v>4</v>
@@ -6857,7 +6879,7 @@
         <v>345</v>
       </c>
       <c r="G81" s="9" t="s">
-        <v>1319</v>
+        <v>1317</v>
       </c>
       <c r="H81" s="9" t="s">
         <v>4</v>
@@ -6885,7 +6907,7 @@
         <v>349</v>
       </c>
       <c r="G82" s="9" t="s">
-        <v>1319</v>
+        <v>1317</v>
       </c>
       <c r="H82" s="9" t="s">
         <v>4</v>
@@ -6913,7 +6935,7 @@
         <v>354</v>
       </c>
       <c r="G83" s="9" t="s">
-        <v>1319</v>
+        <v>1317</v>
       </c>
       <c r="H83" s="9" t="s">
         <v>4</v>
@@ -6941,7 +6963,7 @@
         <v>358</v>
       </c>
       <c r="G84" s="9" t="s">
-        <v>1319</v>
+        <v>1317</v>
       </c>
       <c r="H84" s="9" t="s">
         <v>4</v>
@@ -6969,7 +6991,7 @@
         <v>363</v>
       </c>
       <c r="G85" s="9" t="s">
-        <v>1319</v>
+        <v>1317</v>
       </c>
       <c r="H85" s="9" t="s">
         <v>4</v>
@@ -6997,7 +7019,7 @@
         <v>367</v>
       </c>
       <c r="G86" s="9" t="s">
-        <v>1319</v>
+        <v>1317</v>
       </c>
       <c r="H86" s="9" t="s">
         <v>4</v>
@@ -7025,7 +7047,7 @@
         <v>372</v>
       </c>
       <c r="G87" s="9" t="s">
-        <v>1319</v>
+        <v>1317</v>
       </c>
       <c r="H87" s="9" t="s">
         <v>4</v>
@@ -7053,7 +7075,7 @@
         <v>376</v>
       </c>
       <c r="G88" s="9" t="s">
-        <v>1319</v>
+        <v>1317</v>
       </c>
       <c r="H88" s="9" t="s">
         <v>4</v>
@@ -7081,7 +7103,7 @@
         <v>381</v>
       </c>
       <c r="G89" s="9" t="s">
-        <v>1319</v>
+        <v>1317</v>
       </c>
       <c r="H89" s="9" t="s">
         <v>4</v>
@@ -7109,7 +7131,7 @@
         <v>385</v>
       </c>
       <c r="G90" s="9" t="s">
-        <v>1319</v>
+        <v>1317</v>
       </c>
       <c r="H90" s="9" t="s">
         <v>4</v>
@@ -7137,7 +7159,7 @@
         <v>390</v>
       </c>
       <c r="G91" s="9" t="s">
-        <v>1319</v>
+        <v>1317</v>
       </c>
       <c r="H91" s="9" t="s">
         <v>4</v>
@@ -7165,7 +7187,7 @@
         <v>395</v>
       </c>
       <c r="G92" s="9" t="s">
-        <v>1319</v>
+        <v>1317</v>
       </c>
       <c r="H92" s="9" t="s">
         <v>4</v>
@@ -7193,7 +7215,7 @@
         <v>400</v>
       </c>
       <c r="G93" s="9" t="s">
-        <v>1319</v>
+        <v>1317</v>
       </c>
       <c r="H93" s="9" t="s">
         <v>4</v>
@@ -7221,7 +7243,7 @@
         <v>404</v>
       </c>
       <c r="G94" s="9" t="s">
-        <v>1319</v>
+        <v>1317</v>
       </c>
       <c r="H94" s="9" t="s">
         <v>4</v>
@@ -7249,7 +7271,7 @@
         <v>409</v>
       </c>
       <c r="G95" s="9" t="s">
-        <v>1319</v>
+        <v>1317</v>
       </c>
       <c r="H95" s="9" t="s">
         <v>4</v>
@@ -7277,7 +7299,7 @@
         <v>414</v>
       </c>
       <c r="G96" s="9" t="s">
-        <v>1319</v>
+        <v>1317</v>
       </c>
       <c r="H96" s="9" t="s">
         <v>4</v>
@@ -7305,7 +7327,7 @@
         <v>420</v>
       </c>
       <c r="G97" s="9" t="s">
-        <v>1319</v>
+        <v>1317</v>
       </c>
       <c r="H97" s="9" t="s">
         <v>4</v>
@@ -7333,7 +7355,7 @@
         <v>426</v>
       </c>
       <c r="G98" s="9" t="s">
-        <v>1319</v>
+        <v>1317</v>
       </c>
       <c r="H98" s="9" t="s">
         <v>4</v>
@@ -7361,7 +7383,7 @@
         <v>431</v>
       </c>
       <c r="G99" s="9" t="s">
-        <v>1319</v>
+        <v>1317</v>
       </c>
       <c r="H99" s="9" t="s">
         <v>4</v>
@@ -7389,7 +7411,7 @@
         <v>436</v>
       </c>
       <c r="G100" s="9" t="s">
-        <v>1319</v>
+        <v>1317</v>
       </c>
       <c r="H100" s="9" t="s">
         <v>4</v>
@@ -7417,7 +7439,7 @@
         <v>441</v>
       </c>
       <c r="G101" s="9" t="s">
-        <v>1319</v>
+        <v>1317</v>
       </c>
       <c r="H101" s="9" t="s">
         <v>4</v>
@@ -7445,7 +7467,7 @@
         <v>445</v>
       </c>
       <c r="G102" s="9" t="s">
-        <v>1319</v>
+        <v>1317</v>
       </c>
       <c r="H102" s="9" t="s">
         <v>4</v>
@@ -7473,7 +7495,7 @@
         <v>450</v>
       </c>
       <c r="G103" s="9" t="s">
-        <v>1319</v>
+        <v>1317</v>
       </c>
       <c r="H103" s="9" t="s">
         <v>4</v>
@@ -7495,7 +7517,7 @@
         <v>454</v>
       </c>
       <c r="E104" s="9" t="s">
-        <v>453</v>
+        <v>1339</v>
       </c>
       <c r="F104" s="4" t="s">
         <v>454</v>
@@ -7511,22 +7533,22 @@
     </row>
     <row r="105" spans="1:10" ht="15.75">
       <c r="A105" s="9" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B105" s="4" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="C105" s="9" t="s">
         <v>456</v>
       </c>
       <c r="D105" s="4" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="E105" s="9" t="s">
         <v>456</v>
       </c>
       <c r="F105" s="4" t="s">
-        <v>457</v>
+        <v>1345</v>
       </c>
       <c r="G105" s="9" t="s">
         <v>12</v>
@@ -7539,22 +7561,22 @@
     </row>
     <row r="106" spans="1:10" ht="15.75">
       <c r="A106" s="9" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B106" s="4" t="s">
+        <v>460</v>
+      </c>
+      <c r="C106" s="9" t="s">
         <v>461</v>
       </c>
-      <c r="C106" s="9" t="s">
-        <v>462</v>
-      </c>
       <c r="D106" s="4" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="E106" s="9" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="F106" s="4" t="s">
-        <v>461</v>
+        <v>1340</v>
       </c>
       <c r="G106" s="9" t="s">
         <v>12</v>
@@ -7567,22 +7589,22 @@
     </row>
     <row r="107" spans="1:10" ht="15.75">
       <c r="A107" s="9" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="B107" s="4" t="s">
-        <v>1284</v>
+        <v>1282</v>
       </c>
       <c r="C107" s="9" t="s">
+        <v>463</v>
+      </c>
+      <c r="D107" s="4" t="s">
         <v>464</v>
       </c>
-      <c r="D107" s="4" t="s">
-        <v>465</v>
-      </c>
       <c r="E107" s="9" t="s">
+        <v>1281</v>
+      </c>
+      <c r="F107" s="4" t="s">
         <v>1283</v>
-      </c>
-      <c r="F107" s="4" t="s">
-        <v>1285</v>
       </c>
       <c r="G107" s="9" t="s">
         <v>12</v>
@@ -7595,475 +7617,475 @@
     </row>
     <row r="108" spans="1:10" ht="15.75">
       <c r="A108" s="9" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="B108" s="4" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="C108" s="9" t="s">
+        <v>465</v>
+      </c>
+      <c r="D108" s="4" t="s">
         <v>466</v>
       </c>
-      <c r="D108" s="4" t="s">
-        <v>467</v>
-      </c>
       <c r="E108" s="9" t="s">
+        <v>465</v>
+      </c>
+      <c r="F108" s="4" t="s">
         <v>466</v>
       </c>
-      <c r="F108" s="4" t="s">
-        <v>467</v>
-      </c>
       <c r="G108" s="9" t="s">
-        <v>1319</v>
+        <v>1317</v>
       </c>
       <c r="H108" s="9" t="s">
         <v>7</v>
       </c>
       <c r="I108" s="9" t="s">
-        <v>1273</v>
+        <v>1271</v>
       </c>
       <c r="J108" s="5"/>
     </row>
     <row r="109" spans="1:10" ht="15.75">
       <c r="A109" s="9" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="B109" s="4" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="C109" s="9" t="s">
+        <v>469</v>
+      </c>
+      <c r="D109" s="4" t="s">
         <v>470</v>
       </c>
-      <c r="D109" s="4" t="s">
-        <v>471</v>
-      </c>
       <c r="E109" s="9" t="s">
+        <v>469</v>
+      </c>
+      <c r="F109" s="4" t="s">
         <v>470</v>
       </c>
-      <c r="F109" s="4" t="s">
-        <v>471</v>
-      </c>
       <c r="G109" s="9" t="s">
-        <v>1319</v>
+        <v>1317</v>
       </c>
       <c r="H109" s="9" t="s">
         <v>7</v>
       </c>
       <c r="I109" s="9" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="J109" s="5"/>
     </row>
     <row r="110" spans="1:10" ht="15.75">
       <c r="A110" s="9" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="B110" s="4" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C110" s="9" t="s">
+        <v>472</v>
+      </c>
+      <c r="D110" s="4" t="s">
         <v>473</v>
       </c>
-      <c r="D110" s="4" t="s">
-        <v>474</v>
-      </c>
       <c r="E110" s="9" t="s">
+        <v>472</v>
+      </c>
+      <c r="F110" s="4" t="s">
         <v>473</v>
       </c>
-      <c r="F110" s="4" t="s">
-        <v>474</v>
-      </c>
       <c r="G110" s="9" t="s">
-        <v>1319</v>
+        <v>1317</v>
       </c>
       <c r="H110" s="9" t="s">
         <v>7</v>
       </c>
       <c r="I110" s="9" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="J110" s="5"/>
     </row>
     <row r="111" spans="1:10" ht="15.75">
       <c r="A111" s="9" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B111" s="4" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="C111" s="9" t="s">
+        <v>475</v>
+      </c>
+      <c r="D111" s="4" t="s">
         <v>476</v>
       </c>
-      <c r="D111" s="4" t="s">
-        <v>477</v>
-      </c>
       <c r="E111" s="9" t="s">
+        <v>475</v>
+      </c>
+      <c r="F111" s="4" t="s">
         <v>476</v>
       </c>
-      <c r="F111" s="4" t="s">
-        <v>477</v>
-      </c>
       <c r="G111" s="9" t="s">
-        <v>1319</v>
+        <v>1317</v>
       </c>
       <c r="H111" s="9" t="s">
         <v>7</v>
       </c>
       <c r="I111" s="9" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="J111" s="5"/>
     </row>
     <row r="112" spans="1:10" ht="15.75">
       <c r="A112" s="9" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B112" s="4" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="C112" s="9" t="s">
+        <v>478</v>
+      </c>
+      <c r="D112" s="4" t="s">
         <v>479</v>
       </c>
-      <c r="D112" s="4" t="s">
-        <v>480</v>
-      </c>
       <c r="E112" s="9" t="s">
+        <v>478</v>
+      </c>
+      <c r="F112" s="4" t="s">
         <v>479</v>
       </c>
-      <c r="F112" s="4" t="s">
-        <v>480</v>
-      </c>
       <c r="G112" s="9" t="s">
-        <v>1319</v>
+        <v>1317</v>
       </c>
       <c r="H112" s="9" t="s">
         <v>7</v>
       </c>
       <c r="I112" s="9" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="J112" s="5"/>
     </row>
     <row r="113" spans="1:10" ht="15.75">
       <c r="A113" s="9" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B113" s="4" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="C113" s="9" t="s">
+        <v>481</v>
+      </c>
+      <c r="D113" s="4" t="s">
         <v>482</v>
       </c>
-      <c r="D113" s="4" t="s">
-        <v>483</v>
-      </c>
       <c r="E113" s="9" t="s">
+        <v>481</v>
+      </c>
+      <c r="F113" s="4" t="s">
         <v>482</v>
       </c>
-      <c r="F113" s="4" t="s">
-        <v>483</v>
-      </c>
       <c r="G113" s="9" t="s">
-        <v>1319</v>
+        <v>1317</v>
       </c>
       <c r="H113" s="9" t="s">
         <v>7</v>
       </c>
       <c r="I113" s="9" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="J113" s="5"/>
     </row>
     <row r="114" spans="1:10" ht="15.75">
       <c r="A114" s="9" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B114" s="4" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="C114" s="9" t="s">
+        <v>484</v>
+      </c>
+      <c r="D114" s="4" t="s">
         <v>485</v>
       </c>
-      <c r="D114" s="4" t="s">
-        <v>486</v>
-      </c>
       <c r="E114" s="9" t="s">
+        <v>484</v>
+      </c>
+      <c r="F114" s="4" t="s">
         <v>485</v>
       </c>
-      <c r="F114" s="4" t="s">
-        <v>486</v>
-      </c>
       <c r="G114" s="9" t="s">
-        <v>1319</v>
+        <v>1317</v>
       </c>
       <c r="H114" s="9" t="s">
         <v>7</v>
       </c>
       <c r="I114" s="9" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="J114" s="5"/>
     </row>
     <row r="115" spans="1:10" ht="15.75">
       <c r="A115" s="9" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="B115" s="4" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="C115" s="9" t="s">
+        <v>487</v>
+      </c>
+      <c r="D115" s="4" t="s">
         <v>488</v>
       </c>
-      <c r="D115" s="4" t="s">
-        <v>489</v>
-      </c>
       <c r="E115" s="9" t="s">
+        <v>487</v>
+      </c>
+      <c r="F115" s="4" t="s">
         <v>488</v>
       </c>
-      <c r="F115" s="4" t="s">
-        <v>489</v>
-      </c>
       <c r="G115" s="9" t="s">
-        <v>1319</v>
+        <v>1317</v>
       </c>
       <c r="H115" s="9" t="s">
         <v>7</v>
       </c>
       <c r="I115" s="9" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="J115" s="5"/>
     </row>
     <row r="116" spans="1:10" ht="15.75">
       <c r="A116" s="9" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B116" s="4" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="C116" s="9" t="s">
+        <v>490</v>
+      </c>
+      <c r="D116" s="4" t="s">
         <v>491</v>
       </c>
-      <c r="D116" s="4" t="s">
-        <v>492</v>
-      </c>
       <c r="E116" s="9" t="s">
+        <v>490</v>
+      </c>
+      <c r="F116" s="4" t="s">
         <v>491</v>
       </c>
-      <c r="F116" s="4" t="s">
-        <v>492</v>
-      </c>
       <c r="G116" s="9" t="s">
-        <v>1319</v>
+        <v>1317</v>
       </c>
       <c r="H116" s="9" t="s">
         <v>7</v>
       </c>
       <c r="I116" s="9" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="J116" s="5"/>
     </row>
     <row r="117" spans="1:10" ht="15.75">
       <c r="A117" s="9" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="B117" s="4" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="C117" s="9" t="s">
+        <v>493</v>
+      </c>
+      <c r="D117" s="4" t="s">
         <v>494</v>
       </c>
-      <c r="D117" s="4" t="s">
-        <v>495</v>
-      </c>
       <c r="E117" s="9" t="s">
+        <v>493</v>
+      </c>
+      <c r="F117" s="4" t="s">
         <v>494</v>
       </c>
-      <c r="F117" s="4" t="s">
-        <v>495</v>
-      </c>
       <c r="G117" s="9" t="s">
-        <v>1319</v>
+        <v>1317</v>
       </c>
       <c r="H117" s="9" t="s">
         <v>7</v>
       </c>
       <c r="I117" s="9" t="s">
-        <v>1273</v>
+        <v>1271</v>
       </c>
       <c r="J117" s="5"/>
     </row>
     <row r="118" spans="1:10" ht="15.75">
       <c r="A118" s="9" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B118" s="4" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="C118" s="9" t="s">
+        <v>496</v>
+      </c>
+      <c r="D118" s="4" t="s">
         <v>497</v>
       </c>
-      <c r="D118" s="4" t="s">
-        <v>498</v>
-      </c>
       <c r="E118" s="9" t="s">
+        <v>496</v>
+      </c>
+      <c r="F118" s="4" t="s">
         <v>497</v>
       </c>
-      <c r="F118" s="4" t="s">
-        <v>498</v>
-      </c>
       <c r="G118" s="9" t="s">
-        <v>1319</v>
+        <v>1317</v>
       </c>
       <c r="H118" s="9" t="s">
         <v>7</v>
       </c>
       <c r="I118" s="9" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="J118" s="5"/>
     </row>
     <row r="119" spans="1:10" ht="15.75">
       <c r="A119" s="9" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="B119" s="4" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="C119" s="9" t="s">
+        <v>499</v>
+      </c>
+      <c r="D119" s="4" t="s">
         <v>500</v>
       </c>
-      <c r="D119" s="4" t="s">
-        <v>501</v>
-      </c>
       <c r="E119" s="9" t="s">
+        <v>499</v>
+      </c>
+      <c r="F119" s="4" t="s">
         <v>500</v>
       </c>
-      <c r="F119" s="4" t="s">
-        <v>501</v>
-      </c>
       <c r="G119" s="9" t="s">
-        <v>1319</v>
+        <v>1317</v>
       </c>
       <c r="H119" s="9" t="s">
         <v>7</v>
       </c>
       <c r="I119" s="9" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="J119" s="5"/>
     </row>
     <row r="120" spans="1:10" ht="15.75">
       <c r="A120" s="9" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="B120" s="4" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="C120" s="9" t="s">
+        <v>502</v>
+      </c>
+      <c r="D120" s="4" t="s">
         <v>503</v>
       </c>
-      <c r="D120" s="4" t="s">
-        <v>504</v>
-      </c>
       <c r="E120" s="9" t="s">
+        <v>502</v>
+      </c>
+      <c r="F120" s="4" t="s">
         <v>503</v>
       </c>
-      <c r="F120" s="4" t="s">
-        <v>504</v>
-      </c>
       <c r="G120" s="9" t="s">
-        <v>1319</v>
+        <v>1317</v>
       </c>
       <c r="H120" s="9" t="s">
         <v>7</v>
       </c>
       <c r="I120" s="9" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="J120" s="5"/>
     </row>
     <row r="121" spans="1:10" ht="15.75">
       <c r="A121" s="9" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="B121" s="4" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C121" s="9" t="s">
+        <v>505</v>
+      </c>
+      <c r="D121" s="4" t="s">
         <v>506</v>
       </c>
-      <c r="D121" s="4" t="s">
-        <v>507</v>
-      </c>
       <c r="E121" s="9" t="s">
+        <v>505</v>
+      </c>
+      <c r="F121" s="4" t="s">
         <v>506</v>
       </c>
-      <c r="F121" s="4" t="s">
-        <v>507</v>
-      </c>
       <c r="G121" s="9" t="s">
-        <v>1319</v>
+        <v>1317</v>
       </c>
       <c r="H121" s="9" t="s">
         <v>7</v>
       </c>
       <c r="I121" s="9" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="J121" s="5"/>
     </row>
     <row r="122" spans="1:10" ht="15.75">
       <c r="A122" s="9" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="B122" s="4" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="C122" s="9" t="s">
+        <v>508</v>
+      </c>
+      <c r="D122" s="4" t="s">
         <v>509</v>
       </c>
-      <c r="D122" s="4" t="s">
-        <v>510</v>
-      </c>
       <c r="E122" s="9" t="s">
+        <v>508</v>
+      </c>
+      <c r="F122" s="4" t="s">
         <v>509</v>
       </c>
-      <c r="F122" s="4" t="s">
-        <v>510</v>
-      </c>
       <c r="G122" s="9" t="s">
-        <v>1319</v>
+        <v>1317</v>
       </c>
       <c r="H122" s="9" t="s">
         <v>7</v>
       </c>
       <c r="I122" s="9" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="J122" s="5"/>
     </row>
     <row r="123" spans="1:10" ht="15.75">
       <c r="A123" s="9" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="B123" s="4" t="s">
+        <v>511</v>
+      </c>
+      <c r="C123" s="9" t="s">
         <v>512</v>
       </c>
-      <c r="C123" s="9" t="s">
-        <v>513</v>
-      </c>
       <c r="D123" s="4" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="E123" s="9" t="s">
-        <v>1303</v>
+        <v>1301</v>
       </c>
       <c r="F123" s="4" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="G123" s="9" t="s">
-        <v>1319</v>
+        <v>1317</v>
       </c>
       <c r="H123" s="9" t="s">
         <v>4</v>
@@ -8073,25 +8095,25 @@
     </row>
     <row r="124" spans="1:10" ht="15.75">
       <c r="A124" s="9" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="B124" s="4" t="s">
+        <v>514</v>
+      </c>
+      <c r="C124" s="9" t="s">
         <v>515</v>
       </c>
-      <c r="C124" s="9" t="s">
-        <v>516</v>
-      </c>
       <c r="D124" s="4" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="E124" s="9" t="s">
+        <v>513</v>
+      </c>
+      <c r="F124" s="4" t="s">
         <v>514</v>
       </c>
-      <c r="F124" s="4" t="s">
-        <v>515</v>
-      </c>
       <c r="G124" s="9" t="s">
-        <v>1319</v>
+        <v>1317</v>
       </c>
       <c r="H124" s="9" t="s">
         <v>4</v>
@@ -8101,25 +8123,25 @@
     </row>
     <row r="125" spans="1:10" ht="15.75">
       <c r="A125" s="9" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="B125" s="4" t="s">
+        <v>516</v>
+      </c>
+      <c r="C125" s="9" t="s">
         <v>517</v>
       </c>
-      <c r="C125" s="9" t="s">
-        <v>518</v>
-      </c>
       <c r="D125" s="4" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="E125" s="9" t="s">
-        <v>1304</v>
+        <v>1302</v>
       </c>
       <c r="F125" s="4" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="G125" s="9" t="s">
-        <v>1319</v>
+        <v>1317</v>
       </c>
       <c r="H125" s="9" t="s">
         <v>4</v>
@@ -8129,22 +8151,22 @@
     </row>
     <row r="126" spans="1:10" ht="15.75">
       <c r="A126" s="9" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="B126" s="4" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="C126" s="9" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="D126" s="4" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="E126" s="9" t="s">
+        <v>518</v>
+      </c>
+      <c r="F126" s="4" t="s">
         <v>519</v>
-      </c>
-      <c r="F126" s="4" t="s">
-        <v>520</v>
       </c>
       <c r="G126" s="9" t="s">
         <v>12</v>
@@ -8153,28 +8175,28 @@
         <v>7</v>
       </c>
       <c r="I126" s="9" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="J126" s="5"/>
     </row>
     <row r="127" spans="1:10" ht="15.75">
       <c r="A127" s="9" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="B127" s="4" t="s">
+        <v>523</v>
+      </c>
+      <c r="C127" s="9" t="s">
         <v>524</v>
       </c>
-      <c r="C127" s="9" t="s">
-        <v>525</v>
-      </c>
       <c r="D127" s="4" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="E127" s="9" t="s">
+        <v>522</v>
+      </c>
+      <c r="F127" s="4" t="s">
         <v>523</v>
-      </c>
-      <c r="F127" s="4" t="s">
-        <v>524</v>
       </c>
       <c r="G127" s="9" t="s">
         <v>12</v>
@@ -8183,451 +8205,451 @@
         <v>7</v>
       </c>
       <c r="I127" s="9" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="J127" s="5"/>
     </row>
     <row r="128" spans="1:10" ht="15.75">
       <c r="A128" s="9" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="B128" s="4" t="s">
+        <v>525</v>
+      </c>
+      <c r="C128" s="9" t="s">
         <v>526</v>
       </c>
-      <c r="C128" s="9" t="s">
-        <v>527</v>
-      </c>
       <c r="D128" s="4" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="E128" s="9" t="s">
-        <v>1286</v>
+        <v>1284</v>
       </c>
       <c r="F128" s="4" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="G128" s="9" t="s">
-        <v>1319</v>
+        <v>1317</v>
       </c>
       <c r="H128" s="9" t="s">
         <v>7</v>
       </c>
       <c r="I128" s="6" t="s">
-        <v>1287</v>
+        <v>1285</v>
       </c>
       <c r="J128" s="5"/>
     </row>
     <row r="129" spans="1:10" ht="15.75">
       <c r="A129" s="9" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="B129" s="4" t="s">
+        <v>528</v>
+      </c>
+      <c r="C129" s="9" t="s">
         <v>529</v>
       </c>
-      <c r="C129" s="9" t="s">
-        <v>530</v>
-      </c>
       <c r="D129" s="4" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="E129" s="9" t="s">
+        <v>527</v>
+      </c>
+      <c r="F129" s="4" t="s">
         <v>528</v>
       </c>
-      <c r="F129" s="4" t="s">
-        <v>529</v>
-      </c>
       <c r="G129" s="9" t="s">
-        <v>1319</v>
+        <v>1317</v>
       </c>
       <c r="H129" s="9" t="s">
         <v>7</v>
       </c>
       <c r="I129" s="6" t="s">
-        <v>1287</v>
+        <v>1285</v>
       </c>
       <c r="J129" s="5"/>
     </row>
     <row r="130" spans="1:10" ht="15.75">
       <c r="A130" s="9" t="s">
+        <v>533</v>
+      </c>
+      <c r="B130" s="4" t="s">
         <v>534</v>
       </c>
-      <c r="B130" s="4" t="s">
-        <v>535</v>
-      </c>
       <c r="C130" s="9" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="D130" s="4" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="E130" s="9" t="s">
+        <v>530</v>
+      </c>
+      <c r="F130" s="4" t="s">
         <v>531</v>
       </c>
-      <c r="F130" s="4" t="s">
-        <v>532</v>
-      </c>
       <c r="G130" s="9" t="s">
-        <v>1319</v>
+        <v>1317</v>
       </c>
       <c r="H130" s="9" t="s">
         <v>7</v>
       </c>
       <c r="I130" s="6" t="s">
-        <v>1287</v>
+        <v>1285</v>
       </c>
       <c r="J130" s="5"/>
     </row>
     <row r="131" spans="1:10" ht="15.75">
       <c r="A131" s="9" t="s">
+        <v>533</v>
+      </c>
+      <c r="B131" s="4" t="s">
         <v>534</v>
       </c>
-      <c r="B131" s="4" t="s">
+      <c r="C131" s="9" t="s">
+        <v>537</v>
+      </c>
+      <c r="D131" s="4" t="s">
+        <v>536</v>
+      </c>
+      <c r="E131" s="9" t="s">
         <v>535</v>
       </c>
-      <c r="C131" s="9" t="s">
-        <v>538</v>
-      </c>
-      <c r="D131" s="4" t="s">
-        <v>537</v>
-      </c>
-      <c r="E131" s="9" t="s">
+      <c r="F131" s="4" t="s">
         <v>536</v>
       </c>
-      <c r="F131" s="4" t="s">
-        <v>537</v>
-      </c>
       <c r="G131" s="9" t="s">
-        <v>1319</v>
+        <v>1317</v>
       </c>
       <c r="H131" s="9" t="s">
         <v>7</v>
       </c>
       <c r="I131" s="6" t="s">
-        <v>1287</v>
+        <v>1285</v>
       </c>
       <c r="J131" s="5"/>
     </row>
     <row r="132" spans="1:10" ht="15.75">
       <c r="A132" s="9" t="s">
+        <v>533</v>
+      </c>
+      <c r="B132" s="4" t="s">
         <v>534</v>
       </c>
-      <c r="B132" s="4" t="s">
-        <v>535</v>
-      </c>
       <c r="C132" s="9" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="D132" s="4" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="E132" s="9" t="s">
+        <v>538</v>
+      </c>
+      <c r="F132" s="4" t="s">
         <v>539</v>
       </c>
-      <c r="F132" s="4" t="s">
-        <v>540</v>
-      </c>
       <c r="G132" s="9" t="s">
-        <v>1319</v>
+        <v>1317</v>
       </c>
       <c r="H132" s="9" t="s">
         <v>7</v>
       </c>
       <c r="I132" s="6" t="s">
-        <v>1287</v>
+        <v>1285</v>
       </c>
       <c r="J132" s="5"/>
     </row>
     <row r="133" spans="1:10" ht="15.75">
       <c r="A133" s="9" t="s">
+        <v>543</v>
+      </c>
+      <c r="B133" s="4" t="s">
         <v>544</v>
       </c>
-      <c r="B133" s="4" t="s">
-        <v>545</v>
-      </c>
       <c r="C133" s="9" t="s">
+        <v>543</v>
+      </c>
+      <c r="D133" s="4" t="s">
         <v>544</v>
       </c>
-      <c r="D133" s="4" t="s">
-        <v>545</v>
-      </c>
       <c r="E133" s="9" t="s">
+        <v>541</v>
+      </c>
+      <c r="F133" s="4" t="s">
         <v>542</v>
       </c>
-      <c r="F133" s="4" t="s">
-        <v>543</v>
-      </c>
       <c r="G133" s="9" t="s">
-        <v>1319</v>
+        <v>1317</v>
       </c>
       <c r="H133" s="9" t="s">
         <v>7</v>
       </c>
       <c r="I133" s="6" t="s">
-        <v>1287</v>
+        <v>1285</v>
       </c>
       <c r="J133" s="5"/>
     </row>
     <row r="134" spans="1:10" ht="15.75">
       <c r="A134" s="9" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="B134" s="4" t="s">
+        <v>546</v>
+      </c>
+      <c r="C134" s="9" t="s">
         <v>547</v>
       </c>
-      <c r="C134" s="9" t="s">
-        <v>548</v>
-      </c>
       <c r="D134" s="4" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="E134" s="9" t="s">
+        <v>545</v>
+      </c>
+      <c r="F134" s="4" t="s">
         <v>546</v>
       </c>
-      <c r="F134" s="4" t="s">
-        <v>547</v>
-      </c>
       <c r="G134" s="9" t="s">
-        <v>1319</v>
+        <v>1317</v>
       </c>
       <c r="H134" s="9" t="s">
         <v>7</v>
       </c>
       <c r="I134" s="6" t="s">
-        <v>1287</v>
+        <v>1285</v>
       </c>
       <c r="J134" s="5"/>
     </row>
     <row r="135" spans="1:10" ht="15.75">
       <c r="A135" s="9" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="B135" s="4" t="s">
+        <v>549</v>
+      </c>
+      <c r="C135" s="9" t="s">
         <v>550</v>
       </c>
-      <c r="C135" s="9" t="s">
-        <v>551</v>
-      </c>
       <c r="D135" s="4" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="E135" s="9" t="s">
+        <v>548</v>
+      </c>
+      <c r="F135" s="4" t="s">
         <v>549</v>
       </c>
-      <c r="F135" s="4" t="s">
-        <v>550</v>
-      </c>
       <c r="G135" s="9" t="s">
-        <v>1319</v>
+        <v>1317</v>
       </c>
       <c r="H135" s="9" t="s">
         <v>7</v>
       </c>
       <c r="I135" s="6" t="s">
-        <v>1287</v>
+        <v>1285</v>
       </c>
       <c r="J135" s="5"/>
     </row>
     <row r="136" spans="1:10" ht="15.75">
       <c r="A136" s="9" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="B136" s="4" t="s">
+        <v>552</v>
+      </c>
+      <c r="C136" s="9" t="s">
         <v>553</v>
       </c>
-      <c r="C136" s="9" t="s">
-        <v>554</v>
-      </c>
       <c r="D136" s="4" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="E136" s="9" t="s">
+        <v>551</v>
+      </c>
+      <c r="F136" s="4" t="s">
         <v>552</v>
       </c>
-      <c r="F136" s="4" t="s">
-        <v>553</v>
-      </c>
       <c r="G136" s="9" t="s">
-        <v>1319</v>
+        <v>1317</v>
       </c>
       <c r="H136" s="9" t="s">
         <v>7</v>
       </c>
       <c r="I136" s="6" t="s">
-        <v>1287</v>
+        <v>1285</v>
       </c>
       <c r="J136" s="5"/>
     </row>
     <row r="137" spans="1:10" ht="15.75">
       <c r="A137" s="9" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="B137" s="4" t="s">
+        <v>555</v>
+      </c>
+      <c r="C137" s="9" t="s">
         <v>556</v>
       </c>
-      <c r="C137" s="9" t="s">
-        <v>557</v>
-      </c>
       <c r="D137" s="4" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="E137" s="9" t="s">
+        <v>554</v>
+      </c>
+      <c r="F137" s="4" t="s">
         <v>555</v>
       </c>
-      <c r="F137" s="4" t="s">
-        <v>556</v>
-      </c>
       <c r="G137" s="9" t="s">
-        <v>1319</v>
+        <v>1317</v>
       </c>
       <c r="H137" s="9" t="s">
         <v>7</v>
       </c>
       <c r="I137" s="6" t="s">
-        <v>1287</v>
+        <v>1285</v>
       </c>
       <c r="J137" s="5"/>
     </row>
     <row r="138" spans="1:10" ht="15.75">
       <c r="A138" s="9" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="B138" s="4" t="s">
+        <v>558</v>
+      </c>
+      <c r="C138" s="9" t="s">
         <v>559</v>
       </c>
-      <c r="C138" s="9" t="s">
-        <v>560</v>
-      </c>
       <c r="D138" s="4" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="E138" s="9" t="s">
+        <v>557</v>
+      </c>
+      <c r="F138" s="4" t="s">
         <v>558</v>
       </c>
-      <c r="F138" s="4" t="s">
-        <v>559</v>
-      </c>
       <c r="G138" s="9" t="s">
-        <v>1319</v>
+        <v>1317</v>
       </c>
       <c r="H138" s="9" t="s">
         <v>7</v>
       </c>
       <c r="I138" s="6" t="s">
-        <v>1287</v>
+        <v>1285</v>
       </c>
       <c r="J138" s="5"/>
     </row>
     <row r="139" spans="1:10" ht="15.75">
       <c r="A139" s="9" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="B139" s="4" t="s">
+        <v>561</v>
+      </c>
+      <c r="C139" s="9" t="s">
         <v>562</v>
       </c>
-      <c r="C139" s="9" t="s">
-        <v>563</v>
-      </c>
       <c r="D139" s="4" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="E139" s="9" t="s">
+        <v>560</v>
+      </c>
+      <c r="F139" s="4" t="s">
         <v>561</v>
       </c>
-      <c r="F139" s="4" t="s">
-        <v>562</v>
-      </c>
       <c r="G139" s="9" t="s">
-        <v>1319</v>
+        <v>1317</v>
       </c>
       <c r="H139" s="9" t="s">
         <v>7</v>
       </c>
       <c r="I139" s="6" t="s">
-        <v>1287</v>
+        <v>1285</v>
       </c>
       <c r="J139" s="5"/>
     </row>
     <row r="140" spans="1:10" ht="15.75">
       <c r="A140" s="9" t="s">
+        <v>568</v>
+      </c>
+      <c r="B140" s="4" t="s">
         <v>569</v>
       </c>
-      <c r="B140" s="4" t="s">
-        <v>570</v>
-      </c>
       <c r="C140" s="9" t="s">
+        <v>566</v>
+      </c>
+      <c r="D140" s="4" t="s">
         <v>567</v>
       </c>
-      <c r="D140" s="4" t="s">
-        <v>568</v>
-      </c>
       <c r="E140" s="9" t="s">
+        <v>563</v>
+      </c>
+      <c r="F140" s="4" t="s">
         <v>564</v>
       </c>
-      <c r="F140" s="4" t="s">
+      <c r="G140" s="9" t="s">
+        <v>1317</v>
+      </c>
+      <c r="H140" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="I140" s="9" t="s">
         <v>565</v>
-      </c>
-      <c r="G140" s="9" t="s">
-        <v>1319</v>
-      </c>
-      <c r="H140" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="I140" s="9" t="s">
-        <v>566</v>
       </c>
       <c r="J140" s="5"/>
     </row>
     <row r="141" spans="1:10" ht="15.75">
       <c r="A141" s="9" t="s">
+        <v>574</v>
+      </c>
+      <c r="B141" s="4" t="s">
         <v>575</v>
       </c>
-      <c r="B141" s="4" t="s">
-        <v>576</v>
-      </c>
       <c r="C141" s="9" t="s">
+        <v>572</v>
+      </c>
+      <c r="D141" s="4" t="s">
         <v>573</v>
       </c>
-      <c r="D141" s="4" t="s">
-        <v>574</v>
-      </c>
       <c r="E141" s="9" t="s">
+        <v>570</v>
+      </c>
+      <c r="F141" s="4" t="s">
         <v>571</v>
       </c>
-      <c r="F141" s="4" t="s">
-        <v>572</v>
-      </c>
       <c r="G141" s="9" t="s">
-        <v>1319</v>
+        <v>1317</v>
       </c>
       <c r="H141" s="9" t="s">
         <v>7</v>
       </c>
       <c r="I141" s="9" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="J141" s="5"/>
     </row>
     <row r="142" spans="1:10" ht="15.75">
       <c r="A142" s="9" t="s">
+        <v>579</v>
+      </c>
+      <c r="B142" s="4" t="s">
         <v>580</v>
       </c>
-      <c r="B142" s="4" t="s">
-        <v>581</v>
-      </c>
       <c r="C142" s="9" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="D142" s="4" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="E142" s="9" t="s">
+        <v>576</v>
+      </c>
+      <c r="F142" s="4" t="s">
         <v>577</v>
       </c>
-      <c r="F142" s="4" t="s">
-        <v>578</v>
-      </c>
       <c r="G142" s="9" t="s">
-        <v>1319</v>
+        <v>1317</v>
       </c>
       <c r="H142" s="9" t="s">
         <v>4</v>
@@ -8637,175 +8659,175 @@
     </row>
     <row r="143" spans="1:10" ht="15.75">
       <c r="A143" s="9" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="B143" s="4" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="C143" s="9" t="s">
+        <v>584</v>
+      </c>
+      <c r="D143" s="4" t="s">
         <v>585</v>
       </c>
-      <c r="D143" s="4" t="s">
-        <v>586</v>
-      </c>
       <c r="E143" s="9" t="s">
+        <v>581</v>
+      </c>
+      <c r="F143" s="4" t="s">
         <v>582</v>
       </c>
-      <c r="F143" s="4" t="s">
+      <c r="G143" s="9" t="s">
+        <v>1317</v>
+      </c>
+      <c r="H143" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="I143" s="9" t="s">
         <v>583</v>
-      </c>
-      <c r="G143" s="9" t="s">
-        <v>1319</v>
-      </c>
-      <c r="H143" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="I143" s="9" t="s">
-        <v>584</v>
       </c>
       <c r="J143" s="5"/>
     </row>
     <row r="144" spans="1:10" ht="15.75">
       <c r="A144" s="9" t="s">
+        <v>591</v>
+      </c>
+      <c r="B144" s="4" t="s">
         <v>592</v>
       </c>
-      <c r="B144" s="4" t="s">
-        <v>593</v>
-      </c>
       <c r="C144" s="9" t="s">
+        <v>589</v>
+      </c>
+      <c r="D144" s="4" t="s">
         <v>590</v>
       </c>
-      <c r="D144" s="4" t="s">
-        <v>591</v>
-      </c>
       <c r="E144" s="9" t="s">
+        <v>587</v>
+      </c>
+      <c r="F144" s="4" t="s">
         <v>588</v>
       </c>
-      <c r="F144" s="4" t="s">
-        <v>589</v>
-      </c>
       <c r="G144" s="9" t="s">
-        <v>1319</v>
+        <v>1317</v>
       </c>
       <c r="H144" s="9" t="s">
         <v>7</v>
       </c>
       <c r="I144" s="9" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="J144" s="5"/>
     </row>
     <row r="145" spans="1:10" ht="15.75">
       <c r="A145" s="9" t="s">
-        <v>1297</v>
+        <v>1295</v>
       </c>
       <c r="B145" s="4" t="s">
+        <v>594</v>
+      </c>
+      <c r="C145" s="9" t="s">
+        <v>1294</v>
+      </c>
+      <c r="D145" s="4" t="s">
+        <v>594</v>
+      </c>
+      <c r="E145" s="9" t="s">
+        <v>593</v>
+      </c>
+      <c r="F145" s="4" t="s">
+        <v>594</v>
+      </c>
+      <c r="G145" s="9" t="s">
+        <v>1317</v>
+      </c>
+      <c r="H145" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="I145" s="9" t="s">
         <v>595</v>
-      </c>
-      <c r="C145" s="9" t="s">
-        <v>1296</v>
-      </c>
-      <c r="D145" s="4" t="s">
-        <v>595</v>
-      </c>
-      <c r="E145" s="9" t="s">
-        <v>594</v>
-      </c>
-      <c r="F145" s="4" t="s">
-        <v>595</v>
-      </c>
-      <c r="G145" s="9" t="s">
-        <v>1319</v>
-      </c>
-      <c r="H145" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="I145" s="9" t="s">
-        <v>596</v>
       </c>
       <c r="J145" s="5"/>
     </row>
     <row r="146" spans="1:10" ht="15.75">
       <c r="A146" s="9" t="s">
-        <v>1298</v>
+        <v>1296</v>
       </c>
       <c r="B146" s="4" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="C146" s="9" t="s">
-        <v>1298</v>
+        <v>1296</v>
       </c>
       <c r="D146" s="4" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="E146" s="9" t="s">
+        <v>596</v>
+      </c>
+      <c r="F146" s="4" t="s">
         <v>597</v>
       </c>
-      <c r="F146" s="4" t="s">
-        <v>598</v>
-      </c>
       <c r="G146" s="9" t="s">
-        <v>1319</v>
+        <v>1317</v>
       </c>
       <c r="H146" s="9" t="s">
         <v>7</v>
       </c>
       <c r="I146" s="9" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="J146" s="5"/>
     </row>
     <row r="147" spans="1:10" ht="15.75">
       <c r="A147" s="9" t="s">
-        <v>1299</v>
+        <v>1297</v>
       </c>
       <c r="B147" s="4" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="C147" s="9" t="s">
-        <v>1299</v>
+        <v>1297</v>
       </c>
       <c r="D147" s="4" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="E147" s="9" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="F147" s="4" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="G147" s="9" t="s">
-        <v>1319</v>
+        <v>1317</v>
       </c>
       <c r="H147" s="9" t="s">
         <v>7</v>
       </c>
       <c r="I147" s="9" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="J147" s="5"/>
     </row>
     <row r="148" spans="1:10" ht="15.75">
       <c r="A148" s="9" t="s">
-        <v>1300</v>
+        <v>1298</v>
       </c>
       <c r="B148" s="4" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="C148" s="9" t="s">
-        <v>1300</v>
+        <v>1298</v>
       </c>
       <c r="D148" s="4" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="E148" s="9" t="s">
+        <v>599</v>
+      </c>
+      <c r="F148" s="4" t="s">
         <v>600</v>
       </c>
-      <c r="F148" s="4" t="s">
-        <v>601</v>
-      </c>
       <c r="G148" s="9" t="s">
-        <v>1319</v>
+        <v>1317</v>
       </c>
       <c r="H148" s="9" t="s">
         <v>4</v>
@@ -8815,25 +8837,25 @@
     </row>
     <row r="149" spans="1:10" ht="15.75">
       <c r="A149" s="9" t="s">
-        <v>1301</v>
+        <v>1299</v>
       </c>
       <c r="B149" s="4" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="C149" s="9" t="s">
-        <v>1301</v>
+        <v>1299</v>
       </c>
       <c r="D149" s="4" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="E149" s="9" t="s">
+        <v>601</v>
+      </c>
+      <c r="F149" s="4" t="s">
         <v>602</v>
       </c>
-      <c r="F149" s="4" t="s">
-        <v>603</v>
-      </c>
       <c r="G149" s="9" t="s">
-        <v>1319</v>
+        <v>1317</v>
       </c>
       <c r="H149" s="9" t="s">
         <v>4</v>
@@ -8843,25 +8865,25 @@
     </row>
     <row r="150" spans="1:10" ht="15.75">
       <c r="A150" s="9" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="B150" s="4" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="C150" s="9" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="D150" s="4" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="E150" s="9" t="s">
+        <v>603</v>
+      </c>
+      <c r="F150" s="4" t="s">
         <v>604</v>
       </c>
-      <c r="F150" s="4" t="s">
-        <v>605</v>
-      </c>
       <c r="G150" s="9" t="s">
-        <v>1319</v>
+        <v>1317</v>
       </c>
       <c r="H150" s="9" t="s">
         <v>4</v>
@@ -8871,82 +8893,82 @@
     </row>
     <row r="151" spans="1:10" ht="15.75">
       <c r="A151" s="9" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="B151" s="4" t="s">
+        <v>606</v>
+      </c>
+      <c r="C151" s="9" t="s">
+        <v>608</v>
+      </c>
+      <c r="D151" s="4" t="s">
+        <v>606</v>
+      </c>
+      <c r="E151" s="9" t="s">
+        <v>605</v>
+      </c>
+      <c r="F151" s="4" t="s">
+        <v>606</v>
+      </c>
+      <c r="G151" s="9" t="s">
+        <v>1317</v>
+      </c>
+      <c r="H151" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="I151" s="9" t="s">
         <v>607</v>
-      </c>
-      <c r="C151" s="9" t="s">
-        <v>609</v>
-      </c>
-      <c r="D151" s="4" t="s">
-        <v>607</v>
-      </c>
-      <c r="E151" s="9" t="s">
-        <v>606</v>
-      </c>
-      <c r="F151" s="4" t="s">
-        <v>607</v>
-      </c>
-      <c r="G151" s="9" t="s">
-        <v>1319</v>
-      </c>
-      <c r="H151" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="I151" s="9" t="s">
-        <v>608</v>
       </c>
       <c r="J151" s="5"/>
     </row>
     <row r="152" spans="1:10" s="2" customFormat="1" ht="15.75">
       <c r="A152" s="9" t="s">
+        <v>611</v>
+      </c>
+      <c r="B152" s="4" t="s">
         <v>612</v>
       </c>
-      <c r="B152" s="4" t="s">
-        <v>613</v>
-      </c>
       <c r="C152" s="9" t="s">
+        <v>611</v>
+      </c>
+      <c r="D152" s="4" t="s">
         <v>612</v>
       </c>
-      <c r="D152" s="4" t="s">
-        <v>613</v>
-      </c>
       <c r="E152" s="9" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="F152" s="4" t="s">
+        <v>609</v>
+      </c>
+      <c r="G152" s="9" t="s">
+        <v>1317</v>
+      </c>
+      <c r="H152" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="I152" s="9" t="s">
         <v>610</v>
-      </c>
-      <c r="G152" s="9" t="s">
-        <v>1319</v>
-      </c>
-      <c r="H152" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="I152" s="9" t="s">
-        <v>611</v>
       </c>
       <c r="J152" s="5"/>
     </row>
     <row r="153" spans="1:10" ht="15.75">
       <c r="A153" s="9" t="s">
+        <v>614</v>
+      </c>
+      <c r="B153" s="4" t="s">
         <v>615</v>
       </c>
-      <c r="B153" s="4" t="s">
-        <v>616</v>
-      </c>
       <c r="C153" s="9" t="s">
+        <v>614</v>
+      </c>
+      <c r="D153" s="4" t="s">
         <v>615</v>
       </c>
-      <c r="D153" s="4" t="s">
-        <v>616</v>
-      </c>
       <c r="E153" s="9" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="F153" s="4" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="G153" s="9" t="s">
         <v>12</v>
@@ -8955,28 +8977,28 @@
         <v>7</v>
       </c>
       <c r="I153" s="9" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="J153" s="5"/>
     </row>
     <row r="154" spans="1:10" ht="15.75">
       <c r="A154" s="9" t="s">
+        <v>617</v>
+      </c>
+      <c r="B154" s="4" t="s">
         <v>618</v>
       </c>
-      <c r="B154" s="4" t="s">
-        <v>619</v>
-      </c>
       <c r="C154" s="9" t="s">
+        <v>617</v>
+      </c>
+      <c r="D154" s="4" t="s">
         <v>618</v>
       </c>
-      <c r="D154" s="4" t="s">
-        <v>619</v>
-      </c>
       <c r="E154" s="9" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="F154" s="4" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="G154" s="9" t="s">
         <v>12</v>
@@ -8985,28 +9007,28 @@
         <v>7</v>
       </c>
       <c r="I154" s="9" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="J154" s="5"/>
     </row>
     <row r="155" spans="1:10" ht="15.75">
       <c r="A155" s="9" t="s">
+        <v>620</v>
+      </c>
+      <c r="B155" s="4" t="s">
         <v>621</v>
       </c>
-      <c r="B155" s="4" t="s">
-        <v>622</v>
-      </c>
       <c r="C155" s="9" t="s">
+        <v>620</v>
+      </c>
+      <c r="D155" s="4" t="s">
         <v>621</v>
       </c>
-      <c r="D155" s="4" t="s">
-        <v>622</v>
-      </c>
       <c r="E155" s="9" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="F155" s="4" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="G155" s="9" t="s">
         <v>12</v>
@@ -9015,28 +9037,28 @@
         <v>7</v>
       </c>
       <c r="I155" s="9" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="J155" s="5"/>
     </row>
     <row r="156" spans="1:10" ht="15.75">
       <c r="A156" s="9" t="s">
+        <v>623</v>
+      </c>
+      <c r="B156" s="4" t="s">
         <v>624</v>
       </c>
-      <c r="B156" s="4" t="s">
-        <v>625</v>
-      </c>
       <c r="C156" s="9" t="s">
+        <v>623</v>
+      </c>
+      <c r="D156" s="4" t="s">
         <v>624</v>
       </c>
-      <c r="D156" s="4" t="s">
-        <v>625</v>
-      </c>
       <c r="E156" s="9" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="F156" s="4" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="G156" s="9" t="s">
         <v>12</v>
@@ -9045,28 +9067,28 @@
         <v>7</v>
       </c>
       <c r="I156" s="9" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="J156" s="5"/>
     </row>
     <row r="157" spans="1:10" ht="15.75">
       <c r="A157" s="9" t="s">
+        <v>626</v>
+      </c>
+      <c r="B157" s="4" t="s">
         <v>627</v>
       </c>
-      <c r="B157" s="4" t="s">
-        <v>628</v>
-      </c>
       <c r="C157" s="9" t="s">
+        <v>626</v>
+      </c>
+      <c r="D157" s="4" t="s">
         <v>627</v>
       </c>
-      <c r="D157" s="4" t="s">
-        <v>628</v>
-      </c>
       <c r="E157" s="9" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="F157" s="4" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="G157" s="9" t="s">
         <v>12</v>
@@ -9075,28 +9097,28 @@
         <v>7</v>
       </c>
       <c r="I157" s="9" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="J157" s="5"/>
     </row>
     <row r="158" spans="1:10" ht="15.75">
       <c r="A158" s="9" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="B158" s="4" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="C158" s="9" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="D158" s="4" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="E158" s="9" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="F158" s="4" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="G158" s="9" t="s">
         <v>12</v>
@@ -9105,28 +9127,28 @@
         <v>7</v>
       </c>
       <c r="I158" s="9" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="J158" s="5"/>
     </row>
     <row r="159" spans="1:10" ht="15.75">
       <c r="A159" s="9" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="B159" s="4" t="s">
+        <v>631</v>
+      </c>
+      <c r="C159" s="9" t="s">
         <v>632</v>
       </c>
-      <c r="C159" s="9" t="s">
-        <v>633</v>
-      </c>
       <c r="D159" s="4" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="E159" s="9" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="F159" s="4" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="G159" s="9" t="s">
         <v>12</v>
@@ -9135,28 +9157,28 @@
         <v>7</v>
       </c>
       <c r="I159" s="9" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="J159" s="5"/>
     </row>
     <row r="160" spans="1:10" ht="15.75">
       <c r="A160" s="9" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="B160" s="4" t="s">
+        <v>634</v>
+      </c>
+      <c r="C160" s="9" t="s">
         <v>635</v>
       </c>
-      <c r="C160" s="9" t="s">
-        <v>636</v>
-      </c>
       <c r="D160" s="4" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="E160" s="9" t="s">
+        <v>633</v>
+      </c>
+      <c r="F160" s="4" t="s">
         <v>634</v>
-      </c>
-      <c r="F160" s="4" t="s">
-        <v>635</v>
       </c>
       <c r="G160" s="9" t="s">
         <v>12</v>
@@ -9165,28 +9187,28 @@
         <v>7</v>
       </c>
       <c r="I160" s="9" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="J160" s="5"/>
     </row>
     <row r="161" spans="1:10" ht="15.75">
       <c r="A161" s="9" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="B161" s="4" t="s">
+        <v>637</v>
+      </c>
+      <c r="C161" s="9" t="s">
         <v>638</v>
       </c>
-      <c r="C161" s="9" t="s">
-        <v>639</v>
-      </c>
       <c r="D161" s="4" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="E161" s="9" t="s">
+        <v>636</v>
+      </c>
+      <c r="F161" s="4" t="s">
         <v>637</v>
-      </c>
-      <c r="F161" s="4" t="s">
-        <v>638</v>
       </c>
       <c r="G161" s="9" t="s">
         <v>12</v>
@@ -9195,28 +9217,28 @@
         <v>7</v>
       </c>
       <c r="I161" s="9" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="J161" s="5"/>
     </row>
     <row r="162" spans="1:10" ht="15.75">
       <c r="A162" s="9" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="B162" s="4" t="s">
+        <v>640</v>
+      </c>
+      <c r="C162" s="9" t="s">
         <v>641</v>
       </c>
-      <c r="C162" s="9" t="s">
-        <v>642</v>
-      </c>
       <c r="D162" s="4" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="E162" s="9" t="s">
+        <v>639</v>
+      </c>
+      <c r="F162" s="4" t="s">
         <v>640</v>
-      </c>
-      <c r="F162" s="4" t="s">
-        <v>641</v>
       </c>
       <c r="G162" s="9" t="s">
         <v>12</v>
@@ -9225,28 +9247,28 @@
         <v>7</v>
       </c>
       <c r="I162" s="9" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="J162" s="5"/>
     </row>
     <row r="163" spans="1:10" ht="15.75">
       <c r="A163" s="9" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="B163" s="4" t="s">
+        <v>643</v>
+      </c>
+      <c r="C163" s="9" t="s">
         <v>644</v>
       </c>
-      <c r="C163" s="9" t="s">
-        <v>645</v>
-      </c>
       <c r="D163" s="4" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="E163" s="9" t="s">
+        <v>642</v>
+      </c>
+      <c r="F163" s="4" t="s">
         <v>643</v>
-      </c>
-      <c r="F163" s="4" t="s">
-        <v>644</v>
       </c>
       <c r="G163" s="9" t="s">
         <v>12</v>
@@ -9255,28 +9277,28 @@
         <v>7</v>
       </c>
       <c r="I163" s="9" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="J163" s="5"/>
     </row>
     <row r="164" spans="1:10" ht="15.75">
       <c r="A164" s="9" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="B164" s="4" t="s">
+        <v>646</v>
+      </c>
+      <c r="C164" s="9" t="s">
         <v>647</v>
       </c>
-      <c r="C164" s="9" t="s">
-        <v>648</v>
-      </c>
       <c r="D164" s="4" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="E164" s="9" t="s">
+        <v>645</v>
+      </c>
+      <c r="F164" s="4" t="s">
         <v>646</v>
-      </c>
-      <c r="F164" s="4" t="s">
-        <v>647</v>
       </c>
       <c r="G164" s="9" t="s">
         <v>12</v>
@@ -9285,28 +9307,28 @@
         <v>7</v>
       </c>
       <c r="I164" s="9" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="J164" s="5"/>
     </row>
     <row r="165" spans="1:10" ht="15.75">
       <c r="A165" s="9" t="s">
+        <v>651</v>
+      </c>
+      <c r="B165" s="4" t="s">
         <v>652</v>
       </c>
-      <c r="B165" s="4" t="s">
-        <v>653</v>
-      </c>
       <c r="C165" s="9" t="s">
+        <v>651</v>
+      </c>
+      <c r="D165" s="4" t="s">
         <v>652</v>
       </c>
-      <c r="D165" s="4" t="s">
-        <v>653</v>
-      </c>
       <c r="E165" s="9" t="s">
+        <v>648</v>
+      </c>
+      <c r="F165" s="4" t="s">
         <v>649</v>
-      </c>
-      <c r="F165" s="4" t="s">
-        <v>650</v>
       </c>
       <c r="G165" s="9" t="s">
         <v>12</v>
@@ -9315,28 +9337,28 @@
         <v>7</v>
       </c>
       <c r="I165" s="9" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="J165" s="5"/>
     </row>
     <row r="166" spans="1:10" ht="15.75">
       <c r="A166" s="9" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="B166" s="4" t="s">
+        <v>654</v>
+      </c>
+      <c r="C166" s="9" t="s">
         <v>655</v>
       </c>
-      <c r="C166" s="9" t="s">
-        <v>656</v>
-      </c>
       <c r="D166" s="4" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="E166" s="9" t="s">
+        <v>653</v>
+      </c>
+      <c r="F166" s="4" t="s">
         <v>654</v>
-      </c>
-      <c r="F166" s="4" t="s">
-        <v>655</v>
       </c>
       <c r="G166" s="9" t="s">
         <v>12</v>
@@ -9345,28 +9367,28 @@
         <v>7</v>
       </c>
       <c r="I166" s="9" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="J166" s="5"/>
     </row>
     <row r="167" spans="1:10" ht="15.75">
       <c r="A167" s="9" t="s">
+        <v>658</v>
+      </c>
+      <c r="B167" s="4" t="s">
         <v>659</v>
       </c>
-      <c r="B167" s="4" t="s">
-        <v>660</v>
-      </c>
       <c r="C167" s="9" t="s">
+        <v>658</v>
+      </c>
+      <c r="D167" s="4" t="s">
         <v>659</v>
       </c>
-      <c r="D167" s="4" t="s">
-        <v>660</v>
-      </c>
       <c r="E167" s="9" t="s">
+        <v>656</v>
+      </c>
+      <c r="F167" s="4" t="s">
         <v>657</v>
-      </c>
-      <c r="F167" s="4" t="s">
-        <v>658</v>
       </c>
       <c r="G167" s="9" t="s">
         <v>12</v>
@@ -9375,28 +9397,28 @@
         <v>7</v>
       </c>
       <c r="I167" s="9" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="J167" s="5"/>
     </row>
     <row r="168" spans="1:10" ht="15.75">
       <c r="A168" s="9" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="B168" s="4" t="s">
+        <v>661</v>
+      </c>
+      <c r="C168" s="9" t="s">
         <v>662</v>
       </c>
-      <c r="C168" s="9" t="s">
-        <v>663</v>
-      </c>
       <c r="D168" s="4" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="E168" s="9" t="s">
+        <v>660</v>
+      </c>
+      <c r="F168" s="4" t="s">
         <v>661</v>
-      </c>
-      <c r="F168" s="4" t="s">
-        <v>662</v>
       </c>
       <c r="G168" s="9" t="s">
         <v>12</v>
@@ -9405,28 +9427,28 @@
         <v>7</v>
       </c>
       <c r="I168" s="9" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="J168" s="5"/>
     </row>
     <row r="169" spans="1:10" ht="15.75">
       <c r="A169" s="9" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="B169" s="4" t="s">
+        <v>664</v>
+      </c>
+      <c r="C169" s="9" t="s">
         <v>665</v>
       </c>
-      <c r="C169" s="9" t="s">
-        <v>666</v>
-      </c>
       <c r="D169" s="4" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="E169" s="9" t="s">
+        <v>663</v>
+      </c>
+      <c r="F169" s="4" t="s">
         <v>664</v>
-      </c>
-      <c r="F169" s="4" t="s">
-        <v>665</v>
       </c>
       <c r="G169" s="9" t="s">
         <v>12</v>
@@ -9435,28 +9457,28 @@
         <v>7</v>
       </c>
       <c r="I169" s="9" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="J169" s="5"/>
     </row>
     <row r="170" spans="1:10" ht="15.75">
       <c r="A170" s="9" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="B170" s="4" t="s">
+        <v>667</v>
+      </c>
+      <c r="C170" s="9" t="s">
         <v>668</v>
       </c>
-      <c r="C170" s="9" t="s">
-        <v>669</v>
-      </c>
       <c r="D170" s="4" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="E170" s="9" t="s">
+        <v>666</v>
+      </c>
+      <c r="F170" s="4" t="s">
         <v>667</v>
-      </c>
-      <c r="F170" s="4" t="s">
-        <v>668</v>
       </c>
       <c r="G170" s="9" t="s">
         <v>12</v>
@@ -9465,28 +9487,28 @@
         <v>7</v>
       </c>
       <c r="I170" s="9" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="J170" s="5"/>
     </row>
     <row r="171" spans="1:10" ht="15.75">
       <c r="A171" s="9" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="B171" s="4" t="s">
+        <v>670</v>
+      </c>
+      <c r="C171" s="9" t="s">
         <v>671</v>
       </c>
-      <c r="C171" s="9" t="s">
-        <v>672</v>
-      </c>
       <c r="D171" s="4" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="E171" s="9" t="s">
+        <v>669</v>
+      </c>
+      <c r="F171" s="4" t="s">
         <v>670</v>
-      </c>
-      <c r="F171" s="4" t="s">
-        <v>671</v>
       </c>
       <c r="G171" s="9" t="s">
         <v>12</v>
@@ -9495,28 +9517,28 @@
         <v>7</v>
       </c>
       <c r="I171" s="9" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="J171" s="5"/>
     </row>
     <row r="172" spans="1:10" ht="15.75">
       <c r="A172" s="9" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="B172" s="4" t="s">
+        <v>673</v>
+      </c>
+      <c r="C172" s="9" t="s">
         <v>674</v>
       </c>
-      <c r="C172" s="9" t="s">
-        <v>675</v>
-      </c>
       <c r="D172" s="4" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="E172" s="9" t="s">
+        <v>672</v>
+      </c>
+      <c r="F172" s="4" t="s">
         <v>673</v>
-      </c>
-      <c r="F172" s="4" t="s">
-        <v>674</v>
       </c>
       <c r="G172" s="9" t="s">
         <v>12</v>
@@ -9525,28 +9547,28 @@
         <v>7</v>
       </c>
       <c r="I172" s="9" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="J172" s="5"/>
     </row>
     <row r="173" spans="1:10" ht="15.75">
       <c r="A173" s="9" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="B173" s="4" t="s">
+        <v>676</v>
+      </c>
+      <c r="C173" s="9" t="s">
         <v>677</v>
       </c>
-      <c r="C173" s="9" t="s">
-        <v>678</v>
-      </c>
       <c r="D173" s="4" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="E173" s="9" t="s">
+        <v>675</v>
+      </c>
+      <c r="F173" s="4" t="s">
         <v>676</v>
-      </c>
-      <c r="F173" s="4" t="s">
-        <v>677</v>
       </c>
       <c r="G173" s="9" t="s">
         <v>12</v>
@@ -9555,28 +9577,28 @@
         <v>7</v>
       </c>
       <c r="I173" s="9" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="J173" s="5"/>
     </row>
     <row r="174" spans="1:10" ht="15.75">
       <c r="A174" s="9" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="B174" s="4" t="s">
+        <v>679</v>
+      </c>
+      <c r="C174" s="9" t="s">
         <v>680</v>
       </c>
-      <c r="C174" s="9" t="s">
-        <v>681</v>
-      </c>
       <c r="D174" s="4" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="E174" s="9" t="s">
+        <v>678</v>
+      </c>
+      <c r="F174" s="4" t="s">
         <v>679</v>
-      </c>
-      <c r="F174" s="4" t="s">
-        <v>680</v>
       </c>
       <c r="G174" s="9" t="s">
         <v>12</v>
@@ -9585,28 +9607,28 @@
         <v>7</v>
       </c>
       <c r="I174" s="9" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="J174" s="5"/>
     </row>
     <row r="175" spans="1:10" ht="15.75">
       <c r="A175" s="9" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="B175" s="4" t="s">
+        <v>681</v>
+      </c>
+      <c r="C175" s="9" t="s">
         <v>682</v>
       </c>
-      <c r="C175" s="9" t="s">
-        <v>683</v>
-      </c>
       <c r="D175" s="4" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="E175" s="9" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="F175" s="4" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="G175" s="9" t="s">
         <v>12</v>
@@ -9619,113 +9641,113 @@
     </row>
     <row r="176" spans="1:10" ht="15.75">
       <c r="A176" s="9" t="s">
+        <v>684</v>
+      </c>
+      <c r="B176" s="4" t="s">
         <v>685</v>
       </c>
-      <c r="B176" s="4" t="s">
-        <v>686</v>
-      </c>
       <c r="C176" s="9" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="D176" s="4" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="E176" s="9" t="s">
-        <v>1274</v>
+        <v>1272</v>
       </c>
       <c r="F176" s="4" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="G176" s="9" t="s">
-        <v>1319</v>
+        <v>1317</v>
       </c>
       <c r="H176" s="9" t="s">
         <v>4</v>
       </c>
       <c r="I176" s="6" t="s">
-        <v>1288</v>
+        <v>1286</v>
       </c>
       <c r="J176" s="5"/>
     </row>
     <row r="177" spans="1:10" ht="15.75">
       <c r="A177" s="9" t="s">
-        <v>1318</v>
+        <v>1316</v>
       </c>
       <c r="B177" s="4" t="s">
-        <v>1318</v>
+        <v>1316</v>
       </c>
       <c r="C177" s="9" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="D177" s="4" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="E177" s="9" t="s">
+        <v>686</v>
+      </c>
+      <c r="F177" s="4" t="s">
         <v>687</v>
       </c>
-      <c r="F177" s="4" t="s">
-        <v>688</v>
-      </c>
       <c r="G177" s="9" t="s">
-        <v>1319</v>
+        <v>1317</v>
       </c>
       <c r="H177" s="9" t="s">
-        <v>1282</v>
+        <v>1280</v>
       </c>
       <c r="I177" s="6" t="s">
-        <v>1288</v>
+        <v>1286</v>
       </c>
       <c r="J177" s="5"/>
     </row>
     <row r="178" spans="1:10" ht="15.75">
       <c r="A178" s="9" t="s">
+        <v>688</v>
+      </c>
+      <c r="B178" s="4" t="s">
+        <v>692</v>
+      </c>
+      <c r="C178" s="9" t="s">
+        <v>691</v>
+      </c>
+      <c r="D178" s="4" t="s">
+        <v>692</v>
+      </c>
+      <c r="E178" s="9" t="s">
         <v>689</v>
       </c>
-      <c r="B178" s="4" t="s">
-        <v>693</v>
-      </c>
-      <c r="C178" s="9" t="s">
-        <v>692</v>
-      </c>
-      <c r="D178" s="4" t="s">
-        <v>693</v>
-      </c>
-      <c r="E178" s="9" t="s">
+      <c r="F178" s="4" t="s">
         <v>690</v>
       </c>
-      <c r="F178" s="4" t="s">
-        <v>691</v>
-      </c>
       <c r="G178" s="9" t="s">
-        <v>1319</v>
+        <v>1317</v>
       </c>
       <c r="H178" s="9" t="s">
-        <v>1282</v>
+        <v>1280</v>
       </c>
       <c r="I178" s="6"/>
       <c r="J178" s="5"/>
     </row>
     <row r="179" spans="1:10" ht="15.75">
       <c r="A179" s="9" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="B179" s="4" t="s">
+        <v>694</v>
+      </c>
+      <c r="C179" s="9" t="s">
         <v>695</v>
       </c>
-      <c r="C179" s="9" t="s">
-        <v>696</v>
-      </c>
       <c r="D179" s="4" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="E179" s="9" t="s">
+        <v>693</v>
+      </c>
+      <c r="F179" s="4" t="s">
         <v>694</v>
       </c>
-      <c r="F179" s="4" t="s">
-        <v>695</v>
-      </c>
       <c r="G179" s="9" t="s">
-        <v>1319</v>
+        <v>1317</v>
       </c>
       <c r="H179" s="9" t="s">
         <v>4</v>
@@ -9735,25 +9757,25 @@
     </row>
     <row r="180" spans="1:10" ht="15.75">
       <c r="A180" s="9" t="s">
+        <v>695</v>
+      </c>
+      <c r="B180" s="4" t="s">
+        <v>699</v>
+      </c>
+      <c r="C180" s="9" t="s">
+        <v>698</v>
+      </c>
+      <c r="D180" s="4" t="s">
+        <v>699</v>
+      </c>
+      <c r="E180" s="9" t="s">
         <v>696</v>
       </c>
-      <c r="B180" s="4" t="s">
-        <v>700</v>
-      </c>
-      <c r="C180" s="9" t="s">
-        <v>699</v>
-      </c>
-      <c r="D180" s="4" t="s">
-        <v>700</v>
-      </c>
-      <c r="E180" s="9" t="s">
+      <c r="F180" s="4" t="s">
         <v>697</v>
       </c>
-      <c r="F180" s="4" t="s">
-        <v>698</v>
-      </c>
       <c r="G180" s="9" t="s">
-        <v>1319</v>
+        <v>1317</v>
       </c>
       <c r="H180" s="9" t="s">
         <v>4</v>
@@ -9763,25 +9785,25 @@
     </row>
     <row r="181" spans="1:10" ht="15.75">
       <c r="A181" s="9" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="B181" s="4" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="C181" s="9" t="s">
+        <v>702</v>
+      </c>
+      <c r="D181" s="4" t="s">
         <v>703</v>
       </c>
-      <c r="D181" s="4" t="s">
-        <v>704</v>
-      </c>
       <c r="E181" s="9" t="s">
+        <v>700</v>
+      </c>
+      <c r="F181" s="4" t="s">
         <v>701</v>
       </c>
-      <c r="F181" s="4" t="s">
-        <v>702</v>
-      </c>
       <c r="G181" s="9" t="s">
-        <v>1319</v>
+        <v>1317</v>
       </c>
       <c r="H181" s="9" t="s">
         <v>4</v>
@@ -9791,25 +9813,25 @@
     </row>
     <row r="182" spans="1:10" ht="15.75">
       <c r="A182" s="9" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="B182" s="4" t="s">
+        <v>705</v>
+      </c>
+      <c r="C182" s="9" t="s">
         <v>706</v>
       </c>
-      <c r="C182" s="9" t="s">
-        <v>707</v>
-      </c>
       <c r="D182" s="4" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="E182" s="9" t="s">
+        <v>704</v>
+      </c>
+      <c r="F182" s="4" t="s">
         <v>705</v>
       </c>
-      <c r="F182" s="4" t="s">
-        <v>706</v>
-      </c>
       <c r="G182" s="9" t="s">
-        <v>1319</v>
+        <v>1317</v>
       </c>
       <c r="H182" s="9" t="s">
         <v>4</v>
@@ -9819,110 +9841,110 @@
     </row>
     <row r="183" spans="1:10" ht="15.75">
       <c r="A183" s="9" t="s">
+        <v>709</v>
+      </c>
+      <c r="B183" s="4" t="s">
         <v>710</v>
       </c>
-      <c r="B183" s="4" t="s">
-        <v>711</v>
-      </c>
       <c r="C183" s="9" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="D183" s="4" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="E183" s="9" t="s">
-        <v>1289</v>
+        <v>1287</v>
       </c>
       <c r="F183" s="4" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="G183" s="9" t="s">
-        <v>1319</v>
+        <v>1317</v>
       </c>
       <c r="H183" s="9" t="s">
         <v>4</v>
       </c>
       <c r="I183" s="6" t="s">
-        <v>1290</v>
+        <v>1288</v>
       </c>
       <c r="J183" s="5"/>
     </row>
     <row r="184" spans="1:10" ht="15.75">
       <c r="A184" s="9" t="s">
-        <v>1318</v>
+        <v>1316</v>
       </c>
       <c r="B184" s="4" t="s">
-        <v>1318</v>
+        <v>1316</v>
       </c>
       <c r="C184" s="9" t="s">
+        <v>713</v>
+      </c>
+      <c r="D184" s="4" t="s">
         <v>714</v>
       </c>
-      <c r="D184" s="4" t="s">
-        <v>715</v>
-      </c>
       <c r="E184" s="9" t="s">
+        <v>711</v>
+      </c>
+      <c r="F184" s="4" t="s">
         <v>712</v>
       </c>
-      <c r="F184" s="4" t="s">
-        <v>713</v>
-      </c>
       <c r="G184" s="9" t="s">
-        <v>1319</v>
+        <v>1317</v>
       </c>
       <c r="H184" s="9" t="s">
-        <v>1282</v>
+        <v>1280</v>
       </c>
       <c r="I184" s="6" t="s">
-        <v>1290</v>
+        <v>1288</v>
       </c>
       <c r="J184" s="5"/>
     </row>
     <row r="185" spans="1:10" ht="15.75">
       <c r="A185" s="9" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="B185" s="4" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="C185" s="9" t="s">
-        <v>1275</v>
+        <v>1273</v>
       </c>
       <c r="D185" s="4" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="E185" s="9" t="s">
-        <v>1276</v>
+        <v>1274</v>
       </c>
       <c r="F185" s="4" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="G185" s="9" t="s">
-        <v>1319</v>
+        <v>1317</v>
       </c>
       <c r="H185" s="9" t="s">
-        <v>1282</v>
+        <v>1280</v>
       </c>
       <c r="I185" s="6"/>
       <c r="J185" s="5"/>
     </row>
     <row r="186" spans="1:10" ht="15.75">
       <c r="A186" s="9" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="B186" s="4" t="s">
+        <v>721</v>
+      </c>
+      <c r="C186" s="9" t="s">
         <v>722</v>
       </c>
-      <c r="C186" s="9" t="s">
-        <v>723</v>
-      </c>
       <c r="D186" s="4" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="E186" s="9" t="s">
+        <v>720</v>
+      </c>
+      <c r="F186" s="4" t="s">
         <v>721</v>
-      </c>
-      <c r="F186" s="4" t="s">
-        <v>722</v>
       </c>
       <c r="G186" s="9" t="s">
         <v>12</v>
@@ -9935,22 +9957,22 @@
     </row>
     <row r="187" spans="1:10" ht="15.75">
       <c r="A187" s="9" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="B187" s="4" t="s">
+        <v>725</v>
+      </c>
+      <c r="C187" s="9" t="s">
         <v>726</v>
       </c>
-      <c r="C187" s="9" t="s">
-        <v>727</v>
-      </c>
       <c r="D187" s="4" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="E187" s="9" t="s">
+        <v>724</v>
+      </c>
+      <c r="F187" s="4" t="s">
         <v>725</v>
-      </c>
-      <c r="F187" s="4" t="s">
-        <v>726</v>
       </c>
       <c r="G187" s="9" t="s">
         <v>12</v>
@@ -9963,22 +9985,22 @@
     </row>
     <row r="188" spans="1:10" ht="15.75">
       <c r="A188" s="9" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="B188" s="4" t="s">
+        <v>729</v>
+      </c>
+      <c r="C188" s="9" t="s">
         <v>730</v>
       </c>
-      <c r="C188" s="9" t="s">
-        <v>731</v>
-      </c>
       <c r="D188" s="4" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="E188" s="9" t="s">
+        <v>728</v>
+      </c>
+      <c r="F188" s="4" t="s">
         <v>729</v>
-      </c>
-      <c r="F188" s="4" t="s">
-        <v>730</v>
       </c>
       <c r="G188" s="9" t="s">
         <v>12</v>
@@ -9991,22 +10013,22 @@
     </row>
     <row r="189" spans="1:10" ht="15.75">
       <c r="A189" s="9" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="B189" s="4" t="s">
-        <v>1277</v>
+        <v>1275</v>
       </c>
       <c r="C189" s="9" t="s">
+        <v>733</v>
+      </c>
+      <c r="D189" s="4" t="s">
         <v>734</v>
       </c>
-      <c r="D189" s="4" t="s">
-        <v>735</v>
-      </c>
       <c r="E189" s="9" t="s">
-        <v>1278</v>
+        <v>1276</v>
       </c>
       <c r="F189" s="4" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="G189" s="9" t="s">
         <v>12</v>
@@ -10019,22 +10041,22 @@
     </row>
     <row r="190" spans="1:10" ht="15.75">
       <c r="A190" s="9" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="B190" s="4" t="s">
+        <v>735</v>
+      </c>
+      <c r="C190" s="9" t="s">
         <v>736</v>
       </c>
-      <c r="C190" s="9" t="s">
-        <v>737</v>
-      </c>
       <c r="D190" s="4" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="E190" s="9" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="F190" s="4" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="G190" s="9" t="s">
         <v>12</v>
@@ -10047,232 +10069,232 @@
     </row>
     <row r="191" spans="1:10" ht="15.75">
       <c r="A191" s="9" t="s">
-        <v>1313</v>
+        <v>1311</v>
       </c>
       <c r="B191" s="4" t="s">
+        <v>739</v>
+      </c>
+      <c r="C191" s="9" t="s">
+        <v>741</v>
+      </c>
+      <c r="D191" s="4" t="s">
+        <v>739</v>
+      </c>
+      <c r="E191" s="9" t="s">
+        <v>738</v>
+      </c>
+      <c r="F191" s="4" t="s">
+        <v>739</v>
+      </c>
+      <c r="G191" s="9" t="s">
+        <v>1318</v>
+      </c>
+      <c r="H191" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="I191" s="9" t="s">
         <v>740</v>
-      </c>
-      <c r="C191" s="9" t="s">
-        <v>742</v>
-      </c>
-      <c r="D191" s="4" t="s">
-        <v>740</v>
-      </c>
-      <c r="E191" s="9" t="s">
-        <v>739</v>
-      </c>
-      <c r="F191" s="4" t="s">
-        <v>740</v>
-      </c>
-      <c r="G191" s="9" t="s">
-        <v>1320</v>
-      </c>
-      <c r="H191" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="I191" s="9" t="s">
-        <v>741</v>
       </c>
       <c r="J191" s="5"/>
     </row>
     <row r="192" spans="1:10" ht="15.75">
       <c r="A192" s="9" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="B192" s="4" t="s">
+        <v>743</v>
+      </c>
+      <c r="C192" s="9" t="s">
         <v>744</v>
       </c>
-      <c r="C192" s="9" t="s">
-        <v>745</v>
-      </c>
       <c r="D192" s="4" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="E192" s="9" t="s">
+        <v>742</v>
+      </c>
+      <c r="F192" s="4" t="s">
         <v>743</v>
       </c>
-      <c r="F192" s="4" t="s">
-        <v>744</v>
-      </c>
       <c r="G192" s="9" t="s">
-        <v>1319</v>
+        <v>1317</v>
       </c>
       <c r="H192" s="9" t="s">
         <v>7</v>
       </c>
       <c r="I192" s="9" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="J192" s="5"/>
     </row>
     <row r="193" spans="1:10" ht="15.75">
       <c r="A193" s="9" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="B193" s="4" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="C193" s="9" t="s">
+        <v>748</v>
+      </c>
+      <c r="D193" s="4" t="s">
         <v>749</v>
       </c>
-      <c r="D193" s="4" t="s">
-        <v>750</v>
-      </c>
       <c r="E193" s="9" t="s">
+        <v>746</v>
+      </c>
+      <c r="F193" s="4" t="s">
         <v>747</v>
       </c>
-      <c r="F193" s="4" t="s">
-        <v>748</v>
-      </c>
       <c r="G193" s="9" t="s">
-        <v>1319</v>
+        <v>1317</v>
       </c>
       <c r="H193" s="9" t="s">
         <v>7</v>
       </c>
       <c r="I193" s="9" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="J193" s="5"/>
     </row>
     <row r="194" spans="1:10" ht="15.75">
       <c r="A194" s="9" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="B194" s="4" t="s">
+        <v>752</v>
+      </c>
+      <c r="C194" s="9" t="s">
         <v>753</v>
       </c>
-      <c r="C194" s="9" t="s">
-        <v>754</v>
-      </c>
       <c r="D194" s="4" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="E194" s="9" t="s">
+        <v>751</v>
+      </c>
+      <c r="F194" s="4" t="s">
         <v>752</v>
       </c>
-      <c r="F194" s="4" t="s">
-        <v>753</v>
-      </c>
       <c r="G194" s="9" t="s">
-        <v>1319</v>
+        <v>1317</v>
       </c>
       <c r="H194" s="9" t="s">
         <v>7</v>
       </c>
       <c r="I194" s="9" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="J194" s="5"/>
     </row>
     <row r="195" spans="1:10" ht="15.75">
       <c r="A195" s="9" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="B195" s="4" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="C195" s="9" t="s">
+        <v>757</v>
+      </c>
+      <c r="D195" s="4" t="s">
         <v>758</v>
       </c>
-      <c r="D195" s="4" t="s">
-        <v>759</v>
-      </c>
       <c r="E195" s="9" t="s">
+        <v>755</v>
+      </c>
+      <c r="F195" s="4" t="s">
         <v>756</v>
       </c>
-      <c r="F195" s="4" t="s">
-        <v>757</v>
-      </c>
       <c r="G195" s="9" t="s">
-        <v>1319</v>
+        <v>1317</v>
       </c>
       <c r="H195" s="9" t="s">
         <v>7</v>
       </c>
       <c r="I195" s="9" t="s">
-        <v>1279</v>
+        <v>1277</v>
       </c>
       <c r="J195" s="5"/>
     </row>
     <row r="196" spans="1:10" ht="15.75">
       <c r="A196" s="9" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="B196" s="4" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="C196" s="9" t="s">
+        <v>762</v>
+      </c>
+      <c r="D196" s="4" t="s">
         <v>763</v>
       </c>
-      <c r="D196" s="4" t="s">
-        <v>764</v>
-      </c>
       <c r="E196" s="9" t="s">
+        <v>760</v>
+      </c>
+      <c r="F196" s="4" t="s">
         <v>761</v>
       </c>
-      <c r="F196" s="4" t="s">
-        <v>762</v>
-      </c>
       <c r="G196" s="9" t="s">
-        <v>1319</v>
+        <v>1317</v>
       </c>
       <c r="H196" s="9" t="s">
         <v>7</v>
       </c>
       <c r="I196" s="9" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="J196" s="5"/>
     </row>
     <row r="197" spans="1:10" ht="15.75">
       <c r="A197" s="9" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="B197" s="4" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="C197" s="9" t="s">
+        <v>768</v>
+      </c>
+      <c r="D197" s="4" t="s">
         <v>769</v>
       </c>
-      <c r="D197" s="4" t="s">
-        <v>770</v>
-      </c>
       <c r="E197" s="9" t="s">
+        <v>765</v>
+      </c>
+      <c r="F197" s="4" t="s">
         <v>766</v>
       </c>
-      <c r="F197" s="4" t="s">
+      <c r="G197" s="9" t="s">
+        <v>1317</v>
+      </c>
+      <c r="H197" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="I197" s="9" t="s">
         <v>767</v>
-      </c>
-      <c r="G197" s="9" t="s">
-        <v>1319</v>
-      </c>
-      <c r="H197" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="I197" s="9" t="s">
-        <v>768</v>
       </c>
       <c r="J197" s="5"/>
     </row>
     <row r="198" spans="1:10" ht="15.75">
       <c r="A198" s="9" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="B198" s="4" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="C198" s="9" t="s">
+        <v>773</v>
+      </c>
+      <c r="D198" s="4" t="s">
         <v>774</v>
       </c>
-      <c r="D198" s="4" t="s">
-        <v>775</v>
-      </c>
       <c r="E198" s="9" t="s">
+        <v>771</v>
+      </c>
+      <c r="F198" s="4" t="s">
         <v>772</v>
-      </c>
-      <c r="F198" s="4" t="s">
-        <v>773</v>
       </c>
       <c r="G198" s="9" t="s">
         <v>12</v>
@@ -10281,28 +10303,28 @@
         <v>7</v>
       </c>
       <c r="I198" s="9" t="s">
-        <v>1280</v>
+        <v>1278</v>
       </c>
       <c r="J198" s="5"/>
     </row>
     <row r="199" spans="1:10" ht="15.75">
       <c r="A199" s="9" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="B199" s="4" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="C199" s="9" t="s">
-        <v>1281</v>
+        <v>1279</v>
       </c>
       <c r="D199" s="4" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="E199" s="9" t="s">
+        <v>776</v>
+      </c>
+      <c r="F199" s="4" t="s">
         <v>777</v>
-      </c>
-      <c r="F199" s="4" t="s">
-        <v>778</v>
       </c>
       <c r="G199" s="9" t="s">
         <v>12</v>
@@ -10311,61 +10333,61 @@
         <v>7</v>
       </c>
       <c r="I199" s="9" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="J199" s="5"/>
     </row>
     <row r="200" spans="1:10" ht="15.75">
       <c r="A200" s="9" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="B200" s="4" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="C200" s="9" t="s">
+        <v>783</v>
+      </c>
+      <c r="D200" s="4" t="s">
         <v>784</v>
       </c>
-      <c r="D200" s="4" t="s">
-        <v>785</v>
-      </c>
       <c r="E200" s="9" t="s">
+        <v>781</v>
+      </c>
+      <c r="F200" s="4" t="s">
         <v>782</v>
       </c>
-      <c r="F200" s="4" t="s">
-        <v>783</v>
-      </c>
       <c r="G200" s="9" t="s">
-        <v>1319</v>
+        <v>1317</v>
       </c>
       <c r="H200" s="9" t="s">
         <v>7</v>
       </c>
       <c r="I200" s="9" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="J200" s="5"/>
     </row>
     <row r="201" spans="1:10" ht="15.75">
       <c r="A201" s="9" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="B201" s="4" t="s">
+        <v>786</v>
+      </c>
+      <c r="C201" s="9" t="s">
         <v>787</v>
       </c>
-      <c r="C201" s="9" t="s">
-        <v>788</v>
-      </c>
       <c r="D201" s="4" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="E201" s="9" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="F201" s="4" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="G201" s="9" t="s">
-        <v>1319</v>
+        <v>1317</v>
       </c>
       <c r="H201" s="9" t="s">
         <v>7</v>
@@ -10375,25 +10397,25 @@
     </row>
     <row r="202" spans="1:10" ht="15.75">
       <c r="A202" s="9" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="B202" s="4" t="s">
+        <v>789</v>
+      </c>
+      <c r="C202" s="9" t="s">
         <v>790</v>
       </c>
-      <c r="C202" s="9" t="s">
-        <v>791</v>
-      </c>
       <c r="D202" s="4" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="E202" s="9" t="s">
+        <v>788</v>
+      </c>
+      <c r="F202" s="4" t="s">
         <v>789</v>
       </c>
-      <c r="F202" s="4" t="s">
-        <v>790</v>
-      </c>
       <c r="G202" s="9" t="s">
-        <v>1319</v>
+        <v>1317</v>
       </c>
       <c r="H202" s="9" t="s">
         <v>4</v>
@@ -10403,25 +10425,25 @@
     </row>
     <row r="203" spans="1:10" ht="15.75">
       <c r="A203" s="9" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="B203" s="4" t="s">
+        <v>792</v>
+      </c>
+      <c r="C203" s="9" t="s">
         <v>793</v>
       </c>
-      <c r="C203" s="9" t="s">
-        <v>794</v>
-      </c>
       <c r="D203" s="4" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="E203" s="9" t="s">
+        <v>791</v>
+      </c>
+      <c r="F203" s="4" t="s">
         <v>792</v>
       </c>
-      <c r="F203" s="4" t="s">
-        <v>793</v>
-      </c>
       <c r="G203" s="9" t="s">
-        <v>1320</v>
+        <v>1318</v>
       </c>
       <c r="H203" s="9" t="s">
         <v>4</v>
@@ -10431,25 +10453,25 @@
     </row>
     <row r="204" spans="1:10" ht="15.75">
       <c r="A204" s="9" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="B204" s="4" t="s">
+        <v>795</v>
+      </c>
+      <c r="C204" s="9" t="s">
         <v>796</v>
       </c>
-      <c r="C204" s="9" t="s">
-        <v>797</v>
-      </c>
       <c r="D204" s="4" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="E204" s="9" t="s">
+        <v>794</v>
+      </c>
+      <c r="F204" s="4" t="s">
         <v>795</v>
       </c>
-      <c r="F204" s="4" t="s">
-        <v>796</v>
-      </c>
       <c r="G204" s="9" t="s">
-        <v>1320</v>
+        <v>1318</v>
       </c>
       <c r="H204" s="9" t="s">
         <v>4</v>
@@ -10459,25 +10481,25 @@
     </row>
     <row r="205" spans="1:10" ht="15.75">
       <c r="A205" s="9" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="B205" s="4" t="s">
+        <v>798</v>
+      </c>
+      <c r="C205" s="9" t="s">
         <v>799</v>
       </c>
-      <c r="C205" s="9" t="s">
-        <v>800</v>
-      </c>
       <c r="D205" s="4" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="E205" s="9" t="s">
+        <v>797</v>
+      </c>
+      <c r="F205" s="4" t="s">
         <v>798</v>
       </c>
-      <c r="F205" s="4" t="s">
-        <v>799</v>
-      </c>
       <c r="G205" s="9" t="s">
-        <v>1320</v>
+        <v>1318</v>
       </c>
       <c r="H205" s="9" t="s">
         <v>4</v>
@@ -10487,22 +10509,22 @@
     </row>
     <row r="206" spans="1:10" ht="15.75">
       <c r="A206" s="9" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="B206" s="4" t="s">
+        <v>802</v>
+      </c>
+      <c r="C206" s="9" t="s">
         <v>803</v>
       </c>
-      <c r="C206" s="9" t="s">
-        <v>804</v>
-      </c>
       <c r="D206" s="4" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="E206" s="9" t="s">
+        <v>801</v>
+      </c>
+      <c r="F206" s="4" t="s">
         <v>802</v>
-      </c>
-      <c r="F206" s="4" t="s">
-        <v>803</v>
       </c>
       <c r="G206" s="9" t="s">
         <v>12</v>
@@ -10515,25 +10537,25 @@
     </row>
     <row r="207" spans="1:10" ht="15.75">
       <c r="A207" s="9" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="B207" s="4" t="s">
+        <v>805</v>
+      </c>
+      <c r="C207" s="9" t="s">
         <v>806</v>
       </c>
-      <c r="C207" s="9" t="s">
-        <v>807</v>
-      </c>
       <c r="D207" s="4" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="E207" s="9" t="s">
+        <v>804</v>
+      </c>
+      <c r="F207" s="4" t="s">
         <v>805</v>
       </c>
-      <c r="F207" s="4" t="s">
-        <v>806</v>
-      </c>
       <c r="G207" s="9" t="s">
-        <v>1319</v>
+        <v>1317</v>
       </c>
       <c r="H207" s="9" t="s">
         <v>4</v>
@@ -10543,25 +10565,25 @@
     </row>
     <row r="208" spans="1:10" ht="15.75">
       <c r="A208" s="9" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="B208" s="4" t="s">
+        <v>809</v>
+      </c>
+      <c r="C208" s="9" t="s">
         <v>810</v>
       </c>
-      <c r="C208" s="9" t="s">
-        <v>811</v>
-      </c>
       <c r="D208" s="4" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="E208" s="9" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="F208" s="4" t="s">
-        <v>810</v>
+        <v>1342</v>
       </c>
       <c r="G208" s="9" t="s">
-        <v>1320</v>
+        <v>1318</v>
       </c>
       <c r="H208" s="9" t="s">
         <v>4</v>
@@ -10571,22 +10593,22 @@
     </row>
     <row r="209" spans="1:10" ht="15.75">
       <c r="A209" s="9" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="B209" s="4" t="s">
+        <v>812</v>
+      </c>
+      <c r="C209" s="9" t="s">
         <v>813</v>
       </c>
-      <c r="C209" s="9" t="s">
-        <v>814</v>
-      </c>
       <c r="D209" s="4" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="E209" s="9" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="F209" s="4" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="G209" s="9" t="s">
         <v>12</v>
@@ -10599,25 +10621,25 @@
     </row>
     <row r="210" spans="1:10" ht="15.75">
       <c r="A210" s="9" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="B210" s="4" t="s">
+        <v>815</v>
+      </c>
+      <c r="C210" s="9" t="s">
         <v>816</v>
       </c>
-      <c r="C210" s="9" t="s">
-        <v>817</v>
-      </c>
       <c r="D210" s="4" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="E210" s="9" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="F210" s="4" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="G210" s="9" t="s">
-        <v>1320</v>
+        <v>1318</v>
       </c>
       <c r="H210" s="9" t="s">
         <v>4</v>
@@ -10627,25 +10649,25 @@
     </row>
     <row r="211" spans="1:10" ht="15.75">
       <c r="A211" s="9" t="s">
-        <v>1291</v>
+        <v>1289</v>
       </c>
       <c r="B211" s="4" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="C211" s="9" t="s">
-        <v>1292</v>
+        <v>1290</v>
       </c>
       <c r="D211" s="4" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="E211" s="9" t="s">
+        <v>818</v>
+      </c>
+      <c r="F211" s="4" t="s">
         <v>819</v>
       </c>
-      <c r="F211" s="4" t="s">
-        <v>820</v>
-      </c>
       <c r="G211" s="9" t="s">
-        <v>1319</v>
+        <v>1317</v>
       </c>
       <c r="H211" s="9" t="s">
         <v>4</v>
@@ -10655,25 +10677,25 @@
     </row>
     <row r="212" spans="1:10" ht="15.75">
       <c r="A212" s="9" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="B212" s="4" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="C212" s="9" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="D212" s="4" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="E212" s="9" t="s">
+        <v>822</v>
+      </c>
+      <c r="F212" s="4" t="s">
         <v>823</v>
       </c>
-      <c r="F212" s="4" t="s">
-        <v>824</v>
-      </c>
       <c r="G212" s="9" t="s">
-        <v>1320</v>
+        <v>1318</v>
       </c>
       <c r="H212" s="9" t="s">
         <v>4</v>
@@ -10683,25 +10705,25 @@
     </row>
     <row r="213" spans="1:10" ht="15.75">
       <c r="A213" s="9" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="B213" s="4" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="C213" s="9" t="s">
+        <v>825</v>
+      </c>
+      <c r="D213" s="4" t="s">
+        <v>828</v>
+      </c>
+      <c r="E213" s="9" t="s">
         <v>826</v>
       </c>
-      <c r="D213" s="4" t="s">
-        <v>829</v>
-      </c>
-      <c r="E213" s="9" t="s">
+      <c r="F213" s="4" t="s">
         <v>827</v>
       </c>
-      <c r="F213" s="4" t="s">
-        <v>828</v>
-      </c>
       <c r="G213" s="9" t="s">
-        <v>1319</v>
+        <v>1317</v>
       </c>
       <c r="H213" s="9" t="s">
         <v>4</v>
@@ -10711,52 +10733,52 @@
     </row>
     <row r="214" spans="1:10" ht="15.75">
       <c r="A214" s="9" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="B214" s="4" t="s">
+        <v>831</v>
+      </c>
+      <c r="C214" s="9" t="s">
+        <v>833</v>
+      </c>
+      <c r="D214" s="4" t="s">
+        <v>831</v>
+      </c>
+      <c r="E214" s="9" t="s">
+        <v>830</v>
+      </c>
+      <c r="F214" s="4" t="s">
+        <v>831</v>
+      </c>
+      <c r="G214" s="9" t="s">
+        <v>1317</v>
+      </c>
+      <c r="H214" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="I214" s="9" t="s">
         <v>832</v>
-      </c>
-      <c r="C214" s="9" t="s">
-        <v>834</v>
-      </c>
-      <c r="D214" s="4" t="s">
-        <v>832</v>
-      </c>
-      <c r="E214" s="9" t="s">
-        <v>831</v>
-      </c>
-      <c r="F214" s="4" t="s">
-        <v>832</v>
-      </c>
-      <c r="G214" s="9" t="s">
-        <v>1319</v>
-      </c>
-      <c r="H214" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="I214" s="9" t="s">
-        <v>833</v>
       </c>
       <c r="J214" s="5"/>
     </row>
     <row r="215" spans="1:10" ht="15.75">
       <c r="A215" s="9" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="B215" s="4" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="C215" s="9" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="D215" s="4" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="E215" s="9" t="s">
+        <v>835</v>
+      </c>
+      <c r="F215" s="4" t="s">
         <v>836</v>
-      </c>
-      <c r="F215" s="4" t="s">
-        <v>837</v>
       </c>
       <c r="G215" s="9" t="s">
         <v>12</v>
@@ -10765,61 +10787,61 @@
         <v>7</v>
       </c>
       <c r="I215" s="9" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="J215" s="5"/>
     </row>
     <row r="216" spans="1:10" ht="15.75">
       <c r="A216" s="9" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="B216" s="4" t="s">
+        <v>840</v>
+      </c>
+      <c r="C216" s="9" t="s">
+        <v>842</v>
+      </c>
+      <c r="D216" s="4" t="s">
+        <v>840</v>
+      </c>
+      <c r="E216" s="9" t="s">
+        <v>806</v>
+      </c>
+      <c r="F216" s="4" t="s">
+        <v>840</v>
+      </c>
+      <c r="G216" s="9" t="s">
+        <v>1317</v>
+      </c>
+      <c r="H216" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="I216" s="9" t="s">
         <v>841</v>
-      </c>
-      <c r="C216" s="9" t="s">
-        <v>843</v>
-      </c>
-      <c r="D216" s="4" t="s">
-        <v>841</v>
-      </c>
-      <c r="E216" s="9" t="s">
-        <v>807</v>
-      </c>
-      <c r="F216" s="4" t="s">
-        <v>841</v>
-      </c>
-      <c r="G216" s="9" t="s">
-        <v>1319</v>
-      </c>
-      <c r="H216" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="I216" s="9" t="s">
-        <v>842</v>
       </c>
       <c r="J216" s="5"/>
     </row>
     <row r="217" spans="1:10" ht="15.75">
       <c r="A217" s="9" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="B217" s="4" t="s">
+        <v>845</v>
+      </c>
+      <c r="C217" s="9" t="s">
         <v>846</v>
       </c>
-      <c r="C217" s="9" t="s">
-        <v>847</v>
-      </c>
       <c r="D217" s="4" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="E217" s="9" t="s">
+        <v>844</v>
+      </c>
+      <c r="F217" s="4" t="s">
         <v>845</v>
       </c>
-      <c r="F217" s="4" t="s">
-        <v>846</v>
-      </c>
       <c r="G217" s="9" t="s">
-        <v>1319</v>
+        <v>1317</v>
       </c>
       <c r="H217" s="9" t="s">
         <v>7</v>
@@ -10829,25 +10851,25 @@
     </row>
     <row r="218" spans="1:10" ht="15.75">
       <c r="A218" s="9" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="B218" s="4" t="s">
+        <v>848</v>
+      </c>
+      <c r="C218" s="9" t="s">
         <v>849</v>
       </c>
-      <c r="C218" s="9" t="s">
-        <v>850</v>
-      </c>
       <c r="D218" s="4" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="E218" s="9" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="F218" s="4" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="G218" s="9" t="s">
-        <v>1319</v>
+        <v>1317</v>
       </c>
       <c r="H218" s="9" t="s">
         <v>4</v>
@@ -10857,52 +10879,52 @@
     </row>
     <row r="219" spans="1:10" ht="15.75">
       <c r="A219" s="9" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="B219" s="4" t="s">
+        <v>852</v>
+      </c>
+      <c r="C219" s="9" t="s">
         <v>853</v>
       </c>
-      <c r="C219" s="9" t="s">
-        <v>854</v>
-      </c>
       <c r="D219" s="4" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="E219" s="9" t="s">
+        <v>851</v>
+      </c>
+      <c r="F219" s="4" t="s">
         <v>852</v>
       </c>
-      <c r="F219" s="4" t="s">
-        <v>853</v>
-      </c>
       <c r="G219" s="9" t="s">
-        <v>1319</v>
+        <v>1317</v>
       </c>
       <c r="H219" s="9" t="s">
         <v>4</v>
       </c>
       <c r="I219" s="9" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="J219" s="5"/>
     </row>
     <row r="220" spans="1:10" ht="15.75">
       <c r="A220" s="9" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="B220" s="4" t="s">
+        <v>856</v>
+      </c>
+      <c r="C220" s="9" t="s">
         <v>857</v>
       </c>
-      <c r="C220" s="9" t="s">
-        <v>858</v>
-      </c>
       <c r="D220" s="4" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="E220" s="9" t="s">
+        <v>855</v>
+      </c>
+      <c r="F220" s="4" t="s">
         <v>856</v>
-      </c>
-      <c r="F220" s="4" t="s">
-        <v>857</v>
       </c>
       <c r="G220" s="9" t="s">
         <v>12</v>
@@ -10911,61 +10933,61 @@
         <v>7</v>
       </c>
       <c r="I220" s="9" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="J220" s="5"/>
     </row>
     <row r="221" spans="1:10" ht="15.75">
       <c r="A221" s="9" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="B221" s="4" t="s">
+        <v>859</v>
+      </c>
+      <c r="C221" s="9" t="s">
         <v>860</v>
       </c>
-      <c r="C221" s="9" t="s">
-        <v>861</v>
-      </c>
       <c r="D221" s="4" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="E221" s="9" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="F221" s="4" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="G221" s="9" t="s">
-        <v>1319</v>
+        <v>1317</v>
       </c>
       <c r="H221" s="9" t="s">
         <v>7</v>
       </c>
       <c r="I221" s="9" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="J221" s="5"/>
     </row>
     <row r="222" spans="1:10" ht="15.75">
       <c r="A222" s="9" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="B222" s="4" t="s">
+        <v>863</v>
+      </c>
+      <c r="C222" s="9" t="s">
         <v>864</v>
       </c>
-      <c r="C222" s="9" t="s">
-        <v>865</v>
-      </c>
       <c r="D222" s="4" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="E222" s="9" t="s">
+        <v>862</v>
+      </c>
+      <c r="F222" s="4" t="s">
         <v>863</v>
       </c>
-      <c r="F222" s="4" t="s">
-        <v>864</v>
-      </c>
       <c r="G222" s="9" t="s">
-        <v>1319</v>
+        <v>1317</v>
       </c>
       <c r="H222" s="9" t="s">
         <v>7</v>
@@ -10975,25 +10997,25 @@
     </row>
     <row r="223" spans="1:10" ht="15.75">
       <c r="A223" s="9" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="B223" s="4" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="C223" s="9" t="s">
+        <v>869</v>
+      </c>
+      <c r="D223" s="4" t="s">
         <v>870</v>
       </c>
-      <c r="D223" s="4" t="s">
-        <v>871</v>
-      </c>
       <c r="E223" s="9" t="s">
+        <v>867</v>
+      </c>
+      <c r="F223" s="4" t="s">
         <v>868</v>
       </c>
-      <c r="F223" s="4" t="s">
-        <v>869</v>
-      </c>
       <c r="G223" s="9" t="s">
-        <v>1319</v>
+        <v>1317</v>
       </c>
       <c r="H223" s="9" t="s">
         <v>4</v>
@@ -11003,172 +11025,172 @@
     </row>
     <row r="224" spans="1:10" ht="15.75">
       <c r="A224" s="9" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="B224" s="4" t="s">
+        <v>873</v>
+      </c>
+      <c r="C224" s="9" t="s">
+        <v>839</v>
+      </c>
+      <c r="D224" s="4" t="s">
+        <v>873</v>
+      </c>
+      <c r="E224" s="9" t="s">
+        <v>872</v>
+      </c>
+      <c r="F224" s="4" t="s">
+        <v>873</v>
+      </c>
+      <c r="G224" s="9" t="s">
+        <v>1318</v>
+      </c>
+      <c r="H224" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="I224" s="9" t="s">
         <v>874</v>
-      </c>
-      <c r="C224" s="9" t="s">
-        <v>840</v>
-      </c>
-      <c r="D224" s="4" t="s">
-        <v>874</v>
-      </c>
-      <c r="E224" s="9" t="s">
-        <v>873</v>
-      </c>
-      <c r="F224" s="4" t="s">
-        <v>874</v>
-      </c>
-      <c r="G224" s="9" t="s">
-        <v>1320</v>
-      </c>
-      <c r="H224" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="I224" s="9" t="s">
-        <v>875</v>
       </c>
       <c r="J224" s="5"/>
     </row>
     <row r="225" spans="1:10" ht="15.75">
       <c r="A225" s="9" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="B225" s="4" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="C225" s="9" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="D225" s="4" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="E225" s="9" t="s">
+        <v>876</v>
+      </c>
+      <c r="F225" s="4" t="s">
         <v>877</v>
       </c>
-      <c r="F225" s="4" t="s">
-        <v>878</v>
-      </c>
       <c r="G225" s="9" t="s">
-        <v>1319</v>
+        <v>1317</v>
       </c>
       <c r="H225" s="9" t="s">
         <v>7</v>
       </c>
       <c r="I225" s="9" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="J225" s="5"/>
     </row>
     <row r="226" spans="1:10" ht="15.75">
       <c r="A226" s="9" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="B226" s="4" t="s">
+        <v>880</v>
+      </c>
+      <c r="C226" s="9" t="s">
+        <v>882</v>
+      </c>
+      <c r="D226" s="4" t="s">
+        <v>880</v>
+      </c>
+      <c r="E226" s="9" t="s">
+        <v>879</v>
+      </c>
+      <c r="F226" s="4" t="s">
+        <v>880</v>
+      </c>
+      <c r="G226" s="9" t="s">
+        <v>1317</v>
+      </c>
+      <c r="H226" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="I226" s="9" t="s">
         <v>881</v>
-      </c>
-      <c r="C226" s="9" t="s">
-        <v>883</v>
-      </c>
-      <c r="D226" s="4" t="s">
-        <v>881</v>
-      </c>
-      <c r="E226" s="9" t="s">
-        <v>880</v>
-      </c>
-      <c r="F226" s="4" t="s">
-        <v>881</v>
-      </c>
-      <c r="G226" s="9" t="s">
-        <v>1319</v>
-      </c>
-      <c r="H226" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="I226" s="9" t="s">
-        <v>882</v>
       </c>
       <c r="J226" s="5"/>
     </row>
     <row r="227" spans="1:10" ht="15.75">
       <c r="A227" s="9" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="B227" s="4" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="C227" s="9" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="D227" s="4" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="E227" s="9" t="s">
+        <v>884</v>
+      </c>
+      <c r="F227" s="4" t="s">
         <v>885</v>
       </c>
-      <c r="F227" s="4" t="s">
-        <v>886</v>
-      </c>
       <c r="G227" s="9" t="s">
-        <v>1319</v>
+        <v>1317</v>
       </c>
       <c r="H227" s="9" t="s">
         <v>7</v>
       </c>
       <c r="I227" s="9" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="J227" s="5"/>
     </row>
     <row r="228" spans="1:10" ht="15.75">
       <c r="A228" s="9" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="B228" s="4" t="s">
+        <v>888</v>
+      </c>
+      <c r="C228" s="9" t="s">
+        <v>890</v>
+      </c>
+      <c r="D228" s="4" t="s">
+        <v>888</v>
+      </c>
+      <c r="E228" s="9" t="s">
+        <v>887</v>
+      </c>
+      <c r="F228" s="4" t="s">
+        <v>888</v>
+      </c>
+      <c r="G228" s="9" t="s">
+        <v>1317</v>
+      </c>
+      <c r="H228" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="I228" s="9" t="s">
         <v>889</v>
-      </c>
-      <c r="C228" s="9" t="s">
-        <v>891</v>
-      </c>
-      <c r="D228" s="4" t="s">
-        <v>889</v>
-      </c>
-      <c r="E228" s="9" t="s">
-        <v>888</v>
-      </c>
-      <c r="F228" s="4" t="s">
-        <v>889</v>
-      </c>
-      <c r="G228" s="9" t="s">
-        <v>1319</v>
-      </c>
-      <c r="H228" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="I228" s="9" t="s">
-        <v>890</v>
       </c>
       <c r="J228" s="5"/>
     </row>
     <row r="229" spans="1:10" ht="15.75">
       <c r="A229" s="9" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="B229" s="4" t="s">
+        <v>892</v>
+      </c>
+      <c r="C229" s="9" t="s">
         <v>893</v>
       </c>
-      <c r="C229" s="9" t="s">
-        <v>894</v>
-      </c>
       <c r="D229" s="4" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="E229" s="9" t="s">
-        <v>1305</v>
+        <v>1303</v>
       </c>
       <c r="F229" s="4" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="G229" s="9" t="s">
         <v>12</v>
@@ -11177,59 +11199,59 @@
         <v>7</v>
       </c>
       <c r="I229" s="9" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="J229" s="5"/>
     </row>
     <row r="230" spans="1:10" ht="15.75">
       <c r="A230" s="9" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="B230" s="4" t="s">
+        <v>895</v>
+      </c>
+      <c r="C230" s="9" t="s">
         <v>896</v>
       </c>
-      <c r="C230" s="9" t="s">
-        <v>897</v>
-      </c>
       <c r="D230" s="4" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="E230" s="9" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="F230" s="4" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="G230" s="9" t="s">
         <v>12</v>
       </c>
       <c r="H230" s="9" t="s">
-        <v>1282</v>
+        <v>1280</v>
       </c>
       <c r="I230" s="6"/>
       <c r="J230" s="5"/>
     </row>
     <row r="231" spans="1:10" ht="15.75">
       <c r="A231" s="9" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="B231" s="4" t="s">
+        <v>899</v>
+      </c>
+      <c r="C231" s="9" t="s">
         <v>900</v>
       </c>
-      <c r="C231" s="9" t="s">
-        <v>901</v>
-      </c>
       <c r="D231" s="4" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="E231" s="9" t="s">
+        <v>898</v>
+      </c>
+      <c r="F231" s="4" t="s">
         <v>899</v>
       </c>
-      <c r="F231" s="4" t="s">
-        <v>900</v>
-      </c>
       <c r="G231" s="9" t="s">
-        <v>1319</v>
+        <v>1317</v>
       </c>
       <c r="H231" s="9" t="s">
         <v>4</v>
@@ -11239,25 +11261,25 @@
     </row>
     <row r="232" spans="1:10" ht="15.75">
       <c r="A232" s="9" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="B232" s="4" t="s">
+        <v>903</v>
+      </c>
+      <c r="C232" s="9" t="s">
         <v>904</v>
       </c>
-      <c r="C232" s="9" t="s">
-        <v>905</v>
-      </c>
       <c r="D232" s="4" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="E232" s="9" t="s">
+        <v>902</v>
+      </c>
+      <c r="F232" s="4" t="s">
         <v>903</v>
       </c>
-      <c r="F232" s="4" t="s">
-        <v>904</v>
-      </c>
       <c r="G232" s="9" t="s">
-        <v>1319</v>
+        <v>1317</v>
       </c>
       <c r="H232" s="9" t="s">
         <v>4</v>
@@ -11267,25 +11289,25 @@
     </row>
     <row r="233" spans="1:10" ht="15.75">
       <c r="A233" s="9" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="B233" s="4" t="s">
+        <v>907</v>
+      </c>
+      <c r="C233" s="9" t="s">
         <v>908</v>
       </c>
-      <c r="C233" s="9" t="s">
-        <v>909</v>
-      </c>
       <c r="D233" s="4" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="E233" s="9" t="s">
+        <v>906</v>
+      </c>
+      <c r="F233" s="4" t="s">
         <v>907</v>
       </c>
-      <c r="F233" s="4" t="s">
-        <v>908</v>
-      </c>
       <c r="G233" s="9" t="s">
-        <v>1319</v>
+        <v>1317</v>
       </c>
       <c r="H233" s="9" t="s">
         <v>4</v>
@@ -11295,25 +11317,25 @@
     </row>
     <row r="234" spans="1:10" ht="15.75">
       <c r="A234" s="9" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="B234" s="4" t="s">
+        <v>911</v>
+      </c>
+      <c r="C234" s="9" t="s">
         <v>912</v>
       </c>
-      <c r="C234" s="9" t="s">
-        <v>913</v>
-      </c>
       <c r="D234" s="4" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="E234" s="9" t="s">
+        <v>910</v>
+      </c>
+      <c r="F234" s="4" t="s">
         <v>911</v>
       </c>
-      <c r="F234" s="4" t="s">
-        <v>912</v>
-      </c>
       <c r="G234" s="9" t="s">
-        <v>1319</v>
+        <v>1317</v>
       </c>
       <c r="H234" s="9" t="s">
         <v>4</v>
@@ -11323,25 +11345,25 @@
     </row>
     <row r="235" spans="1:10" ht="15.75">
       <c r="A235" s="9" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="B235" s="4" t="s">
+        <v>915</v>
+      </c>
+      <c r="C235" s="9" t="s">
         <v>916</v>
       </c>
-      <c r="C235" s="9" t="s">
-        <v>917</v>
-      </c>
       <c r="D235" s="4" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="E235" s="9" t="s">
+        <v>914</v>
+      </c>
+      <c r="F235" s="4" t="s">
         <v>915</v>
       </c>
-      <c r="F235" s="4" t="s">
-        <v>916</v>
-      </c>
       <c r="G235" s="9" t="s">
-        <v>1319</v>
+        <v>1317</v>
       </c>
       <c r="H235" s="9" t="s">
         <v>4</v>
@@ -11351,25 +11373,25 @@
     </row>
     <row r="236" spans="1:10" ht="15.75">
       <c r="A236" s="9" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="B236" s="4" t="s">
+        <v>919</v>
+      </c>
+      <c r="C236" s="9" t="s">
         <v>920</v>
       </c>
-      <c r="C236" s="9" t="s">
-        <v>921</v>
-      </c>
       <c r="D236" s="4" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="E236" s="9" t="s">
+        <v>918</v>
+      </c>
+      <c r="F236" s="4" t="s">
         <v>919</v>
       </c>
-      <c r="F236" s="4" t="s">
-        <v>920</v>
-      </c>
       <c r="G236" s="9" t="s">
-        <v>1319</v>
+        <v>1317</v>
       </c>
       <c r="H236" s="9" t="s">
         <v>4</v>
@@ -11379,25 +11401,25 @@
     </row>
     <row r="237" spans="1:10" ht="15.75">
       <c r="A237" s="9" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="B237" s="4" t="s">
+        <v>923</v>
+      </c>
+      <c r="C237" s="9" t="s">
         <v>924</v>
       </c>
-      <c r="C237" s="9" t="s">
-        <v>925</v>
-      </c>
       <c r="D237" s="4" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="E237" s="9" t="s">
+        <v>922</v>
+      </c>
+      <c r="F237" s="4" t="s">
         <v>923</v>
       </c>
-      <c r="F237" s="4" t="s">
-        <v>924</v>
-      </c>
       <c r="G237" s="9" t="s">
-        <v>1319</v>
+        <v>1317</v>
       </c>
       <c r="H237" s="9" t="s">
         <v>4</v>
@@ -11407,25 +11429,25 @@
     </row>
     <row r="238" spans="1:10" ht="15.75">
       <c r="A238" s="9" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="B238" s="4" t="s">
+        <v>927</v>
+      </c>
+      <c r="C238" s="9" t="s">
         <v>928</v>
       </c>
-      <c r="C238" s="9" t="s">
-        <v>929</v>
-      </c>
       <c r="D238" s="4" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="E238" s="9" t="s">
+        <v>926</v>
+      </c>
+      <c r="F238" s="4" t="s">
         <v>927</v>
       </c>
-      <c r="F238" s="4" t="s">
-        <v>928</v>
-      </c>
       <c r="G238" s="9" t="s">
-        <v>1319</v>
+        <v>1317</v>
       </c>
       <c r="H238" s="9" t="s">
         <v>4</v>
@@ -11435,25 +11457,25 @@
     </row>
     <row r="239" spans="1:10" ht="15.75">
       <c r="A239" s="9" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="B239" s="4" t="s">
+        <v>931</v>
+      </c>
+      <c r="C239" s="9" t="s">
         <v>932</v>
       </c>
-      <c r="C239" s="9" t="s">
-        <v>933</v>
-      </c>
       <c r="D239" s="4" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="E239" s="9" t="s">
+        <v>930</v>
+      </c>
+      <c r="F239" s="4" t="s">
         <v>931</v>
       </c>
-      <c r="F239" s="4" t="s">
-        <v>932</v>
-      </c>
       <c r="G239" s="9" t="s">
-        <v>1319</v>
+        <v>1317</v>
       </c>
       <c r="H239" s="9" t="s">
         <v>4</v>
@@ -11463,25 +11485,25 @@
     </row>
     <row r="240" spans="1:10" ht="15.75">
       <c r="A240" s="9" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="B240" s="4" t="s">
+        <v>935</v>
+      </c>
+      <c r="C240" s="9" t="s">
         <v>936</v>
       </c>
-      <c r="C240" s="9" t="s">
-        <v>937</v>
-      </c>
       <c r="D240" s="4" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="E240" s="9" t="s">
+        <v>934</v>
+      </c>
+      <c r="F240" s="4" t="s">
         <v>935</v>
       </c>
-      <c r="F240" s="4" t="s">
-        <v>936</v>
-      </c>
       <c r="G240" s="9" t="s">
-        <v>1319</v>
+        <v>1317</v>
       </c>
       <c r="H240" s="9" t="s">
         <v>4</v>
@@ -11491,25 +11513,25 @@
     </row>
     <row r="241" spans="1:10" ht="15.75">
       <c r="A241" s="9" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="B241" s="4" t="s">
+        <v>939</v>
+      </c>
+      <c r="C241" s="9" t="s">
         <v>940</v>
       </c>
-      <c r="C241" s="9" t="s">
-        <v>941</v>
-      </c>
       <c r="D241" s="4" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="E241" s="9" t="s">
+        <v>938</v>
+      </c>
+      <c r="F241" s="4" t="s">
         <v>939</v>
       </c>
-      <c r="F241" s="4" t="s">
-        <v>940</v>
-      </c>
       <c r="G241" s="9" t="s">
-        <v>1319</v>
+        <v>1317</v>
       </c>
       <c r="H241" s="9" t="s">
         <v>4</v>
@@ -11519,25 +11541,25 @@
     </row>
     <row r="242" spans="1:10" ht="15.75">
       <c r="A242" s="9" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="B242" s="4" t="s">
+        <v>943</v>
+      </c>
+      <c r="C242" s="9" t="s">
         <v>944</v>
       </c>
-      <c r="C242" s="9" t="s">
-        <v>945</v>
-      </c>
       <c r="D242" s="4" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="E242" s="9" t="s">
+        <v>942</v>
+      </c>
+      <c r="F242" s="4" t="s">
         <v>943</v>
       </c>
-      <c r="F242" s="4" t="s">
-        <v>944</v>
-      </c>
       <c r="G242" s="9" t="s">
-        <v>1319</v>
+        <v>1317</v>
       </c>
       <c r="H242" s="9" t="s">
         <v>4</v>
@@ -11547,25 +11569,25 @@
     </row>
     <row r="243" spans="1:10" ht="15.75">
       <c r="A243" s="9" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="B243" s="4" t="s">
+        <v>946</v>
+      </c>
+      <c r="C243" s="9" t="s">
         <v>947</v>
       </c>
-      <c r="C243" s="9" t="s">
-        <v>948</v>
-      </c>
       <c r="D243" s="4" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="E243" s="9" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="F243" s="4" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="G243" s="9" t="s">
-        <v>1319</v>
+        <v>1317</v>
       </c>
       <c r="H243" s="9" t="s">
         <v>4</v>
@@ -11575,25 +11597,25 @@
     </row>
     <row r="244" spans="1:10" ht="15.75">
       <c r="A244" s="9" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="B244" s="4" t="s">
+        <v>950</v>
+      </c>
+      <c r="C244" s="9" t="s">
         <v>951</v>
       </c>
-      <c r="C244" s="9" t="s">
-        <v>952</v>
-      </c>
       <c r="D244" s="4" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="E244" s="9" t="s">
+        <v>949</v>
+      </c>
+      <c r="F244" s="4" t="s">
         <v>950</v>
       </c>
-      <c r="F244" s="4" t="s">
-        <v>951</v>
-      </c>
       <c r="G244" s="9" t="s">
-        <v>1319</v>
+        <v>1317</v>
       </c>
       <c r="H244" s="9" t="s">
         <v>4</v>
@@ -11603,25 +11625,25 @@
     </row>
     <row r="245" spans="1:10" ht="15.75">
       <c r="A245" s="9" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="B245" s="4" t="s">
+        <v>954</v>
+      </c>
+      <c r="C245" s="9" t="s">
         <v>955</v>
       </c>
-      <c r="C245" s="9" t="s">
-        <v>956</v>
-      </c>
       <c r="D245" s="4" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="E245" s="9" t="s">
+        <v>953</v>
+      </c>
+      <c r="F245" s="4" t="s">
         <v>954</v>
       </c>
-      <c r="F245" s="4" t="s">
-        <v>955</v>
-      </c>
       <c r="G245" s="9" t="s">
-        <v>1319</v>
+        <v>1317</v>
       </c>
       <c r="H245" s="9" t="s">
         <v>4</v>
@@ -11631,25 +11653,25 @@
     </row>
     <row r="246" spans="1:10" ht="15.75">
       <c r="A246" s="9" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="B246" s="4" t="s">
+        <v>958</v>
+      </c>
+      <c r="C246" s="9" t="s">
         <v>959</v>
       </c>
-      <c r="C246" s="9" t="s">
-        <v>960</v>
-      </c>
       <c r="D246" s="4" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="E246" s="9" t="s">
+        <v>957</v>
+      </c>
+      <c r="F246" s="4" t="s">
         <v>958</v>
       </c>
-      <c r="F246" s="4" t="s">
-        <v>959</v>
-      </c>
       <c r="G246" s="9" t="s">
-        <v>1319</v>
+        <v>1317</v>
       </c>
       <c r="H246" s="9" t="s">
         <v>4</v>
@@ -11659,25 +11681,25 @@
     </row>
     <row r="247" spans="1:10" ht="15.75">
       <c r="A247" s="9" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="B247" s="4" t="s">
+        <v>962</v>
+      </c>
+      <c r="C247" s="9" t="s">
         <v>963</v>
       </c>
-      <c r="C247" s="9" t="s">
-        <v>964</v>
-      </c>
       <c r="D247" s="4" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="E247" s="9" t="s">
+        <v>961</v>
+      </c>
+      <c r="F247" s="4" t="s">
         <v>962</v>
       </c>
-      <c r="F247" s="4" t="s">
-        <v>963</v>
-      </c>
       <c r="G247" s="9" t="s">
-        <v>1319</v>
+        <v>1317</v>
       </c>
       <c r="H247" s="9" t="s">
         <v>4</v>
@@ -11687,25 +11709,25 @@
     </row>
     <row r="248" spans="1:10" ht="15.75">
       <c r="A248" s="9" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="B248" s="4" t="s">
+        <v>966</v>
+      </c>
+      <c r="C248" s="9" t="s">
         <v>967</v>
       </c>
-      <c r="C248" s="9" t="s">
-        <v>968</v>
-      </c>
       <c r="D248" s="4" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="E248" s="9" t="s">
+        <v>965</v>
+      </c>
+      <c r="F248" s="4" t="s">
         <v>966</v>
       </c>
-      <c r="F248" s="4" t="s">
-        <v>967</v>
-      </c>
       <c r="G248" s="9" t="s">
-        <v>1319</v>
+        <v>1317</v>
       </c>
       <c r="H248" s="9" t="s">
         <v>4</v>
@@ -11715,25 +11737,25 @@
     </row>
     <row r="249" spans="1:10" ht="15.75">
       <c r="A249" s="9" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="B249" s="4" t="s">
+        <v>970</v>
+      </c>
+      <c r="C249" s="9" t="s">
         <v>971</v>
       </c>
-      <c r="C249" s="9" t="s">
-        <v>972</v>
-      </c>
       <c r="D249" s="4" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="E249" s="9" t="s">
+        <v>969</v>
+      </c>
+      <c r="F249" s="4" t="s">
         <v>970</v>
       </c>
-      <c r="F249" s="4" t="s">
-        <v>971</v>
-      </c>
       <c r="G249" s="9" t="s">
-        <v>1319</v>
+        <v>1317</v>
       </c>
       <c r="H249" s="9" t="s">
         <v>4</v>
@@ -11743,25 +11765,25 @@
     </row>
     <row r="250" spans="1:10" ht="15.75">
       <c r="A250" s="9" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="B250" s="4" t="s">
+        <v>974</v>
+      </c>
+      <c r="C250" s="9" t="s">
         <v>975</v>
       </c>
-      <c r="C250" s="9" t="s">
-        <v>976</v>
-      </c>
       <c r="D250" s="4" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="E250" s="9" t="s">
+        <v>973</v>
+      </c>
+      <c r="F250" s="4" t="s">
         <v>974</v>
       </c>
-      <c r="F250" s="4" t="s">
-        <v>975</v>
-      </c>
       <c r="G250" s="9" t="s">
-        <v>1319</v>
+        <v>1317</v>
       </c>
       <c r="H250" s="9" t="s">
         <v>4</v>
@@ -11771,25 +11793,25 @@
     </row>
     <row r="251" spans="1:10" ht="15.75">
       <c r="A251" s="9" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="B251" s="4" t="s">
+        <v>978</v>
+      </c>
+      <c r="C251" s="9" t="s">
         <v>979</v>
       </c>
-      <c r="C251" s="9" t="s">
-        <v>980</v>
-      </c>
       <c r="D251" s="4" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="E251" s="9" t="s">
+        <v>977</v>
+      </c>
+      <c r="F251" s="4" t="s">
         <v>978</v>
       </c>
-      <c r="F251" s="4" t="s">
-        <v>979</v>
-      </c>
       <c r="G251" s="9" t="s">
-        <v>1319</v>
+        <v>1317</v>
       </c>
       <c r="H251" s="9" t="s">
         <v>4</v>
@@ -11799,25 +11821,25 @@
     </row>
     <row r="252" spans="1:10" ht="15.75">
       <c r="A252" s="9" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
       <c r="B252" s="4" t="s">
+        <v>982</v>
+      </c>
+      <c r="C252" s="9" t="s">
         <v>983</v>
       </c>
-      <c r="C252" s="9" t="s">
-        <v>984</v>
-      </c>
       <c r="D252" s="4" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="E252" s="9" t="s">
+        <v>981</v>
+      </c>
+      <c r="F252" s="4" t="s">
         <v>982</v>
       </c>
-      <c r="F252" s="4" t="s">
-        <v>983</v>
-      </c>
       <c r="G252" s="9" t="s">
-        <v>1319</v>
+        <v>1317</v>
       </c>
       <c r="H252" s="9" t="s">
         <v>4</v>
@@ -11827,25 +11849,25 @@
     </row>
     <row r="253" spans="1:10" ht="15.75">
       <c r="A253" s="9" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="B253" s="4" t="s">
+        <v>986</v>
+      </c>
+      <c r="C253" s="9" t="s">
         <v>987</v>
       </c>
-      <c r="C253" s="9" t="s">
-        <v>988</v>
-      </c>
       <c r="D253" s="4" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="E253" s="9" t="s">
+        <v>985</v>
+      </c>
+      <c r="F253" s="4" t="s">
         <v>986</v>
       </c>
-      <c r="F253" s="4" t="s">
-        <v>987</v>
-      </c>
       <c r="G253" s="9" t="s">
-        <v>1319</v>
+        <v>1317</v>
       </c>
       <c r="H253" s="9" t="s">
         <v>4</v>
@@ -11855,25 +11877,25 @@
     </row>
     <row r="254" spans="1:10" ht="15.75">
       <c r="A254" s="9" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="B254" s="4" t="s">
+        <v>990</v>
+      </c>
+      <c r="C254" s="9" t="s">
         <v>991</v>
       </c>
-      <c r="C254" s="9" t="s">
-        <v>992</v>
-      </c>
       <c r="D254" s="4" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="E254" s="9" t="s">
+        <v>989</v>
+      </c>
+      <c r="F254" s="4" t="s">
         <v>990</v>
       </c>
-      <c r="F254" s="4" t="s">
-        <v>991</v>
-      </c>
       <c r="G254" s="9" t="s">
-        <v>1319</v>
+        <v>1317</v>
       </c>
       <c r="H254" s="9" t="s">
         <v>4</v>
@@ -11883,25 +11905,25 @@
     </row>
     <row r="255" spans="1:10" ht="15.75">
       <c r="A255" s="9" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="B255" s="4" t="s">
+        <v>994</v>
+      </c>
+      <c r="C255" s="9" t="s">
         <v>995</v>
       </c>
-      <c r="C255" s="9" t="s">
-        <v>996</v>
-      </c>
       <c r="D255" s="4" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="E255" s="9" t="s">
+        <v>993</v>
+      </c>
+      <c r="F255" s="4" t="s">
         <v>994</v>
       </c>
-      <c r="F255" s="4" t="s">
-        <v>995</v>
-      </c>
       <c r="G255" s="9" t="s">
-        <v>1319</v>
+        <v>1317</v>
       </c>
       <c r="H255" s="9" t="s">
         <v>4</v>
@@ -11911,25 +11933,25 @@
     </row>
     <row r="256" spans="1:10" ht="15.75">
       <c r="A256" s="9" t="s">
+        <v>1001</v>
+      </c>
+      <c r="B256" s="4" t="s">
         <v>1002</v>
       </c>
-      <c r="B256" s="4" t="s">
-        <v>1003</v>
-      </c>
       <c r="C256" s="9" t="s">
+        <v>999</v>
+      </c>
+      <c r="D256" s="4" t="s">
         <v>1000</v>
       </c>
-      <c r="D256" s="4" t="s">
-        <v>1001</v>
-      </c>
       <c r="E256" s="9" t="s">
+        <v>997</v>
+      </c>
+      <c r="F256" s="4" t="s">
         <v>998</v>
       </c>
-      <c r="F256" s="4" t="s">
-        <v>999</v>
-      </c>
       <c r="G256" s="9" t="s">
-        <v>1319</v>
+        <v>1317</v>
       </c>
       <c r="H256" s="9" t="s">
         <v>4</v>
@@ -11939,25 +11961,25 @@
     </row>
     <row r="257" spans="1:10" ht="15.75">
       <c r="A257" s="9" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="B257" s="4" t="s">
+        <v>1004</v>
+      </c>
+      <c r="C257" s="9" t="s">
         <v>1005</v>
       </c>
-      <c r="C257" s="9" t="s">
-        <v>1006</v>
-      </c>
       <c r="D257" s="4" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="E257" s="9" t="s">
+        <v>1003</v>
+      </c>
+      <c r="F257" s="4" t="s">
         <v>1004</v>
       </c>
-      <c r="F257" s="4" t="s">
-        <v>1005</v>
-      </c>
       <c r="G257" s="9" t="s">
-        <v>1319</v>
+        <v>1317</v>
       </c>
       <c r="H257" s="9" t="s">
         <v>4</v>
@@ -11967,25 +11989,25 @@
     </row>
     <row r="258" spans="1:10" ht="15.75">
       <c r="A258" s="9" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="B258" s="4" t="s">
+        <v>1008</v>
+      </c>
+      <c r="C258" s="9" t="s">
         <v>1009</v>
       </c>
-      <c r="C258" s="9" t="s">
-        <v>1010</v>
-      </c>
       <c r="D258" s="4" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="E258" s="9" t="s">
+        <v>1007</v>
+      </c>
+      <c r="F258" s="4" t="s">
         <v>1008</v>
       </c>
-      <c r="F258" s="4" t="s">
-        <v>1009</v>
-      </c>
       <c r="G258" s="9" t="s">
-        <v>1319</v>
+        <v>1317</v>
       </c>
       <c r="H258" s="9" t="s">
         <v>4</v>
@@ -11995,25 +12017,25 @@
     </row>
     <row r="259" spans="1:10" ht="15.75">
       <c r="A259" s="9" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="B259" s="4" t="s">
+        <v>1012</v>
+      </c>
+      <c r="C259" s="9" t="s">
         <v>1013</v>
       </c>
-      <c r="C259" s="9" t="s">
-        <v>1014</v>
-      </c>
       <c r="D259" s="4" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="E259" s="9" t="s">
+        <v>1011</v>
+      </c>
+      <c r="F259" s="4" t="s">
         <v>1012</v>
       </c>
-      <c r="F259" s="4" t="s">
-        <v>1013</v>
-      </c>
       <c r="G259" s="9" t="s">
-        <v>1319</v>
+        <v>1317</v>
       </c>
       <c r="H259" s="9" t="s">
         <v>4</v>
@@ -12023,25 +12045,25 @@
     </row>
     <row r="260" spans="1:10" ht="15.75">
       <c r="A260" s="9" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="B260" s="4" t="s">
+        <v>1016</v>
+      </c>
+      <c r="C260" s="9" t="s">
         <v>1017</v>
       </c>
-      <c r="C260" s="9" t="s">
-        <v>1018</v>
-      </c>
       <c r="D260" s="4" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="E260" s="9" t="s">
+        <v>1015</v>
+      </c>
+      <c r="F260" s="4" t="s">
         <v>1016</v>
       </c>
-      <c r="F260" s="4" t="s">
-        <v>1017</v>
-      </c>
       <c r="G260" s="9" t="s">
-        <v>1319</v>
+        <v>1317</v>
       </c>
       <c r="H260" s="9" t="s">
         <v>4</v>
@@ -12051,25 +12073,25 @@
     </row>
     <row r="261" spans="1:10" ht="15.75">
       <c r="A261" s="9" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="B261" s="4" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="C261" s="9" t="s">
+        <v>1021</v>
+      </c>
+      <c r="D261" s="4" t="s">
         <v>1022</v>
       </c>
-      <c r="D261" s="4" t="s">
-        <v>1023</v>
-      </c>
       <c r="E261" s="9" t="s">
+        <v>1019</v>
+      </c>
+      <c r="F261" s="4" t="s">
         <v>1020</v>
       </c>
-      <c r="F261" s="4" t="s">
-        <v>1021</v>
-      </c>
       <c r="G261" s="9" t="s">
-        <v>1319</v>
+        <v>1317</v>
       </c>
       <c r="H261" s="9" t="s">
         <v>4</v>
@@ -12079,25 +12101,25 @@
     </row>
     <row r="262" spans="1:10" ht="15.75">
       <c r="A262" s="9" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="B262" s="4" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="C262" s="9" t="s">
+        <v>1026</v>
+      </c>
+      <c r="D262" s="4" t="s">
         <v>1027</v>
       </c>
-      <c r="D262" s="4" t="s">
-        <v>1028</v>
-      </c>
       <c r="E262" s="9" t="s">
+        <v>1024</v>
+      </c>
+      <c r="F262" s="4" t="s">
         <v>1025</v>
       </c>
-      <c r="F262" s="4" t="s">
-        <v>1026</v>
-      </c>
       <c r="G262" s="9" t="s">
-        <v>1319</v>
+        <v>1317</v>
       </c>
       <c r="H262" s="9" t="s">
         <v>4</v>
@@ -12107,25 +12129,25 @@
     </row>
     <row r="263" spans="1:10" ht="15.75">
       <c r="A263" s="9" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="B263" s="4" t="s">
+        <v>1029</v>
+      </c>
+      <c r="C263" s="9" t="s">
         <v>1030</v>
       </c>
-      <c r="C263" s="9" t="s">
-        <v>1031</v>
-      </c>
       <c r="D263" s="4" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="E263" s="9" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="F263" s="4" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="G263" s="9" t="s">
-        <v>1319</v>
+        <v>1317</v>
       </c>
       <c r="H263" s="9" t="s">
         <v>4</v>
@@ -12135,52 +12157,52 @@
     </row>
     <row r="264" spans="1:10" ht="15.75">
       <c r="A264" s="9" t="s">
+        <v>1035</v>
+      </c>
+      <c r="B264" s="4" t="s">
         <v>1036</v>
       </c>
-      <c r="B264" s="4" t="s">
-        <v>1037</v>
-      </c>
       <c r="C264" s="9" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="D264" s="4" t="s">
+        <v>1032</v>
+      </c>
+      <c r="E264" s="9" t="s">
+        <v>847</v>
+      </c>
+      <c r="F264" s="4" t="s">
+        <v>1032</v>
+      </c>
+      <c r="G264" s="9" t="s">
+        <v>1317</v>
+      </c>
+      <c r="H264" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="I264" s="9" t="s">
         <v>1033</v>
-      </c>
-      <c r="E264" s="9" t="s">
-        <v>848</v>
-      </c>
-      <c r="F264" s="4" t="s">
-        <v>1033</v>
-      </c>
-      <c r="G264" s="9" t="s">
-        <v>1319</v>
-      </c>
-      <c r="H264" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="I264" s="9" t="s">
-        <v>1034</v>
       </c>
       <c r="J264" s="5"/>
     </row>
     <row r="265" spans="1:10" ht="15.75">
       <c r="A265" s="9" t="s">
+        <v>1040</v>
+      </c>
+      <c r="B265" s="4" t="s">
         <v>1041</v>
       </c>
-      <c r="B265" s="4" t="s">
-        <v>1042</v>
-      </c>
       <c r="C265" s="9" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="D265" s="4" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
       <c r="E265" s="9" t="s">
+        <v>1037</v>
+      </c>
+      <c r="F265" s="4" t="s">
         <v>1038</v>
-      </c>
-      <c r="F265" s="4" t="s">
-        <v>1039</v>
       </c>
       <c r="G265" s="9" t="s">
         <v>12</v>
@@ -12189,28 +12211,28 @@
         <v>7</v>
       </c>
       <c r="I265" s="9" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
       <c r="J265" s="5"/>
     </row>
     <row r="266" spans="1:10" ht="15.75">
       <c r="A266" s="9" t="s">
+        <v>1046</v>
+      </c>
+      <c r="B266" s="4" t="s">
         <v>1047</v>
       </c>
-      <c r="B266" s="4" t="s">
-        <v>1048</v>
-      </c>
       <c r="C266" s="9" t="s">
+        <v>1044</v>
+      </c>
+      <c r="D266" s="4" t="s">
         <v>1045</v>
       </c>
-      <c r="D266" s="4" t="s">
-        <v>1046</v>
-      </c>
       <c r="E266" s="9" t="s">
+        <v>1042</v>
+      </c>
+      <c r="F266" s="4" t="s">
         <v>1043</v>
-      </c>
-      <c r="F266" s="4" t="s">
-        <v>1044</v>
       </c>
       <c r="G266" s="9" t="s">
         <v>12</v>
@@ -12219,28 +12241,28 @@
         <v>7</v>
       </c>
       <c r="I266" s="9" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
       <c r="J266" s="5"/>
     </row>
     <row r="267" spans="1:10" ht="15.75">
       <c r="A267" s="9" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
       <c r="B267" s="4" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="C267" s="9" t="s">
+        <v>1050</v>
+      </c>
+      <c r="D267" s="4" t="s">
         <v>1051</v>
       </c>
-      <c r="D267" s="4" t="s">
-        <v>1052</v>
-      </c>
       <c r="E267" s="9" t="s">
+        <v>1048</v>
+      </c>
+      <c r="F267" s="4" t="s">
         <v>1049</v>
-      </c>
-      <c r="F267" s="4" t="s">
-        <v>1050</v>
       </c>
       <c r="G267" s="9" t="s">
         <v>12</v>
@@ -12249,28 +12271,28 @@
         <v>7</v>
       </c>
       <c r="I267" s="9" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
       <c r="J267" s="5"/>
     </row>
     <row r="268" spans="1:10" ht="15.75">
       <c r="A268" s="9" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="B268" s="4" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="C268" s="9" t="s">
+        <v>1055</v>
+      </c>
+      <c r="D268" s="4" t="s">
         <v>1056</v>
       </c>
-      <c r="D268" s="4" t="s">
-        <v>1057</v>
-      </c>
       <c r="E268" s="9" t="s">
+        <v>1053</v>
+      </c>
+      <c r="F268" s="4" t="s">
         <v>1054</v>
-      </c>
-      <c r="F268" s="4" t="s">
-        <v>1055</v>
       </c>
       <c r="G268" s="9" t="s">
         <v>12</v>
@@ -12279,28 +12301,28 @@
         <v>7</v>
       </c>
       <c r="I268" s="9" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
       <c r="J268" s="5"/>
     </row>
     <row r="269" spans="1:10" ht="15.75">
       <c r="A269" s="9" t="s">
+        <v>1062</v>
+      </c>
+      <c r="B269" s="4" t="s">
         <v>1063</v>
       </c>
-      <c r="B269" s="4" t="s">
-        <v>1064</v>
-      </c>
       <c r="C269" s="9" t="s">
+        <v>1060</v>
+      </c>
+      <c r="D269" s="4" t="s">
         <v>1061</v>
       </c>
-      <c r="D269" s="4" t="s">
-        <v>1062</v>
-      </c>
       <c r="E269" s="9" t="s">
+        <v>1058</v>
+      </c>
+      <c r="F269" s="4" t="s">
         <v>1059</v>
-      </c>
-      <c r="F269" s="4" t="s">
-        <v>1060</v>
       </c>
       <c r="G269" s="9" t="s">
         <v>12</v>
@@ -12309,28 +12331,28 @@
         <v>7</v>
       </c>
       <c r="I269" s="9" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
       <c r="J269" s="5"/>
     </row>
     <row r="270" spans="1:10" ht="15.75">
       <c r="A270" s="9" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="B270" s="4" t="s">
+        <v>1064</v>
+      </c>
+      <c r="C270" s="9" t="s">
         <v>1065</v>
       </c>
-      <c r="C270" s="9" t="s">
-        <v>1066</v>
-      </c>
       <c r="D270" s="4" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="E270" s="9" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="F270" s="4" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="G270" s="9" t="s">
         <v>12</v>
@@ -12343,25 +12365,25 @@
     </row>
     <row r="271" spans="1:10" ht="15.75">
       <c r="A271" s="9" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="B271" s="4" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="C271" s="9" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="D271" s="4" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="E271" s="9" t="s">
+        <v>1067</v>
+      </c>
+      <c r="F271" s="4" t="s">
         <v>1068</v>
       </c>
-      <c r="F271" s="4" t="s">
-        <v>1069</v>
-      </c>
       <c r="G271" s="9" t="s">
-        <v>1320</v>
+        <v>1318</v>
       </c>
       <c r="H271" s="9" t="s">
         <v>4</v>
@@ -12371,25 +12393,25 @@
     </row>
     <row r="272" spans="1:10" ht="15.75">
       <c r="A272" s="9" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="B272" s="4" t="s">
+        <v>1071</v>
+      </c>
+      <c r="C272" s="9" t="s">
         <v>1072</v>
       </c>
-      <c r="C272" s="9" t="s">
-        <v>1073</v>
-      </c>
       <c r="D272" s="4" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
       <c r="E272" s="9" t="s">
+        <v>1070</v>
+      </c>
+      <c r="F272" s="4" t="s">
         <v>1071</v>
       </c>
-      <c r="F272" s="4" t="s">
-        <v>1072</v>
-      </c>
       <c r="G272" s="9" t="s">
-        <v>1319</v>
+        <v>1317</v>
       </c>
       <c r="H272" s="9" t="s">
         <v>4</v>
@@ -12399,22 +12421,22 @@
     </row>
     <row r="273" spans="1:10" ht="15.75">
       <c r="A273" s="9" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
       <c r="B273" s="4" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="C273" s="9" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="D273" s="4" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="E273" s="9" t="s">
+        <v>1074</v>
+      </c>
+      <c r="F273" s="4" t="s">
         <v>1075</v>
-      </c>
-      <c r="F273" s="4" t="s">
-        <v>1076</v>
       </c>
       <c r="G273" s="9" t="s">
         <v>12</v>
@@ -12423,121 +12445,121 @@
         <v>4</v>
       </c>
       <c r="I273" s="9" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="J273" s="5"/>
     </row>
     <row r="274" spans="1:10" ht="15.75">
       <c r="A274" s="9" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="B274" s="4" t="s">
+        <v>1080</v>
+      </c>
+      <c r="C274" s="9" t="s">
         <v>1081</v>
       </c>
-      <c r="C274" s="9" t="s">
-        <v>1082</v>
-      </c>
       <c r="D274" s="4" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="E274" s="9" t="s">
+        <v>1079</v>
+      </c>
+      <c r="F274" s="4" t="s">
         <v>1080</v>
       </c>
-      <c r="F274" s="4" t="s">
-        <v>1081</v>
-      </c>
       <c r="G274" s="9" t="s">
-        <v>1319</v>
+        <v>1317</v>
       </c>
       <c r="H274" s="9" t="s">
         <v>7</v>
       </c>
       <c r="I274" s="9" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="J274" s="5"/>
     </row>
     <row r="275" spans="1:10" ht="15.75">
       <c r="A275" s="9" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
       <c r="B275" s="4" t="s">
+        <v>1084</v>
+      </c>
+      <c r="C275" s="9" t="s">
         <v>1085</v>
       </c>
-      <c r="C275" s="9" t="s">
-        <v>1086</v>
-      </c>
       <c r="D275" s="4" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="E275" s="9" t="s">
+        <v>1083</v>
+      </c>
+      <c r="F275" s="4" t="s">
         <v>1084</v>
       </c>
-      <c r="F275" s="4" t="s">
-        <v>1085</v>
-      </c>
       <c r="G275" s="9" t="s">
-        <v>1319</v>
+        <v>1317</v>
       </c>
       <c r="H275" s="9" t="s">
         <v>7</v>
       </c>
       <c r="I275" s="9" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="J275" s="5"/>
     </row>
     <row r="276" spans="1:10" ht="15.75">
       <c r="A276" s="9" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
       <c r="B276" s="4" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
       <c r="C276" s="9" t="s">
+        <v>1089</v>
+      </c>
+      <c r="D276" s="4" t="s">
         <v>1090</v>
       </c>
-      <c r="D276" s="4" t="s">
-        <v>1091</v>
-      </c>
       <c r="E276" s="9" t="s">
+        <v>1087</v>
+      </c>
+      <c r="F276" s="4" t="s">
         <v>1088</v>
       </c>
-      <c r="F276" s="4" t="s">
-        <v>1089</v>
-      </c>
       <c r="G276" s="9" t="s">
-        <v>1319</v>
+        <v>1317</v>
       </c>
       <c r="H276" s="9" t="s">
         <v>7</v>
       </c>
       <c r="I276" s="9" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="J276" s="5"/>
     </row>
     <row r="277" spans="1:10" ht="15.75">
       <c r="A277" s="9" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="B277" s="4" t="s">
+        <v>1093</v>
+      </c>
+      <c r="C277" s="9" t="s">
         <v>1094</v>
       </c>
-      <c r="C277" s="9" t="s">
-        <v>1095</v>
-      </c>
       <c r="D277" s="4" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
       <c r="E277" s="9" t="s">
+        <v>1092</v>
+      </c>
+      <c r="F277" s="4" t="s">
         <v>1093</v>
       </c>
-      <c r="F277" s="4" t="s">
-        <v>1094</v>
-      </c>
       <c r="G277" s="9" t="s">
-        <v>1319</v>
+        <v>1317</v>
       </c>
       <c r="H277" s="9" t="s">
         <v>7</v>
@@ -12547,25 +12569,25 @@
     </row>
     <row r="278" spans="1:10" ht="15.75">
       <c r="A278" s="9" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
       <c r="B278" s="4" t="s">
+        <v>1097</v>
+      </c>
+      <c r="C278" s="9" t="s">
         <v>1098</v>
       </c>
-      <c r="C278" s="9" t="s">
-        <v>1099</v>
-      </c>
       <c r="D278" s="4" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="E278" s="9" t="s">
+        <v>1096</v>
+      </c>
+      <c r="F278" s="4" t="s">
         <v>1097</v>
       </c>
-      <c r="F278" s="4" t="s">
-        <v>1098</v>
-      </c>
       <c r="G278" s="9" t="s">
-        <v>1319</v>
+        <v>1317</v>
       </c>
       <c r="H278" s="9" t="s">
         <v>4</v>
@@ -12575,25 +12597,25 @@
     </row>
     <row r="279" spans="1:10" ht="15.75">
       <c r="A279" s="9" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="B279" s="4" t="s">
+        <v>1101</v>
+      </c>
+      <c r="C279" s="9" t="s">
         <v>1102</v>
       </c>
-      <c r="C279" s="9" t="s">
-        <v>1103</v>
-      </c>
       <c r="D279" s="4" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="E279" s="9" t="s">
+        <v>1100</v>
+      </c>
+      <c r="F279" s="4" t="s">
         <v>1101</v>
       </c>
-      <c r="F279" s="4" t="s">
-        <v>1102</v>
-      </c>
       <c r="G279" s="9" t="s">
-        <v>1319</v>
+        <v>1317</v>
       </c>
       <c r="H279" s="9" t="s">
         <v>4</v>
@@ -12603,25 +12625,25 @@
     </row>
     <row r="280" spans="1:10" ht="15.75">
       <c r="A280" s="9" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="B280" s="4" t="s">
+        <v>1105</v>
+      </c>
+      <c r="C280" s="9" t="s">
         <v>1106</v>
       </c>
-      <c r="C280" s="9" t="s">
-        <v>1107</v>
-      </c>
       <c r="D280" s="4" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="E280" s="9" t="s">
+        <v>1104</v>
+      </c>
+      <c r="F280" s="4" t="s">
         <v>1105</v>
       </c>
-      <c r="F280" s="4" t="s">
-        <v>1106</v>
-      </c>
       <c r="G280" s="9" t="s">
-        <v>1319</v>
+        <v>1317</v>
       </c>
       <c r="H280" s="9" t="s">
         <v>4</v>
@@ -12631,25 +12653,25 @@
     </row>
     <row r="281" spans="1:10" ht="15.75">
       <c r="A281" s="9" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
       <c r="B281" s="4" t="s">
+        <v>1109</v>
+      </c>
+      <c r="C281" s="9" t="s">
         <v>1110</v>
       </c>
-      <c r="C281" s="9" t="s">
-        <v>1111</v>
-      </c>
       <c r="D281" s="4" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
       <c r="E281" s="9" t="s">
+        <v>1108</v>
+      </c>
+      <c r="F281" s="4" t="s">
         <v>1109</v>
       </c>
-      <c r="F281" s="4" t="s">
-        <v>1110</v>
-      </c>
       <c r="G281" s="9" t="s">
-        <v>1319</v>
+        <v>1317</v>
       </c>
       <c r="H281" s="9" t="s">
         <v>4</v>
@@ -12659,25 +12681,25 @@
     </row>
     <row r="282" spans="1:10" ht="15.75">
       <c r="A282" s="9" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
       <c r="B282" s="4" t="s">
+        <v>1113</v>
+      </c>
+      <c r="C282" s="9" t="s">
         <v>1114</v>
       </c>
-      <c r="C282" s="9" t="s">
-        <v>1115</v>
-      </c>
       <c r="D282" s="4" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
       <c r="E282" s="9" t="s">
+        <v>1112</v>
+      </c>
+      <c r="F282" s="4" t="s">
         <v>1113</v>
       </c>
-      <c r="F282" s="4" t="s">
-        <v>1114</v>
-      </c>
       <c r="G282" s="9" t="s">
-        <v>1319</v>
+        <v>1317</v>
       </c>
       <c r="H282" s="9" t="s">
         <v>4</v>
@@ -12687,25 +12709,25 @@
     </row>
     <row r="283" spans="1:10" ht="15.75">
       <c r="A283" s="9" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
       <c r="B283" s="4" t="s">
+        <v>1117</v>
+      </c>
+      <c r="C283" s="9" t="s">
         <v>1118</v>
       </c>
-      <c r="C283" s="9" t="s">
-        <v>1119</v>
-      </c>
       <c r="D283" s="4" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
       <c r="E283" s="9" t="s">
+        <v>1116</v>
+      </c>
+      <c r="F283" s="4" t="s">
         <v>1117</v>
       </c>
-      <c r="F283" s="4" t="s">
-        <v>1118</v>
-      </c>
       <c r="G283" s="9" t="s">
-        <v>1319</v>
+        <v>1317</v>
       </c>
       <c r="H283" s="9" t="s">
         <v>4</v>
@@ -12715,25 +12737,25 @@
     </row>
     <row r="284" spans="1:10" ht="15.75">
       <c r="A284" s="9" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
       <c r="B284" s="4" t="s">
+        <v>1121</v>
+      </c>
+      <c r="C284" s="9" t="s">
         <v>1122</v>
       </c>
-      <c r="C284" s="9" t="s">
-        <v>1123</v>
-      </c>
       <c r="D284" s="4" t="s">
-        <v>1122</v>
+        <v>1121</v>
       </c>
       <c r="E284" s="9" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
       <c r="F284" s="4" t="s">
-        <v>1335</v>
+        <v>1333</v>
       </c>
       <c r="G284" s="9" t="s">
-        <v>1319</v>
+        <v>1317</v>
       </c>
       <c r="H284" s="9" t="s">
         <v>4</v>
@@ -12743,25 +12765,25 @@
     </row>
     <row r="285" spans="1:10" ht="15.75">
       <c r="A285" s="9" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
       <c r="B285" s="4" t="s">
+        <v>1125</v>
+      </c>
+      <c r="C285" s="9" t="s">
         <v>1126</v>
       </c>
-      <c r="C285" s="9" t="s">
-        <v>1127</v>
-      </c>
       <c r="D285" s="4" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
       <c r="E285" s="9" t="s">
+        <v>1124</v>
+      </c>
+      <c r="F285" s="4" t="s">
         <v>1125</v>
       </c>
-      <c r="F285" s="4" t="s">
-        <v>1126</v>
-      </c>
       <c r="G285" s="9" t="s">
-        <v>1319</v>
+        <v>1317</v>
       </c>
       <c r="H285" s="9" t="s">
         <v>4</v>
@@ -12771,25 +12793,25 @@
     </row>
     <row r="286" spans="1:10" ht="15.75">
       <c r="A286" s="9" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
       <c r="B286" s="4" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="C286" s="9" t="s">
+        <v>1130</v>
+      </c>
+      <c r="D286" s="4" t="s">
         <v>1131</v>
       </c>
-      <c r="D286" s="4" t="s">
-        <v>1132</v>
-      </c>
       <c r="E286" s="9" t="s">
+        <v>1128</v>
+      </c>
+      <c r="F286" s="4" t="s">
         <v>1129</v>
       </c>
-      <c r="F286" s="4" t="s">
-        <v>1130</v>
-      </c>
       <c r="G286" s="9" t="s">
-        <v>1319</v>
+        <v>1317</v>
       </c>
       <c r="H286" s="9" t="s">
         <v>4</v>
@@ -12799,25 +12821,25 @@
     </row>
     <row r="287" spans="1:10" ht="15.75">
       <c r="A287" s="9" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
       <c r="B287" s="4" t="s">
+        <v>1134</v>
+      </c>
+      <c r="C287" s="9" t="s">
         <v>1135</v>
       </c>
-      <c r="C287" s="9" t="s">
-        <v>1136</v>
-      </c>
       <c r="D287" s="4" t="s">
-        <v>1135</v>
+        <v>1134</v>
       </c>
       <c r="E287" s="9" t="s">
+        <v>1133</v>
+      </c>
+      <c r="F287" s="4" t="s">
         <v>1134</v>
       </c>
-      <c r="F287" s="4" t="s">
-        <v>1135</v>
-      </c>
       <c r="G287" s="9" t="s">
-        <v>1319</v>
+        <v>1317</v>
       </c>
       <c r="H287" s="9" t="s">
         <v>4</v>
@@ -12827,25 +12849,25 @@
     </row>
     <row r="288" spans="1:10" ht="15.75">
       <c r="A288" s="9" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
       <c r="B288" s="4" t="s">
-        <v>1333</v>
+        <v>1331</v>
       </c>
       <c r="C288" s="9" t="s">
+        <v>1138</v>
+      </c>
+      <c r="D288" s="4" t="s">
         <v>1139</v>
       </c>
-      <c r="D288" s="4" t="s">
-        <v>1140</v>
-      </c>
       <c r="E288" s="9" t="s">
-        <v>1293</v>
+        <v>1291</v>
       </c>
       <c r="F288" s="4" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
       <c r="G288" s="9" t="s">
-        <v>1319</v>
+        <v>1317</v>
       </c>
       <c r="H288" s="9" t="s">
         <v>4</v>
@@ -12855,265 +12877,265 @@
     </row>
     <row r="289" spans="1:10" ht="15.75">
       <c r="A289" s="9" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="B289" s="4" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="C289" s="9" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="D289" s="4" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="E289" s="9" t="s">
+        <v>1141</v>
+      </c>
+      <c r="F289" s="4" t="s">
         <v>1142</v>
       </c>
-      <c r="F289" s="4" t="s">
+      <c r="G289" s="9" t="s">
+        <v>1317</v>
+      </c>
+      <c r="H289" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="I289" s="9" t="s">
         <v>1143</v>
-      </c>
-      <c r="G289" s="9" t="s">
-        <v>1319</v>
-      </c>
-      <c r="H289" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="I289" s="9" t="s">
-        <v>1144</v>
       </c>
       <c r="J289" s="5"/>
     </row>
     <row r="290" spans="1:10" ht="15.75">
       <c r="A290" s="9" t="s">
-        <v>1318</v>
+        <v>1316</v>
       </c>
       <c r="B290" s="4" t="s">
-        <v>1318</v>
+        <v>1316</v>
       </c>
       <c r="C290" s="9" t="s">
-        <v>1318</v>
+        <v>1316</v>
       </c>
       <c r="D290" s="4" t="s">
-        <v>1318</v>
+        <v>1316</v>
       </c>
       <c r="E290" s="9" t="s">
+        <v>1146</v>
+      </c>
+      <c r="F290" s="4" t="s">
         <v>1147</v>
       </c>
-      <c r="F290" s="4" t="s">
-        <v>1148</v>
-      </c>
       <c r="G290" s="9" t="s">
-        <v>1319</v>
+        <v>1317</v>
       </c>
       <c r="H290" s="9" t="s">
         <v>7</v>
       </c>
       <c r="I290" s="9" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="J290" s="5"/>
     </row>
     <row r="291" spans="1:10" ht="15.75">
       <c r="A291" s="9" t="s">
-        <v>1318</v>
+        <v>1316</v>
       </c>
       <c r="B291" s="4" t="s">
-        <v>1318</v>
+        <v>1316</v>
       </c>
       <c r="C291" s="9" t="s">
-        <v>1318</v>
+        <v>1316</v>
       </c>
       <c r="D291" s="4" t="s">
-        <v>1318</v>
+        <v>1316</v>
       </c>
       <c r="E291" s="9" t="s">
+        <v>1148</v>
+      </c>
+      <c r="F291" s="4" t="s">
         <v>1149</v>
       </c>
-      <c r="F291" s="4" t="s">
-        <v>1150</v>
-      </c>
       <c r="G291" s="9" t="s">
-        <v>1319</v>
+        <v>1317</v>
       </c>
       <c r="H291" s="9" t="s">
         <v>7</v>
       </c>
       <c r="I291" s="9" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="J291" s="5"/>
     </row>
     <row r="292" spans="1:10" ht="15.75">
       <c r="A292" s="9" t="s">
-        <v>1318</v>
+        <v>1316</v>
       </c>
       <c r="B292" s="4" t="s">
-        <v>1318</v>
+        <v>1316</v>
       </c>
       <c r="C292" s="9" t="s">
-        <v>1318</v>
+        <v>1316</v>
       </c>
       <c r="D292" s="4" t="s">
-        <v>1318</v>
+        <v>1316</v>
       </c>
       <c r="E292" s="9" t="s">
+        <v>1150</v>
+      </c>
+      <c r="F292" s="4" t="s">
         <v>1151</v>
       </c>
-      <c r="F292" s="4" t="s">
-        <v>1152</v>
-      </c>
       <c r="G292" s="9" t="s">
-        <v>1319</v>
+        <v>1317</v>
       </c>
       <c r="H292" s="9" t="s">
         <v>7</v>
       </c>
       <c r="I292" s="9" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="J292" s="5"/>
     </row>
     <row r="293" spans="1:10" ht="15.75">
       <c r="A293" s="9" t="s">
-        <v>1318</v>
+        <v>1316</v>
       </c>
       <c r="B293" s="4" t="s">
-        <v>1318</v>
+        <v>1316</v>
       </c>
       <c r="C293" s="9" t="s">
-        <v>1318</v>
+        <v>1316</v>
       </c>
       <c r="D293" s="4" t="s">
-        <v>1318</v>
+        <v>1316</v>
       </c>
       <c r="E293" s="9" t="s">
+        <v>1152</v>
+      </c>
+      <c r="F293" s="4" t="s">
         <v>1153</v>
       </c>
-      <c r="F293" s="4" t="s">
-        <v>1154</v>
-      </c>
       <c r="G293" s="9" t="s">
-        <v>1319</v>
+        <v>1317</v>
       </c>
       <c r="H293" s="9" t="s">
         <v>7</v>
       </c>
       <c r="I293" s="9" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="J293" s="5"/>
     </row>
     <row r="294" spans="1:10" ht="15.75">
       <c r="A294" s="9" t="s">
-        <v>1318</v>
+        <v>1316</v>
       </c>
       <c r="B294" s="4" t="s">
-        <v>1318</v>
+        <v>1316</v>
       </c>
       <c r="C294" s="9" t="s">
-        <v>1318</v>
+        <v>1316</v>
       </c>
       <c r="D294" s="4" t="s">
-        <v>1318</v>
+        <v>1316</v>
       </c>
       <c r="E294" s="9" t="s">
+        <v>1154</v>
+      </c>
+      <c r="F294" s="4" t="s">
         <v>1155</v>
       </c>
-      <c r="F294" s="4" t="s">
-        <v>1156</v>
-      </c>
       <c r="G294" s="9" t="s">
-        <v>1319</v>
+        <v>1317</v>
       </c>
       <c r="H294" s="9" t="s">
         <v>7</v>
       </c>
       <c r="I294" s="9" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="J294" s="5"/>
     </row>
     <row r="295" spans="1:10" ht="15.75">
       <c r="A295" s="9" t="s">
-        <v>1318</v>
+        <v>1316</v>
       </c>
       <c r="B295" s="4" t="s">
-        <v>1318</v>
+        <v>1316</v>
       </c>
       <c r="C295" s="9" t="s">
-        <v>1318</v>
+        <v>1316</v>
       </c>
       <c r="D295" s="4" t="s">
-        <v>1318</v>
+        <v>1316</v>
       </c>
       <c r="E295" s="9" t="s">
+        <v>1156</v>
+      </c>
+      <c r="F295" s="4" t="s">
         <v>1157</v>
       </c>
-      <c r="F295" s="4" t="s">
-        <v>1158</v>
-      </c>
       <c r="G295" s="9" t="s">
-        <v>1319</v>
+        <v>1317</v>
       </c>
       <c r="H295" s="9" t="s">
         <v>7</v>
       </c>
       <c r="I295" s="9" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="J295" s="5"/>
     </row>
     <row r="296" spans="1:10" ht="15.75">
       <c r="A296" s="9" t="s">
-        <v>1318</v>
+        <v>1316</v>
       </c>
       <c r="B296" s="4" t="s">
-        <v>1318</v>
+        <v>1316</v>
       </c>
       <c r="C296" s="9" t="s">
-        <v>1318</v>
+        <v>1316</v>
       </c>
       <c r="D296" s="4" t="s">
-        <v>1318</v>
+        <v>1316</v>
       </c>
       <c r="E296" s="9" t="s">
+        <v>1158</v>
+      </c>
+      <c r="F296" s="4" t="s">
         <v>1159</v>
       </c>
-      <c r="F296" s="4" t="s">
-        <v>1160</v>
-      </c>
       <c r="G296" s="9" t="s">
-        <v>1319</v>
+        <v>1317</v>
       </c>
       <c r="H296" s="9" t="s">
         <v>7</v>
       </c>
       <c r="I296" s="9" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="J296" s="5"/>
     </row>
     <row r="297" spans="1:10" ht="15.75">
       <c r="A297" s="9" t="s">
-        <v>1165</v>
+        <v>1164</v>
       </c>
       <c r="B297" s="4" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="C297" s="9" t="s">
+        <v>1162</v>
+      </c>
+      <c r="D297" s="4" t="s">
         <v>1163</v>
       </c>
-      <c r="D297" s="4" t="s">
-        <v>1164</v>
-      </c>
       <c r="E297" s="9" t="s">
+        <v>1160</v>
+      </c>
+      <c r="F297" s="4" t="s">
         <v>1161</v>
       </c>
-      <c r="F297" s="4" t="s">
-        <v>1162</v>
-      </c>
       <c r="G297" s="9" t="s">
-        <v>1319</v>
+        <v>1317</v>
       </c>
       <c r="H297" s="9" t="s">
         <v>7</v>
@@ -13123,25 +13145,25 @@
     </row>
     <row r="298" spans="1:10" ht="15.75">
       <c r="A298" s="9" t="s">
-        <v>1169</v>
+        <v>1168</v>
       </c>
       <c r="B298" s="4" t="s">
+        <v>1166</v>
+      </c>
+      <c r="C298" s="9" t="s">
         <v>1167</v>
       </c>
-      <c r="C298" s="9" t="s">
-        <v>1168</v>
-      </c>
       <c r="D298" s="4" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
       <c r="E298" s="9" t="s">
+        <v>1165</v>
+      </c>
+      <c r="F298" s="4" t="s">
         <v>1166</v>
       </c>
-      <c r="F298" s="4" t="s">
-        <v>1167</v>
-      </c>
       <c r="G298" s="9" t="s">
-        <v>1319</v>
+        <v>1317</v>
       </c>
       <c r="H298" s="9" t="s">
         <v>4</v>
@@ -13151,232 +13173,232 @@
     </row>
     <row r="299" spans="1:10" ht="15.75">
       <c r="A299" s="9" t="s">
-        <v>1175</v>
+        <v>1174</v>
       </c>
       <c r="B299" s="4" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="C299" s="9" t="s">
+        <v>1172</v>
+      </c>
+      <c r="D299" s="4" t="s">
         <v>1173</v>
       </c>
-      <c r="D299" s="4" t="s">
-        <v>1174</v>
-      </c>
       <c r="E299" s="9" t="s">
+        <v>1169</v>
+      </c>
+      <c r="F299" s="4" t="s">
         <v>1170</v>
       </c>
-      <c r="F299" s="4" t="s">
-        <v>1171</v>
-      </c>
       <c r="G299" s="9" t="s">
-        <v>1320</v>
+        <v>1318</v>
       </c>
       <c r="H299" s="9" t="s">
         <v>4</v>
       </c>
       <c r="I299" s="9" t="s">
-        <v>1172</v>
+        <v>1343</v>
       </c>
       <c r="J299" s="5"/>
     </row>
     <row r="300" spans="1:10" ht="15.75">
       <c r="A300" s="9" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
       <c r="B300" s="4" t="s">
-        <v>1179</v>
+        <v>1178</v>
       </c>
       <c r="C300" s="9" t="s">
+        <v>1177</v>
+      </c>
+      <c r="D300" s="4" t="s">
         <v>1178</v>
       </c>
-      <c r="D300" s="4" t="s">
-        <v>1179</v>
-      </c>
       <c r="E300" s="9" t="s">
+        <v>1175</v>
+      </c>
+      <c r="F300" s="4" t="s">
         <v>1176</v>
       </c>
-      <c r="F300" s="4" t="s">
-        <v>1177</v>
-      </c>
       <c r="G300" s="9" t="s">
-        <v>1319</v>
+        <v>1317</v>
       </c>
       <c r="H300" s="9" t="s">
         <v>7</v>
       </c>
       <c r="I300" s="9" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="J300" s="5"/>
     </row>
     <row r="301" spans="1:10" ht="15.75">
       <c r="A301" s="9" t="s">
-        <v>1184</v>
+        <v>1183</v>
       </c>
       <c r="B301" s="4" t="s">
+        <v>1181</v>
+      </c>
+      <c r="C301" s="9" t="s">
         <v>1182</v>
       </c>
-      <c r="C301" s="9" t="s">
-        <v>1183</v>
-      </c>
       <c r="D301" s="4" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
       <c r="E301" s="9" t="s">
+        <v>1180</v>
+      </c>
+      <c r="F301" s="4" t="s">
         <v>1181</v>
       </c>
-      <c r="F301" s="4" t="s">
-        <v>1182</v>
-      </c>
       <c r="G301" s="9" t="s">
-        <v>1319</v>
+        <v>1317</v>
       </c>
       <c r="H301" s="9" t="s">
         <v>7</v>
       </c>
       <c r="I301" s="9" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="J301" s="5"/>
     </row>
     <row r="302" spans="1:10" ht="15.75">
       <c r="A302" s="9" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
       <c r="B302" s="4" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
       <c r="C302" s="9" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="D302" s="4" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
       <c r="E302" s="9" t="s">
+        <v>1184</v>
+      </c>
+      <c r="F302" s="4" t="s">
         <v>1185</v>
       </c>
-      <c r="F302" s="4" t="s">
-        <v>1186</v>
-      </c>
       <c r="G302" s="9" t="s">
-        <v>1319</v>
+        <v>1317</v>
       </c>
       <c r="H302" s="9" t="s">
         <v>7</v>
       </c>
       <c r="I302" s="9" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="J302" s="5"/>
     </row>
     <row r="303" spans="1:10" ht="15.75">
       <c r="A303" s="9" t="s">
-        <v>1192</v>
+        <v>1191</v>
       </c>
       <c r="B303" s="4" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
       <c r="C303" s="9" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="D303" s="4" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
       <c r="E303" s="9" t="s">
+        <v>1188</v>
+      </c>
+      <c r="F303" s="4" t="s">
         <v>1189</v>
       </c>
-      <c r="F303" s="4" t="s">
-        <v>1190</v>
-      </c>
       <c r="G303" s="9" t="s">
-        <v>1319</v>
+        <v>1317</v>
       </c>
       <c r="H303" s="9" t="s">
         <v>7</v>
       </c>
       <c r="I303" s="9" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="J303" s="5"/>
     </row>
     <row r="304" spans="1:10" ht="15.75">
       <c r="A304" s="9" t="s">
-        <v>1197</v>
+        <v>1196</v>
       </c>
       <c r="B304" s="4" t="s">
+        <v>1193</v>
+      </c>
+      <c r="C304" s="9" t="s">
+        <v>1195</v>
+      </c>
+      <c r="D304" s="4" t="s">
+        <v>1193</v>
+      </c>
+      <c r="E304" s="9" t="s">
+        <v>1192</v>
+      </c>
+      <c r="F304" s="4" t="s">
+        <v>1193</v>
+      </c>
+      <c r="G304" s="9" t="s">
+        <v>1317</v>
+      </c>
+      <c r="H304" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="I304" s="6" t="s">
         <v>1194</v>
-      </c>
-      <c r="C304" s="9" t="s">
-        <v>1196</v>
-      </c>
-      <c r="D304" s="4" t="s">
-        <v>1194</v>
-      </c>
-      <c r="E304" s="9" t="s">
-        <v>1193</v>
-      </c>
-      <c r="F304" s="4" t="s">
-        <v>1194</v>
-      </c>
-      <c r="G304" s="9" t="s">
-        <v>1319</v>
-      </c>
-      <c r="H304" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="I304" s="6" t="s">
-        <v>1195</v>
       </c>
       <c r="J304" s="5"/>
     </row>
     <row r="305" spans="1:10" ht="15.75">
       <c r="A305" s="9" t="s">
-        <v>1302</v>
+        <v>1300</v>
       </c>
       <c r="B305" s="4" t="s">
+        <v>1198</v>
+      </c>
+      <c r="C305" s="9" t="s">
+        <v>1200</v>
+      </c>
+      <c r="D305" s="4" t="s">
+        <v>1198</v>
+      </c>
+      <c r="E305" s="9" t="s">
+        <v>1197</v>
+      </c>
+      <c r="F305" s="4" t="s">
+        <v>1198</v>
+      </c>
+      <c r="G305" s="9" t="s">
+        <v>1317</v>
+      </c>
+      <c r="H305" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="I305" s="9" t="s">
         <v>1199</v>
-      </c>
-      <c r="C305" s="9" t="s">
-        <v>1201</v>
-      </c>
-      <c r="D305" s="4" t="s">
-        <v>1199</v>
-      </c>
-      <c r="E305" s="9" t="s">
-        <v>1198</v>
-      </c>
-      <c r="F305" s="4" t="s">
-        <v>1199</v>
-      </c>
-      <c r="G305" s="9" t="s">
-        <v>1319</v>
-      </c>
-      <c r="H305" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="I305" s="9" t="s">
-        <v>1200</v>
       </c>
       <c r="J305" s="5"/>
     </row>
     <row r="306" spans="1:10" ht="15.75">
       <c r="A306" s="9" t="s">
+        <v>1203</v>
+      </c>
+      <c r="B306" s="4" t="s">
         <v>1204</v>
       </c>
-      <c r="B306" s="4" t="s">
-        <v>1205</v>
-      </c>
       <c r="C306" s="9" t="s">
-        <v>1309</v>
+        <v>1307</v>
       </c>
       <c r="D306" s="4" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
       <c r="E306" s="9" t="s">
+        <v>1201</v>
+      </c>
+      <c r="F306" s="4" t="s">
         <v>1202</v>
-      </c>
-      <c r="F306" s="4" t="s">
-        <v>1203</v>
       </c>
       <c r="G306" s="9" t="s">
         <v>12</v>
@@ -13389,227 +13411,227 @@
     </row>
     <row r="307" spans="1:10" ht="15.75">
       <c r="A307" s="9" t="s">
-        <v>1209</v>
+        <v>1208</v>
       </c>
       <c r="B307" s="4" t="s">
+        <v>1206</v>
+      </c>
+      <c r="C307" s="9" t="s">
         <v>1207</v>
       </c>
-      <c r="C307" s="9" t="s">
-        <v>1208</v>
-      </c>
       <c r="D307" s="4" t="s">
-        <v>1207</v>
+        <v>1206</v>
       </c>
       <c r="E307" s="9" t="s">
+        <v>1205</v>
+      </c>
+      <c r="F307" s="4" t="s">
         <v>1206</v>
-      </c>
-      <c r="F307" s="4" t="s">
-        <v>1207</v>
       </c>
       <c r="G307" s="9" t="s">
         <v>12</v>
       </c>
       <c r="H307" s="6" t="s">
-        <v>1307</v>
+        <v>1305</v>
       </c>
       <c r="I307" s="6"/>
       <c r="J307" s="5"/>
     </row>
     <row r="308" spans="1:10" ht="15.75">
       <c r="A308" s="9" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
       <c r="B308" s="4" t="s">
+        <v>1210</v>
+      </c>
+      <c r="C308" s="9" t="s">
         <v>1211</v>
       </c>
-      <c r="C308" s="9" t="s">
-        <v>1212</v>
-      </c>
       <c r="D308" s="4" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
       <c r="E308" s="9" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
       <c r="F308" s="4" t="s">
-        <v>1211</v>
+        <v>1341</v>
       </c>
       <c r="G308" s="9" t="s">
         <v>12</v>
       </c>
       <c r="H308" s="6" t="s">
-        <v>1307</v>
+        <v>1305</v>
       </c>
       <c r="I308" s="6"/>
       <c r="J308" s="5"/>
     </row>
     <row r="309" spans="1:10" ht="15.75">
       <c r="A309" s="9" t="s">
-        <v>1312</v>
+        <v>1310</v>
       </c>
       <c r="B309" s="4" t="s">
-        <v>1217</v>
+        <v>1216</v>
       </c>
       <c r="C309" s="9" t="s">
+        <v>1214</v>
+      </c>
+      <c r="D309" s="4" t="s">
         <v>1215</v>
       </c>
-      <c r="D309" s="4" t="s">
-        <v>1216</v>
-      </c>
       <c r="E309" s="9" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="F309" s="4" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
       <c r="G309" s="9" t="s">
         <v>12</v>
       </c>
       <c r="H309" s="6" t="s">
-        <v>1307</v>
+        <v>1305</v>
       </c>
       <c r="I309" s="6"/>
       <c r="J309" s="5"/>
     </row>
     <row r="310" spans="1:10" ht="15.75">
       <c r="A310" s="9" t="s">
-        <v>1311</v>
+        <v>1309</v>
       </c>
       <c r="B310" s="4" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
       <c r="C310" s="9" t="s">
-        <v>1310</v>
+        <v>1308</v>
       </c>
       <c r="D310" s="4" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
       <c r="E310" s="9" t="s">
-        <v>1306</v>
+        <v>1304</v>
       </c>
       <c r="F310" s="4" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
       <c r="G310" s="9" t="s">
         <v>12</v>
       </c>
       <c r="H310" s="6" t="s">
-        <v>1307</v>
+        <v>1305</v>
       </c>
       <c r="I310" s="6"/>
       <c r="J310" s="5"/>
     </row>
     <row r="311" spans="1:10" s="2" customFormat="1" ht="15.75">
       <c r="A311" s="14" t="s">
+        <v>1334</v>
+      </c>
+      <c r="B311" s="14" t="s">
+        <v>1335</v>
+      </c>
+      <c r="C311" s="14" t="s">
         <v>1336</v>
       </c>
-      <c r="B311" s="14" t="s">
+      <c r="D311" s="14" t="s">
+        <v>1335</v>
+      </c>
+      <c r="E311" s="14" t="s">
         <v>1337</v>
       </c>
-      <c r="C311" s="14" t="s">
-        <v>1338</v>
-      </c>
-      <c r="D311" s="14" t="s">
-        <v>1337</v>
-      </c>
-      <c r="E311" s="14" t="s">
-        <v>1339</v>
-      </c>
       <c r="F311" s="14" t="s">
-        <v>1337</v>
+        <v>1335</v>
       </c>
       <c r="G311" s="14" t="s">
         <v>12</v>
       </c>
       <c r="H311" s="15" t="s">
-        <v>1340</v>
+        <v>1338</v>
       </c>
       <c r="I311" s="6"/>
       <c r="J311" s="5"/>
     </row>
     <row r="312" spans="1:10" ht="15.75">
       <c r="A312" s="9" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
       <c r="B312" s="4" t="s">
+        <v>1219</v>
+      </c>
+      <c r="C312" s="9" t="s">
         <v>1220</v>
       </c>
-      <c r="C312" s="9" t="s">
-        <v>1221</v>
-      </c>
       <c r="D312" s="4" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="E312" s="9" t="s">
+        <v>1218</v>
+      </c>
+      <c r="F312" s="4" t="s">
         <v>1219</v>
-      </c>
-      <c r="F312" s="4" t="s">
-        <v>1220</v>
       </c>
       <c r="G312" s="9" t="s">
         <v>12</v>
       </c>
       <c r="H312" s="6" t="s">
-        <v>1307</v>
+        <v>1305</v>
       </c>
       <c r="I312" s="6"/>
       <c r="J312" s="5"/>
     </row>
     <row r="313" spans="1:10" ht="15.75">
       <c r="A313" s="9" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
       <c r="B313" s="4" t="s">
+        <v>1223</v>
+      </c>
+      <c r="C313" s="9" t="s">
         <v>1224</v>
       </c>
-      <c r="C313" s="9" t="s">
-        <v>1225</v>
-      </c>
       <c r="D313" s="4" t="s">
-        <v>1224</v>
+        <v>1223</v>
       </c>
       <c r="E313" s="9" t="s">
+        <v>1222</v>
+      </c>
+      <c r="F313" s="4" t="s">
         <v>1223</v>
-      </c>
-      <c r="F313" s="4" t="s">
-        <v>1224</v>
       </c>
       <c r="G313" s="9" t="s">
         <v>12</v>
       </c>
       <c r="H313" s="6" t="s">
-        <v>1307</v>
+        <v>1305</v>
       </c>
       <c r="I313" s="6"/>
       <c r="J313" s="5"/>
     </row>
     <row r="314" spans="1:10" ht="15.75">
       <c r="A314" s="9" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
       <c r="B314" s="4" t="s">
-        <v>1230</v>
+        <v>1344</v>
       </c>
       <c r="C314" s="9" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
       <c r="D314" s="4" t="s">
-        <v>1227</v>
+        <v>1226</v>
       </c>
       <c r="E314" s="9" t="s">
-        <v>1294</v>
+        <v>1292</v>
       </c>
       <c r="F314" s="4" t="s">
-        <v>1227</v>
+        <v>1226</v>
       </c>
       <c r="G314" s="9" t="s">
         <v>12</v>
       </c>
       <c r="H314" s="6" t="s">
-        <v>1307</v>
+        <v>1305</v>
       </c>
       <c r="I314" s="6" t="s">
-        <v>1295</v>
+        <v>1293</v>
       </c>
       <c r="J314" s="5"/>
     </row>
@@ -13617,334 +13639,334 @@
       <c r="A315" s="9"/>
       <c r="B315" s="4"/>
       <c r="C315" s="9" t="s">
-        <v>1233</v>
+        <v>1231</v>
       </c>
       <c r="D315" s="4" t="s">
-        <v>1232</v>
+        <v>1230</v>
       </c>
       <c r="E315" s="9" t="s">
-        <v>1231</v>
+        <v>1229</v>
       </c>
       <c r="F315" s="4" t="s">
-        <v>1232</v>
+        <v>1230</v>
       </c>
       <c r="G315" s="9" t="s">
         <v>12</v>
       </c>
       <c r="H315" s="6" t="s">
-        <v>1282</v>
+        <v>1280</v>
       </c>
       <c r="I315" s="6" t="s">
-        <v>1295</v>
+        <v>1293</v>
       </c>
       <c r="J315" s="5"/>
     </row>
     <row r="316" spans="1:10" ht="15.75">
       <c r="A316" s="9" t="s">
-        <v>1324</v>
+        <v>1322</v>
       </c>
       <c r="B316" s="4" t="s">
-        <v>1234</v>
+        <v>1232</v>
       </c>
       <c r="C316" s="9" t="s">
-        <v>1235</v>
+        <v>1233</v>
       </c>
       <c r="D316" s="4" t="s">
-        <v>1234</v>
+        <v>1232</v>
       </c>
       <c r="E316" s="9" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="F316" s="4" t="s">
-        <v>1234</v>
+        <v>1232</v>
       </c>
       <c r="G316" s="9" t="s">
         <v>12</v>
       </c>
       <c r="H316" s="6" t="s">
-        <v>1282</v>
+        <v>1280</v>
       </c>
       <c r="I316" s="6"/>
       <c r="J316" s="5"/>
     </row>
     <row r="317" spans="1:10" ht="15.75">
       <c r="A317" s="9" t="s">
-        <v>1323</v>
+        <v>1321</v>
       </c>
       <c r="B317" s="4" t="s">
-        <v>1330</v>
+        <v>1328</v>
       </c>
       <c r="C317" s="9" t="s">
-        <v>1321</v>
+        <v>1319</v>
       </c>
       <c r="D317" s="4" t="s">
-        <v>1237</v>
+        <v>1235</v>
       </c>
       <c r="E317" s="9" t="s">
-        <v>1314</v>
+        <v>1312</v>
       </c>
       <c r="F317" s="4" t="s">
-        <v>1236</v>
+        <v>1234</v>
       </c>
       <c r="G317" s="9" t="s">
         <v>12</v>
       </c>
       <c r="H317" s="6" t="s">
-        <v>1307</v>
+        <v>1305</v>
       </c>
       <c r="I317" s="6"/>
       <c r="J317" s="5"/>
     </row>
     <row r="318" spans="1:10" ht="15.75">
       <c r="A318" s="9" t="s">
-        <v>1325</v>
+        <v>1323</v>
       </c>
       <c r="B318" s="4" t="s">
-        <v>1331</v>
+        <v>1329</v>
       </c>
       <c r="C318" s="9" t="s">
-        <v>1240</v>
+        <v>1238</v>
       </c>
       <c r="D318" s="4" t="s">
-        <v>1241</v>
+        <v>1239</v>
       </c>
       <c r="E318" s="9" t="s">
-        <v>1238</v>
+        <v>1236</v>
       </c>
       <c r="F318" s="4" t="s">
-        <v>1239</v>
+        <v>1237</v>
       </c>
       <c r="G318" s="9" t="s">
         <v>12</v>
       </c>
       <c r="H318" s="6" t="s">
-        <v>1307</v>
+        <v>1305</v>
       </c>
       <c r="I318" s="6"/>
       <c r="J318" s="5"/>
     </row>
     <row r="319" spans="1:10" ht="15.75">
       <c r="A319" s="9" t="s">
-        <v>1326</v>
+        <v>1324</v>
       </c>
       <c r="B319" s="4" t="s">
-        <v>1322</v>
+        <v>1320</v>
       </c>
       <c r="C319" s="9" t="s">
-        <v>1308</v>
+        <v>1306</v>
       </c>
       <c r="D319" s="4" t="s">
-        <v>1322</v>
+        <v>1320</v>
       </c>
       <c r="E319" s="9" t="s">
-        <v>1242</v>
+        <v>1240</v>
       </c>
       <c r="F319" s="4" t="s">
-        <v>1243</v>
+        <v>1241</v>
       </c>
       <c r="G319" s="9" t="s">
         <v>12</v>
       </c>
       <c r="H319" s="6" t="s">
-        <v>1307</v>
+        <v>1305</v>
       </c>
       <c r="I319" s="6"/>
       <c r="J319" s="5"/>
     </row>
     <row r="320" spans="1:10" ht="15.75">
       <c r="A320" s="9" t="s">
-        <v>1327</v>
+        <v>1325</v>
       </c>
       <c r="B320" s="4" t="s">
-        <v>1332</v>
+        <v>1330</v>
       </c>
       <c r="C320" s="9" t="s">
-        <v>1246</v>
+        <v>1244</v>
       </c>
       <c r="D320" s="4" t="s">
-        <v>1247</v>
+        <v>1245</v>
       </c>
       <c r="E320" s="9" t="s">
-        <v>1244</v>
+        <v>1242</v>
       </c>
       <c r="F320" s="4" t="s">
-        <v>1245</v>
+        <v>1243</v>
       </c>
       <c r="G320" s="9" t="s">
         <v>12</v>
       </c>
       <c r="H320" s="6" t="s">
-        <v>1307</v>
+        <v>1305</v>
       </c>
       <c r="I320" s="9"/>
       <c r="J320" s="5"/>
     </row>
     <row r="321" spans="1:10" ht="15.75">
       <c r="A321" s="9" t="s">
-        <v>1328</v>
+        <v>1326</v>
       </c>
       <c r="B321" s="4" t="s">
-        <v>1318</v>
+        <v>1316</v>
       </c>
       <c r="C321" s="9" t="s">
-        <v>1318</v>
+        <v>1316</v>
       </c>
       <c r="D321" s="4" t="s">
-        <v>1318</v>
+        <v>1316</v>
       </c>
       <c r="E321" s="9" t="s">
-        <v>1248</v>
+        <v>1246</v>
       </c>
       <c r="F321" s="4" t="s">
-        <v>1249</v>
+        <v>1247</v>
       </c>
       <c r="G321" s="9" t="s">
-        <v>1319</v>
+        <v>1317</v>
       </c>
       <c r="H321" s="6" t="s">
-        <v>1307</v>
+        <v>1305</v>
       </c>
       <c r="I321" s="9" t="s">
-        <v>1334</v>
+        <v>1332</v>
       </c>
       <c r="J321" s="5"/>
     </row>
     <row r="322" spans="1:10" ht="15.75">
       <c r="A322" s="9" t="s">
-        <v>1329</v>
+        <v>1327</v>
       </c>
       <c r="B322" s="4" t="s">
-        <v>1251</v>
+        <v>1249</v>
       </c>
       <c r="C322" s="9" t="s">
-        <v>1252</v>
+        <v>1250</v>
       </c>
       <c r="D322" s="4" t="s">
-        <v>1251</v>
+        <v>1249</v>
       </c>
       <c r="E322" s="9" t="s">
-        <v>1250</v>
+        <v>1248</v>
       </c>
       <c r="F322" s="4" t="s">
-        <v>1251</v>
+        <v>1249</v>
       </c>
       <c r="G322" s="9" t="s">
-        <v>1320</v>
+        <v>1318</v>
       </c>
       <c r="H322" s="6" t="s">
-        <v>1307</v>
+        <v>1305</v>
       </c>
       <c r="I322" s="6"/>
       <c r="J322" s="5"/>
     </row>
     <row r="323" spans="1:10" ht="15.75">
       <c r="A323" s="9" t="s">
-        <v>1257</v>
+        <v>1255</v>
       </c>
       <c r="B323" s="4" t="s">
-        <v>1258</v>
+        <v>1256</v>
       </c>
       <c r="C323" s="9" t="s">
-        <v>1255</v>
+        <v>1253</v>
       </c>
       <c r="D323" s="4" t="s">
-        <v>1256</v>
+        <v>1254</v>
       </c>
       <c r="E323" s="9" t="s">
-        <v>1253</v>
+        <v>1251</v>
       </c>
       <c r="F323" s="4" t="s">
-        <v>1254</v>
+        <v>1252</v>
       </c>
       <c r="G323" s="9" t="s">
-        <v>1319</v>
+        <v>1317</v>
       </c>
       <c r="H323" s="6" t="s">
-        <v>1307</v>
+        <v>1305</v>
       </c>
       <c r="I323" s="6"/>
       <c r="J323" s="5"/>
     </row>
     <row r="324" spans="1:10" ht="15.75">
       <c r="A324" s="9" t="s">
-        <v>1263</v>
+        <v>1261</v>
       </c>
       <c r="B324" s="4" t="s">
-        <v>1264</v>
+        <v>1262</v>
       </c>
       <c r="C324" s="9" t="s">
-        <v>1261</v>
+        <v>1259</v>
       </c>
       <c r="D324" s="4" t="s">
-        <v>1262</v>
+        <v>1260</v>
       </c>
       <c r="E324" s="9" t="s">
-        <v>1259</v>
+        <v>1257</v>
       </c>
       <c r="F324" s="4" t="s">
-        <v>1260</v>
+        <v>1258</v>
       </c>
       <c r="G324" s="9" t="s">
         <v>12</v>
       </c>
       <c r="H324" s="6" t="s">
-        <v>1307</v>
+        <v>1305</v>
       </c>
       <c r="I324" s="6"/>
       <c r="J324" s="5"/>
     </row>
     <row r="325" spans="1:10" ht="15.75">
       <c r="A325" s="9" t="s">
+        <v>1001</v>
+      </c>
+      <c r="B325" s="4" t="s">
         <v>1002</v>
       </c>
-      <c r="B325" s="4" t="s">
-        <v>1003</v>
-      </c>
       <c r="C325" s="9" t="s">
+        <v>999</v>
+      </c>
+      <c r="D325" s="4" t="s">
         <v>1000</v>
       </c>
-      <c r="D325" s="4" t="s">
-        <v>1001</v>
-      </c>
       <c r="E325" s="9" t="s">
-        <v>1265</v>
+        <v>1263</v>
       </c>
       <c r="F325" s="4" t="s">
-        <v>1266</v>
+        <v>1264</v>
       </c>
       <c r="G325" s="9" t="s">
-        <v>1319</v>
+        <v>1317</v>
       </c>
       <c r="H325" s="6" t="s">
-        <v>1307</v>
+        <v>1305</v>
       </c>
       <c r="I325" s="6"/>
       <c r="J325" s="5"/>
     </row>
     <row r="326" spans="1:10" ht="15.75">
       <c r="A326" s="9" t="s">
-        <v>1271</v>
+        <v>1269</v>
       </c>
       <c r="B326" s="4" t="s">
-        <v>1272</v>
+        <v>1270</v>
       </c>
       <c r="C326" s="9" t="s">
-        <v>1269</v>
+        <v>1267</v>
       </c>
       <c r="D326" s="4" t="s">
-        <v>1270</v>
+        <v>1268</v>
       </c>
       <c r="E326" s="9" t="s">
-        <v>1267</v>
+        <v>1265</v>
       </c>
       <c r="F326" s="4" t="s">
-        <v>1268</v>
+        <v>1266</v>
       </c>
       <c r="G326" s="9" t="s">
         <v>12</v>
       </c>
       <c r="H326" s="6" t="s">
-        <v>1307</v>
+        <v>1305</v>
       </c>
       <c r="I326" s="6"/>
       <c r="J326" s="5"/>
